--- a/2022_CnC_records.xlsx
+++ b/2022_CnC_records.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\powerof10-tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1246FCF0-4B26-4205-A9A2-949A425E8445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A470B970-1C48-4D9A-8D95-F6F73DE2C09F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{59E39808-5DD1-48A0-8CDE-64F5926DA7BC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{59E39808-5DD1-48A0-8CDE-64F5926DA7BC}"/>
   </bookViews>
   <sheets>
     <sheet name="2022_Overall" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4576" uniqueCount="1188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4577" uniqueCount="1189">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -2967,9 +2967,6 @@
     <t xml:space="preserve">15:23.2 </t>
   </si>
   <si>
-    <t xml:space="preserve">32:06.3 </t>
-  </si>
-  <si>
     <t xml:space="preserve">4:39.5 </t>
   </si>
   <si>
@@ -3607,6 +3604,12 @@
   </si>
   <si>
     <t>Carole Morris</t>
+  </si>
+  <si>
+    <t>Corrected from original 32:06.3 to powerof10 time</t>
+  </si>
+  <si>
+    <t>32:06.62</t>
   </si>
 </sst>
 </file>
@@ -4011,7 +4014,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0672E4C-1F81-4344-8F80-ED5988EB27BD}">
   <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -4026,7 +4029,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>379</v>
@@ -4055,7 +4058,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
@@ -4602,7 +4605,7 @@
         <v>38</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>98</v>
@@ -4689,7 +4692,7 @@
     </row>
     <row r="30" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B30" s="6" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>1</v>
@@ -9795,7 +9798,7 @@
         <v>667</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>101</v>
@@ -9818,7 +9821,7 @@
         <v>668</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>100</v>
@@ -14325,8 +14328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BA3259E-AFD6-4FCB-BD83-44E5FC56E958}">
   <dimension ref="A1:J229"/>
   <sheetViews>
-    <sheetView topLeftCell="A190" workbookViewId="0">
-      <selection activeCell="G229" sqref="G229"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14587,7 +14590,7 @@
         <v>919</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>98</v>
@@ -14596,7 +14599,7 @@
         <v>888</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -14935,7 +14938,7 @@
         <v>38</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>98</v>
@@ -15018,7 +15021,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>1</v>
@@ -15185,7 +15188,7 @@
         <v>624</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>974</v>
+        <v>1188</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>299</v>
@@ -15201,6 +15204,9 @@
       </c>
       <c r="I38" s="1" t="s">
         <v>889</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>1187</v>
       </c>
     </row>
     <row r="39" spans="3:10" x14ac:dyDescent="0.2">
@@ -15208,7 +15214,7 @@
         <v>14</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>299</v>
@@ -15231,7 +15237,7 @@
         <v>957</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>703</v>
@@ -15240,7 +15246,7 @@
         <v>958</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>98</v>
@@ -15249,7 +15255,7 @@
         <v>889</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="41" spans="3:10" x14ac:dyDescent="0.2">
@@ -15257,7 +15263,7 @@
         <v>55</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>646</v>
@@ -15280,7 +15286,7 @@
         <v>18</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>299</v>
@@ -15303,7 +15309,7 @@
         <v>20</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>299</v>
@@ -15326,7 +15332,7 @@
         <v>60</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>486</v>
@@ -15349,7 +15355,7 @@
         <v>62</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>667</v>
@@ -15372,7 +15378,7 @@
         <v>64</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>703</v>
@@ -15395,7 +15401,7 @@
         <v>66</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>703</v>
@@ -15418,7 +15424,7 @@
         <v>921</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>674</v>
@@ -15441,7 +15447,7 @@
         <v>923</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>674</v>
@@ -15464,7 +15470,7 @@
         <v>960</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>530</v>
@@ -15487,7 +15493,7 @@
         <v>925</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>701</v>
@@ -15588,7 +15594,7 @@
         <v>0</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>98</v>
@@ -15625,7 +15631,7 @@
         <v>642</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>486</v>
@@ -15648,7 +15654,7 @@
         <v>644</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>486</v>
@@ -15668,19 +15674,19 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>378</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>388</v>
@@ -15697,13 +15703,13 @@
         <v>3</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>378</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>383</v>
@@ -15720,13 +15726,13 @@
         <v>5</v>
       </c>
       <c r="D62" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E62" s="1" t="s">
         <v>1003</v>
       </c>
-      <c r="E62" s="1" t="s">
-        <v>1004</v>
-      </c>
       <c r="F62" s="1" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>384</v>
@@ -15743,13 +15749,13 @@
         <v>7</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>385</v>
@@ -15766,13 +15772,13 @@
         <v>9</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>530</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>386</v>
@@ -15789,13 +15795,13 @@
         <v>11</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>703</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>387</v>
@@ -15812,13 +15818,13 @@
         <v>12</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>703</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>601</v>
@@ -15835,13 +15841,13 @@
         <v>624</v>
       </c>
       <c r="D67" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E67" s="1" t="s">
         <v>1009</v>
       </c>
-      <c r="E67" s="1" t="s">
-        <v>1010</v>
-      </c>
       <c r="F67" s="1" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>899</v>
@@ -15858,13 +15864,13 @@
         <v>14</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>674</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>80</v>
@@ -15881,7 +15887,7 @@
         <v>957</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>667</v>
@@ -15890,7 +15896,7 @@
         <v>958</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>98</v>
@@ -15899,7 +15905,7 @@
         <v>890</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="70" spans="3:10" x14ac:dyDescent="0.2">
@@ -15907,7 +15913,7 @@
         <v>55</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>801</v>
@@ -15927,7 +15933,7 @@
     </row>
     <row r="71" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>0</v>
@@ -15953,7 +15959,7 @@
         <v>20</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>351</v>
@@ -15976,13 +15982,13 @@
         <v>60</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>423</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>85</v>
@@ -15999,13 +16005,13 @@
         <v>62</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>378</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>86</v>
@@ -16022,13 +16028,13 @@
         <v>64</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>423</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>87</v>
@@ -16045,7 +16051,7 @@
         <v>66</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>740</v>
@@ -16068,7 +16074,7 @@
         <v>921</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>653</v>
@@ -16091,13 +16097,13 @@
         <v>923</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>801</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>110</v>
@@ -16114,13 +16120,13 @@
         <v>960</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>801</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>103</v>
@@ -16137,7 +16143,7 @@
         <v>925</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>653</v>
@@ -16160,13 +16166,13 @@
         <v>636</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>671</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>902</v>
@@ -16206,13 +16212,13 @@
         <v>681</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>671</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>900</v>
@@ -16295,13 +16301,13 @@
         <v>644</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>653</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>106</v>
@@ -16315,19 +16321,19 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>674</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>388</v>
@@ -16344,13 +16350,13 @@
         <v>3</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>674</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>383</v>
@@ -16367,13 +16373,13 @@
         <v>5</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>674</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>384</v>
@@ -16390,13 +16396,13 @@
         <v>7</v>
       </c>
       <c r="D92" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E92" s="1" t="s">
         <v>1043</v>
       </c>
-      <c r="E92" s="1" t="s">
-        <v>1044</v>
-      </c>
       <c r="F92" s="1" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>385</v>
@@ -16413,13 +16419,13 @@
         <v>9</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>721</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="G93" s="1" t="s">
         <v>386</v>
@@ -16436,13 +16442,13 @@
         <v>11</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>721</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>387</v>
@@ -16459,13 +16465,13 @@
         <v>12</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>674</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>601</v>
@@ -16482,13 +16488,13 @@
         <v>14</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>674</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>80</v>
@@ -16502,10 +16508,10 @@
     </row>
     <row r="97" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>740</v>
@@ -16514,7 +16520,7 @@
         <v>958</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>98</v>
@@ -16528,7 +16534,7 @@
         <v>55</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>801</v>
@@ -16551,13 +16557,13 @@
         <v>60</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="E99" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="F99" s="1" t="s">
         <v>1028</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>1029</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>85</v>
@@ -16574,13 +16580,13 @@
         <v>62</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>674</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>86</v>
@@ -16597,13 +16603,13 @@
         <v>64</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>659</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>87</v>
@@ -16620,13 +16626,13 @@
         <v>66</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="E102" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="F102" s="1" t="s">
         <v>1030</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>1031</v>
       </c>
       <c r="G102" s="1" t="s">
         <v>88</v>
@@ -16640,16 +16646,16 @@
     </row>
     <row r="103" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C103" s="1" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>701</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="G103" s="1" t="s">
         <v>602</v>
@@ -16663,16 +16669,16 @@
     </row>
     <row r="104" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C104" s="1" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>526</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="G104" s="1" t="s">
         <v>617</v>
@@ -16686,16 +16692,16 @@
     </row>
     <row r="105" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C105" s="1" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>701</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="G105" s="1" t="s">
         <v>608</v>
@@ -16709,10 +16715,10 @@
     </row>
     <row r="106" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C106" s="1" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>526</v>
@@ -16735,13 +16741,13 @@
         <v>636</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>764</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="G107" s="1" t="s">
         <v>902</v>
@@ -16758,13 +16764,13 @@
         <v>638</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>734</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="G108" s="1" t="s">
         <v>901</v>
@@ -16781,13 +16787,13 @@
         <v>681</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>734</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="G109" s="1" t="s">
         <v>900</v>
@@ -16847,13 +16853,13 @@
         <v>642</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>486</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="G112" s="1" t="s">
         <v>105</v>
@@ -16870,13 +16876,13 @@
         <v>644</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>734</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="G113" s="1" t="s">
         <v>106</v>
@@ -16890,13 +16896,13 @@
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>701</v>
@@ -16919,7 +16925,7 @@
         <v>3</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>774</v>
@@ -16942,13 +16948,13 @@
         <v>5</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="G117" s="1" t="s">
         <v>384</v>
@@ -16965,13 +16971,13 @@
         <v>7</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="G118" s="1" t="s">
         <v>385</v>
@@ -16988,13 +16994,13 @@
         <v>9</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="G119" s="1" t="s">
         <v>386</v>
@@ -17011,13 +17017,13 @@
         <v>11</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>486</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="G120" s="1" t="s">
         <v>387</v>
@@ -17034,13 +17040,13 @@
         <v>12</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>526</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="G121" s="1" t="s">
         <v>601</v>
@@ -17057,13 +17063,13 @@
         <v>14</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>486</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="G122" s="1" t="s">
         <v>80</v>
@@ -17077,19 +17083,19 @@
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C123" s="1" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>351</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="H123" s="1" t="s">
         <v>98</v>
@@ -17106,13 +17112,13 @@
         <v>55</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>526</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="G124" s="1" t="s">
         <v>82</v>
@@ -17129,13 +17135,13 @@
         <v>60</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>526</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="G125" s="1" t="s">
         <v>85</v>
@@ -17152,13 +17158,13 @@
         <v>62</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>299</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="G126" s="1" t="s">
         <v>86</v>
@@ -17175,13 +17181,13 @@
         <v>64</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>653</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="G127" s="1" t="s">
         <v>87</v>
@@ -17198,7 +17204,7 @@
         <v>66</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>774</v>
@@ -17218,16 +17224,16 @@
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C129" s="1" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>299</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G129" s="1" t="s">
         <v>602</v>
@@ -17241,16 +17247,16 @@
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C130" s="1" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>326</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G130" s="1" t="s">
         <v>617</v>
@@ -17264,16 +17270,16 @@
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C131" s="1" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>742</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="G131" s="1" t="s">
         <v>608</v>
@@ -17287,7 +17293,7 @@
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C132" s="1" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>700</v>
@@ -17296,7 +17302,7 @@
         <v>328</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="G132" s="1" t="s">
         <v>615</v>
@@ -17310,19 +17316,19 @@
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C133" s="1" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>371</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="H133" s="1" t="s">
         <v>98</v>
@@ -17339,13 +17345,13 @@
         <v>636</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>653</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="G134" s="1" t="s">
         <v>902</v>
@@ -17362,13 +17368,13 @@
         <v>638</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>299</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="G135" s="1" t="s">
         <v>901</v>
@@ -17385,13 +17391,13 @@
         <v>681</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>299</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="G136" s="1" t="s">
         <v>900</v>
@@ -17405,19 +17411,19 @@
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C137" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D137" s="1" t="s">
         <v>1072</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>1073</v>
       </c>
       <c r="E137" s="1" t="s">
         <v>594</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="H137" s="1" t="s">
         <v>98</v>
@@ -17428,16 +17434,16 @@
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C138" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D138" s="1" t="s">
         <v>1074</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>1075</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>671</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="H138" s="1" t="s">
         <v>98</v>
@@ -17446,7 +17452,7 @@
         <v>892</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.2">
@@ -17497,7 +17503,7 @@
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>1</v>
@@ -17509,7 +17515,7 @@
         <v>526</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="G142" s="1" t="s">
         <v>388</v>
@@ -17526,7 +17532,7 @@
         <v>3</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="E143" s="1" t="s">
         <v>742</v>
@@ -17549,13 +17555,13 @@
         <v>5</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>667</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="G144" s="1" t="s">
         <v>384</v>
@@ -17572,13 +17578,13 @@
         <v>7</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>667</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="G145" s="1" t="s">
         <v>385</v>
@@ -17595,13 +17601,13 @@
         <v>9</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="E146" s="1" t="s">
         <v>526</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="G146" s="1" t="s">
         <v>386</v>
@@ -17618,13 +17624,13 @@
         <v>11</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>526</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="G147" s="1" t="s">
         <v>387</v>
@@ -17641,13 +17647,13 @@
         <v>12</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="E148" s="1" t="s">
         <v>526</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="G148" s="1" t="s">
         <v>601</v>
@@ -17664,13 +17670,13 @@
         <v>624</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="E149" s="1" t="s">
         <v>526</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="G149" s="1" t="s">
         <v>899</v>
@@ -17687,13 +17693,13 @@
         <v>14</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="E150" s="1" t="s">
         <v>351</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="G150" s="1" t="s">
         <v>80</v>
@@ -17707,7 +17713,7 @@
     </row>
     <row r="151" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C151" s="1" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>0</v>
@@ -17753,13 +17759,13 @@
         <v>60</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="G153" s="1" t="s">
         <v>85</v>
@@ -17776,13 +17782,13 @@
         <v>62</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="E154" s="1" t="s">
         <v>351</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="G154" s="1" t="s">
         <v>86</v>
@@ -17799,13 +17805,13 @@
         <v>64</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="E155" s="1" t="s">
         <v>526</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="G155" s="1" t="s">
         <v>87</v>
@@ -17822,7 +17828,7 @@
         <v>66</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="E156" s="1" t="s">
         <v>742</v>
@@ -17842,16 +17848,16 @@
     </row>
     <row r="157" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C157" s="1" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="E157" s="1" t="s">
         <v>351</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="G157" s="1" t="s">
         <v>616</v>
@@ -17868,13 +17874,13 @@
         <v>631</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="E158" s="1" t="s">
         <v>659</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="G158" s="1" t="s">
         <v>109</v>
@@ -17891,13 +17897,13 @@
         <v>716</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="E159" s="1" t="s">
         <v>659</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="G159" s="1" t="s">
         <v>100</v>
@@ -17911,19 +17917,19 @@
     </row>
     <row r="160" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C160" s="1" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="E160" s="1" t="s">
         <v>378</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="H160" s="1" t="s">
         <v>98</v>
@@ -17934,19 +17940,19 @@
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C161" s="1" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="E161" s="1" t="s">
         <v>378</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="G161" s="5" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="H161" s="1" t="s">
         <v>98</v>
@@ -17963,13 +17969,13 @@
         <v>636</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>671</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="G162" s="1" t="s">
         <v>902</v>
@@ -18009,13 +18015,13 @@
         <v>681</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="E164" s="1" t="s">
         <v>671</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="G164" s="1" t="s">
         <v>900</v>
@@ -18029,19 +18035,19 @@
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C165" s="1" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="E165" s="1" t="s">
         <v>378</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="H165" s="1" t="s">
         <v>98</v>
@@ -18052,16 +18058,16 @@
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C166" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="E166" s="1" t="s">
         <v>378</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="H166" s="1" t="s">
         <v>98</v>
@@ -18070,7 +18076,7 @@
         <v>893</v>
       </c>
       <c r="J166" s="1" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.2">
@@ -18121,13 +18127,13 @@
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="E170" s="1" t="s">
         <v>378</v>
@@ -18150,7 +18156,7 @@
         <v>3</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="E171" s="1" t="s">
         <v>378</v>
@@ -18173,7 +18179,7 @@
         <v>5</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="E172" s="1" t="s">
         <v>378</v>
@@ -18196,13 +18202,13 @@
         <v>7</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="E173" s="1" t="s">
         <v>486</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="G173" s="1" t="s">
         <v>385</v>
@@ -18219,13 +18225,13 @@
         <v>9</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="E174" s="1" t="s">
         <v>423</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="G174" s="1" t="s">
         <v>386</v>
@@ -18242,13 +18248,13 @@
         <v>11</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="E175" s="1" t="s">
         <v>486</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="G175" s="1" t="s">
         <v>387</v>
@@ -18302,7 +18308,7 @@
     </row>
     <row r="178" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C178" s="1" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>0</v>
@@ -18345,7 +18351,7 @@
         <v>60</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="E180" s="1" t="s">
         <v>378</v>
@@ -18368,7 +18374,7 @@
         <v>62</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="E181" s="1" t="s">
         <v>378</v>
@@ -18391,7 +18397,7 @@
         <v>64</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="E182" s="1" t="s">
         <v>674</v>
@@ -18414,7 +18420,7 @@
         <v>66</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="E183" s="1" t="s">
         <v>674</v>
@@ -18434,16 +18440,16 @@
     </row>
     <row r="184" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C184" s="1" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="E184" s="1" t="s">
         <v>326</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G184" s="1" t="s">
         <v>616</v>
@@ -18460,13 +18466,13 @@
         <v>631</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="E185" s="1" t="s">
         <v>326</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G185" s="1" t="s">
         <v>109</v>
@@ -18483,7 +18489,7 @@
         <v>716</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E186" s="1" t="s">
         <v>423</v>
@@ -18503,19 +18509,19 @@
     </row>
     <row r="187" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C187" s="1" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E187" s="1" t="s">
         <v>326</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="H187" s="1" t="s">
         <v>98</v>
@@ -18526,7 +18532,7 @@
     </row>
     <row r="188" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C188" s="1" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="D188" s="1" t="s">
         <v>0</v>
@@ -18549,13 +18555,13 @@
         <v>636</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="E189" s="1" t="s">
         <v>326</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="G189" s="1" t="s">
         <v>902</v>
@@ -18572,13 +18578,13 @@
         <v>638</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E190" s="1" t="s">
         <v>326</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="G190" s="1" t="s">
         <v>901</v>
@@ -18595,13 +18601,13 @@
         <v>681</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E191" s="1" t="s">
         <v>326</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="G191" s="1" t="s">
         <v>900</v>
@@ -18615,7 +18621,7 @@
     </row>
     <row r="192" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C192" s="1" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="D192" s="1" t="s">
         <v>0</v>
@@ -18635,7 +18641,7 @@
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C193" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>0</v>
@@ -18695,13 +18701,13 @@
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="E197" s="1" t="s">
         <v>764</v>
@@ -18724,7 +18730,7 @@
         <v>3</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="E198" s="1" t="s">
         <v>653</v>
@@ -18747,7 +18753,7 @@
         <v>5</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="E199" s="1" t="s">
         <v>764</v>
@@ -18770,13 +18776,13 @@
         <v>7</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="E200" s="1" t="s">
         <v>742</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G200" s="1" t="s">
         <v>385</v>
@@ -18793,13 +18799,13 @@
         <v>9</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="E201" s="1" t="s">
         <v>832</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G201" s="1" t="s">
         <v>386</v>
@@ -18839,13 +18845,13 @@
         <v>12</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G203" s="1" t="s">
         <v>601</v>
@@ -18862,13 +18868,13 @@
         <v>14</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="E204" s="1" t="s">
         <v>653</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G204" s="1" t="s">
         <v>80</v>
@@ -18931,7 +18937,7 @@
         <v>64</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="E207" s="1" t="s">
         <v>764</v>
@@ -18954,7 +18960,7 @@
         <v>66</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="E208" s="1" t="s">
         <v>764</v>
@@ -18997,13 +19003,13 @@
         <v>631</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="E210" s="1" t="s">
         <v>734</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G210" s="1" t="s">
         <v>109</v>
@@ -19020,13 +19026,13 @@
         <v>752</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="E211" s="1" t="s">
         <v>299</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G211" s="1" t="s">
         <v>404</v>
@@ -19043,13 +19049,13 @@
         <v>634</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="E212" s="1" t="s">
         <v>653</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G212" s="1" t="s">
         <v>107</v>
@@ -19063,7 +19069,7 @@
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C213" s="1" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="D213" s="1" t="s">
         <v>0</v>
@@ -19106,13 +19112,13 @@
         <v>638</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="E215" s="1" t="s">
         <v>423</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="G215" s="1" t="s">
         <v>901</v>
@@ -19129,13 +19135,13 @@
         <v>681</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="E216" s="1" t="s">
         <v>486</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="G216" s="1" t="s">
         <v>900</v>
@@ -19149,7 +19155,7 @@
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="C218" s="1" t="s">
         <v>1</v>
@@ -19235,13 +19241,13 @@
         <v>9</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="E222" s="1" t="s">
         <v>671</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G222" s="1" t="s">
         <v>386</v>
@@ -19358,13 +19364,13 @@
         <v>752</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="E228" s="1" t="s">
         <v>526</v>
       </c>
       <c r="F228" s="1" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="G228" s="1" t="s">
         <v>404</v>

--- a/2022_CnC_records.xlsx
+++ b/2022_CnC_records.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\powerof10-tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A470B970-1C48-4D9A-8D95-F6F73DE2C09F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{284D3815-B752-4A5D-962E-BF5A445EBC42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{59E39808-5DD1-48A0-8CDE-64F5926DA7BC}"/>
   </bookViews>
   <sheets>
-    <sheet name="2022_Overall" sheetId="1" r:id="rId1"/>
-    <sheet name="2022_Youth_Female" sheetId="3" r:id="rId2"/>
-    <sheet name="2022_Youth_Male" sheetId="4" r:id="rId3"/>
-    <sheet name="2022_Masters_Female" sheetId="5" r:id="rId4"/>
-    <sheet name="2022_Masters_Male" sheetId="6" r:id="rId5"/>
+    <sheet name="Overall" sheetId="1" r:id="rId1"/>
+    <sheet name="Youth_Female" sheetId="3" r:id="rId2"/>
+    <sheet name="Youth_Male" sheetId="4" r:id="rId3"/>
+    <sheet name="Masters_Female" sheetId="5" r:id="rId4"/>
+    <sheet name="Masters_Male" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="sp7.26k_m_all" localSheetId="0">'2022_Overall'!$G$20</definedName>
+    <definedName name="sp7.26k_m_all" localSheetId="0">Overall!$G$20</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4577" uniqueCount="1189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4576" uniqueCount="1191">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -2409,9 +2409,6 @@
     <t xml:space="preserve">12;02.3 </t>
   </si>
   <si>
-    <t xml:space="preserve">6;01.1 </t>
-  </si>
-  <si>
     <t xml:space="preserve">Sprint Hurdles  80m </t>
   </si>
   <si>
@@ -3610,6 +3607,15 @@
   </si>
   <si>
     <t>32:06.62</t>
+  </si>
+  <si>
+    <t>This was a mile running race, not a walk</t>
+  </si>
+  <si>
+    <t>6;01.11</t>
+  </si>
+  <si>
+    <t>Time corrected slightly from 6:01.1 to match po10 exactly</t>
   </si>
 </sst>
 </file>
@@ -4029,7 +4035,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>379</v>
@@ -4058,7 +4064,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
@@ -4605,7 +4611,7 @@
         <v>38</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>98</v>
@@ -4692,7 +4698,7 @@
     </row>
     <row r="30" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B30" s="6" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>1</v>
@@ -9310,8 +9316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CC38CDD-B783-4755-B4DD-3225A4BF53C5}">
   <dimension ref="A1:J226"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="J125" sqref="J125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9370,7 +9376,7 @@
         <v>99</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -9393,7 +9399,7 @@
         <v>99</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -9416,7 +9422,7 @@
         <v>99</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -9439,7 +9445,7 @@
         <v>99</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -9462,7 +9468,7 @@
         <v>99</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -9485,7 +9491,7 @@
         <v>99</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -9508,7 +9514,7 @@
         <v>99</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -9525,13 +9531,13 @@
         <v>625</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>99</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -9554,7 +9560,7 @@
         <v>99</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -9577,7 +9583,7 @@
         <v>99</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -9600,7 +9606,7 @@
         <v>99</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -9623,7 +9629,7 @@
         <v>99</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -9640,13 +9646,13 @@
         <v>0</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>99</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -9669,7 +9675,7 @@
         <v>99</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -9692,7 +9698,7 @@
         <v>99</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -9715,7 +9721,7 @@
         <v>99</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -9738,7 +9744,7 @@
         <v>99</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -9761,7 +9767,7 @@
         <v>99</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -9784,7 +9790,7 @@
         <v>99</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -9798,7 +9804,7 @@
         <v>667</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>101</v>
@@ -9807,7 +9813,7 @@
         <v>99</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -9821,7 +9827,7 @@
         <v>668</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>100</v>
@@ -9830,7 +9836,7 @@
         <v>99</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -9853,7 +9859,7 @@
         <v>99</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -9870,13 +9876,13 @@
         <v>637</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>99</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -9893,13 +9899,13 @@
         <v>0</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>99</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -9916,13 +9922,13 @@
         <v>640</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>99</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -9942,7 +9948,7 @@
         <v>99</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -9959,13 +9965,13 @@
         <v>0</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>99</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -9988,7 +9994,7 @@
         <v>99</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -10011,7 +10017,7 @@
         <v>99</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -10037,7 +10043,7 @@
         <v>99</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="33" spans="3:9" x14ac:dyDescent="0.2">
@@ -10060,7 +10066,7 @@
         <v>99</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="34" spans="3:9" x14ac:dyDescent="0.2">
@@ -10083,7 +10089,7 @@
         <v>99</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="35" spans="3:9" x14ac:dyDescent="0.2">
@@ -10106,7 +10112,7 @@
         <v>99</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="36" spans="3:9" x14ac:dyDescent="0.2">
@@ -10129,7 +10135,7 @@
         <v>99</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="37" spans="3:9" x14ac:dyDescent="0.2">
@@ -10152,7 +10158,7 @@
         <v>99</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="38" spans="3:9" x14ac:dyDescent="0.2">
@@ -10175,7 +10181,7 @@
         <v>99</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="39" spans="3:9" x14ac:dyDescent="0.2">
@@ -10192,13 +10198,13 @@
         <v>625</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>99</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="40" spans="3:9" x14ac:dyDescent="0.2">
@@ -10221,7 +10227,7 @@
         <v>99</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="41" spans="3:9" x14ac:dyDescent="0.2">
@@ -10238,13 +10244,13 @@
         <v>629</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>99</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="42" spans="3:9" x14ac:dyDescent="0.2">
@@ -10267,7 +10273,7 @@
         <v>99</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="43" spans="3:9" x14ac:dyDescent="0.2">
@@ -10290,7 +10296,7 @@
         <v>99</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="44" spans="3:9" x14ac:dyDescent="0.2">
@@ -10307,13 +10313,13 @@
         <v>0</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>99</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="45" spans="3:9" x14ac:dyDescent="0.2">
@@ -10336,7 +10342,7 @@
         <v>99</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="46" spans="3:9" x14ac:dyDescent="0.2">
@@ -10359,7 +10365,7 @@
         <v>99</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="47" spans="3:9" x14ac:dyDescent="0.2">
@@ -10382,7 +10388,7 @@
         <v>99</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="48" spans="3:9" x14ac:dyDescent="0.2">
@@ -10405,7 +10411,7 @@
         <v>99</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
@@ -10428,7 +10434,7 @@
         <v>99</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
@@ -10451,7 +10457,7 @@
         <v>99</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
@@ -10474,7 +10480,7 @@
         <v>99</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
@@ -10497,7 +10503,7 @@
         <v>99</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
@@ -10514,13 +10520,13 @@
         <v>640</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>99</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
@@ -10537,13 +10543,13 @@
         <v>0</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>99</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
@@ -10560,13 +10566,13 @@
         <v>640</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>99</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
@@ -10583,13 +10589,13 @@
         <v>0</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>99</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
@@ -10609,7 +10615,7 @@
         <v>99</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
@@ -10632,7 +10638,7 @@
         <v>99</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
@@ -10655,7 +10661,7 @@
         <v>99</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
@@ -10681,7 +10687,7 @@
         <v>99</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
@@ -10704,7 +10710,7 @@
         <v>99</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
@@ -10727,7 +10733,7 @@
         <v>99</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
@@ -10750,7 +10756,7 @@
         <v>99</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="65" spans="3:9" x14ac:dyDescent="0.2">
@@ -10773,7 +10779,7 @@
         <v>99</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="66" spans="3:9" x14ac:dyDescent="0.2">
@@ -10796,7 +10802,7 @@
         <v>99</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="67" spans="3:9" x14ac:dyDescent="0.2">
@@ -10819,7 +10825,7 @@
         <v>99</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="68" spans="3:9" x14ac:dyDescent="0.2">
@@ -10836,13 +10842,13 @@
         <v>711</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>99</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="69" spans="3:9" x14ac:dyDescent="0.2">
@@ -10865,7 +10871,7 @@
         <v>99</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="70" spans="3:9" x14ac:dyDescent="0.2">
@@ -10882,13 +10888,13 @@
         <v>629</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>99</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="71" spans="3:9" x14ac:dyDescent="0.2">
@@ -10911,7 +10917,7 @@
         <v>99</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="72" spans="3:9" x14ac:dyDescent="0.2">
@@ -10934,7 +10940,7 @@
         <v>99</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="73" spans="3:9" x14ac:dyDescent="0.2">
@@ -10951,13 +10957,13 @@
         <v>0</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>99</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="74" spans="3:9" x14ac:dyDescent="0.2">
@@ -10980,7 +10986,7 @@
         <v>99</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="75" spans="3:9" x14ac:dyDescent="0.2">
@@ -11003,7 +11009,7 @@
         <v>99</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="76" spans="3:9" x14ac:dyDescent="0.2">
@@ -11026,7 +11032,7 @@
         <v>99</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="77" spans="3:9" x14ac:dyDescent="0.2">
@@ -11049,7 +11055,7 @@
         <v>99</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="78" spans="3:9" x14ac:dyDescent="0.2">
@@ -11072,7 +11078,7 @@
         <v>99</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="79" spans="3:9" x14ac:dyDescent="0.2">
@@ -11095,7 +11101,7 @@
         <v>99</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="80" spans="3:9" x14ac:dyDescent="0.2">
@@ -11118,7 +11124,7 @@
         <v>99</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
@@ -11141,7 +11147,7 @@
         <v>99</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
@@ -11158,13 +11164,13 @@
         <v>717</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>99</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
@@ -11181,13 +11187,13 @@
         <v>0</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H83" s="1" t="s">
         <v>99</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
@@ -11204,13 +11210,13 @@
         <v>0</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>99</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
@@ -11230,7 +11236,7 @@
         <v>99</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
@@ -11247,13 +11253,13 @@
         <v>0</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>99</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
@@ -11276,7 +11282,7 @@
         <v>99</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
@@ -11299,7 +11305,7 @@
         <v>99</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
@@ -11325,7 +11331,7 @@
         <v>99</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
@@ -11348,7 +11354,7 @@
         <v>99</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
@@ -11371,7 +11377,7 @@
         <v>99</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
@@ -11394,7 +11400,7 @@
         <v>99</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
@@ -11417,7 +11423,7 @@
         <v>99</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
@@ -11440,7 +11446,7 @@
         <v>99</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
@@ -11463,7 +11469,7 @@
         <v>99</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="97" spans="3:9" x14ac:dyDescent="0.2">
@@ -11480,13 +11486,13 @@
         <v>711</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>99</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="98" spans="3:9" x14ac:dyDescent="0.2">
@@ -11509,7 +11515,7 @@
         <v>99</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="99" spans="3:9" x14ac:dyDescent="0.2">
@@ -11526,13 +11532,13 @@
         <v>748</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>99</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="100" spans="3:9" x14ac:dyDescent="0.2">
@@ -11555,7 +11561,7 @@
         <v>99</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="101" spans="3:9" x14ac:dyDescent="0.2">
@@ -11578,7 +11584,7 @@
         <v>99</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="102" spans="3:9" x14ac:dyDescent="0.2">
@@ -11595,13 +11601,13 @@
         <v>709</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="H102" s="1" t="s">
         <v>99</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="103" spans="3:9" x14ac:dyDescent="0.2">
@@ -11624,7 +11630,7 @@
         <v>99</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="104" spans="3:9" x14ac:dyDescent="0.2">
@@ -11647,7 +11653,7 @@
         <v>99</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="105" spans="3:9" x14ac:dyDescent="0.2">
@@ -11670,7 +11676,7 @@
         <v>99</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="106" spans="3:9" x14ac:dyDescent="0.2">
@@ -11693,7 +11699,7 @@
         <v>99</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="107" spans="3:9" x14ac:dyDescent="0.2">
@@ -11716,7 +11722,7 @@
         <v>99</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="108" spans="3:9" x14ac:dyDescent="0.2">
@@ -11739,7 +11745,7 @@
         <v>99</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="109" spans="3:9" x14ac:dyDescent="0.2">
@@ -11762,7 +11768,7 @@
         <v>99</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="110" spans="3:9" x14ac:dyDescent="0.2">
@@ -11785,7 +11791,7 @@
         <v>99</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="111" spans="3:9" x14ac:dyDescent="0.2">
@@ -11802,13 +11808,13 @@
         <v>623</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="H111" s="1" t="s">
         <v>99</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="112" spans="3:9" x14ac:dyDescent="0.2">
@@ -11825,16 +11831,16 @@
         <v>754</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H112" s="1" t="s">
         <v>99</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C113" s="1" t="s">
         <v>681</v>
       </c>
@@ -11848,16 +11854,16 @@
         <v>754</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H113" s="1" t="s">
         <v>99</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C114" s="1" t="s">
         <v>642</v>
       </c>
@@ -11877,10 +11883,10 @@
         <v>99</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C115" s="1" t="s">
         <v>644</v>
       </c>
@@ -11900,18 +11906,18 @@
         <v>99</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>667</v>
@@ -11926,15 +11932,15 @@
         <v>99</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C118" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>653</v>
@@ -11949,15 +11955,15 @@
         <v>99</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C119" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>740</v>
@@ -11972,15 +11978,15 @@
         <v>99</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C120" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>653</v>
@@ -11995,10 +12001,10 @@
         <v>99</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C121" s="1" t="s">
         <v>9</v>
       </c>
@@ -12018,10 +12024,10 @@
         <v>99</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C122" s="1" t="s">
         <v>11</v>
       </c>
@@ -12041,10 +12047,10 @@
         <v>99</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C123" s="1" t="s">
         <v>12</v>
       </c>
@@ -12064,15 +12070,15 @@
         <v>99</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C124" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>788</v>
+        <v>1189</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>653</v>
@@ -12087,12 +12093,15 @@
         <v>99</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+        <v>891</v>
+      </c>
+      <c r="J124" s="1" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C125" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>0</v>
@@ -12104,16 +12113,16 @@
         <v>0</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="H125" s="1" t="s">
         <v>99</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C126" s="1" t="s">
         <v>750</v>
       </c>
@@ -12127,21 +12136,21 @@
         <v>0</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H126" s="1" t="s">
         <v>99</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C127" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>326</v>
@@ -12156,15 +12165,15 @@
         <v>99</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C128" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>764</v>
@@ -12173,21 +12182,21 @@
         <v>709</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="H128" s="1" t="s">
         <v>99</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C129" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>299</v>
@@ -12202,18 +12211,18 @@
         <v>99</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C130" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D130" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="E130" s="1" t="s">
         <v>800</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>801</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>784</v>
@@ -12225,18 +12234,18 @@
         <v>99</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C131" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F131" s="1" t="s">
         <v>784</v>
@@ -12248,10 +12257,10 @@
         <v>99</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C132" s="1" t="s">
         <v>66</v>
       </c>
@@ -12271,15 +12280,15 @@
         <v>99</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C133" s="1" t="s">
         <v>751</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>671</v>
@@ -12294,15 +12303,15 @@
         <v>99</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C134" s="1" t="s">
         <v>631</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>371</v>
@@ -12317,15 +12326,15 @@
         <v>99</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C135" s="1" t="s">
         <v>752</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>703</v>
@@ -12340,15 +12349,15 @@
         <v>99</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C136" s="1" t="s">
         <v>753</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>594</v>
@@ -12363,15 +12372,15 @@
         <v>99</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C137" s="1" t="s">
         <v>636</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E137" s="1" t="s">
         <v>378</v>
@@ -12380,21 +12389,21 @@
         <v>623</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="H137" s="1" t="s">
         <v>99</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C138" s="1" t="s">
         <v>638</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>378</v>
@@ -12403,21 +12412,21 @@
         <v>623</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H138" s="1" t="s">
         <v>99</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C139" s="1" t="s">
         <v>681</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>764</v>
@@ -12425,17 +12434,11 @@
       <c r="F139" s="1" t="s">
         <v>709</v>
       </c>
-      <c r="G139" s="1" t="s">
-        <v>900</v>
-      </c>
-      <c r="H139" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="I139" s="1" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J139" s="1" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C140" s="1" t="s">
         <v>642</v>
       </c>
@@ -12455,10 +12458,10 @@
         <v>99</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C141" s="1" t="s">
         <v>644</v>
       </c>
@@ -12478,18 +12481,18 @@
         <v>99</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E143" s="1" t="s">
         <v>662</v>
@@ -12504,21 +12507,21 @@
         <v>99</v>
       </c>
       <c r="I143" s="1" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C144" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>734</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="G144" s="1" t="s">
         <v>383</v>
@@ -12527,7 +12530,7 @@
         <v>99</v>
       </c>
       <c r="I144" s="1" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="145" spans="3:9" x14ac:dyDescent="0.2">
@@ -12535,13 +12538,13 @@
         <v>5</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>764</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="G145" s="1" t="s">
         <v>384</v>
@@ -12550,7 +12553,7 @@
         <v>99</v>
       </c>
       <c r="I145" s="1" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="146" spans="3:9" x14ac:dyDescent="0.2">
@@ -12558,7 +12561,7 @@
         <v>7</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E146" s="1" t="s">
         <v>740</v>
@@ -12573,7 +12576,7 @@
         <v>99</v>
       </c>
       <c r="I146" s="1" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="147" spans="3:9" x14ac:dyDescent="0.2">
@@ -12581,13 +12584,13 @@
         <v>9</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>764</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="G147" s="1" t="s">
         <v>386</v>
@@ -12596,7 +12599,7 @@
         <v>99</v>
       </c>
       <c r="I147" s="1" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="148" spans="3:9" x14ac:dyDescent="0.2">
@@ -12604,13 +12607,13 @@
         <v>11</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E148" s="1" t="s">
         <v>734</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="G148" s="1" t="s">
         <v>387</v>
@@ -12619,7 +12622,7 @@
         <v>99</v>
       </c>
       <c r="I148" s="1" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="149" spans="3:9" x14ac:dyDescent="0.2">
@@ -12642,7 +12645,7 @@
         <v>99</v>
       </c>
       <c r="I149" s="1" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="150" spans="3:9" x14ac:dyDescent="0.2">
@@ -12650,13 +12653,13 @@
         <v>14</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E150" s="1" t="s">
         <v>653</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="G150" s="1" t="s">
         <v>80</v>
@@ -12665,7 +12668,7 @@
         <v>99</v>
       </c>
       <c r="I150" s="1" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="151" spans="3:9" x14ac:dyDescent="0.2">
@@ -12673,13 +12676,13 @@
         <v>57</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E151" s="1" t="s">
         <v>734</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="G151" s="1" t="s">
         <v>395</v>
@@ -12688,7 +12691,7 @@
         <v>99</v>
       </c>
       <c r="I151" s="1" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="152" spans="3:9" x14ac:dyDescent="0.2">
@@ -12711,7 +12714,7 @@
         <v>99</v>
       </c>
       <c r="I152" s="1" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="153" spans="3:9" x14ac:dyDescent="0.2">
@@ -12719,7 +12722,7 @@
         <v>62</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E153" s="1" t="s">
         <v>721</v>
@@ -12734,7 +12737,7 @@
         <v>99</v>
       </c>
       <c r="I153" s="1" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="154" spans="3:9" x14ac:dyDescent="0.2">
@@ -12742,7 +12745,7 @@
         <v>64</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E154" s="1" t="s">
         <v>740</v>
@@ -12757,7 +12760,7 @@
         <v>99</v>
       </c>
       <c r="I154" s="1" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="155" spans="3:9" x14ac:dyDescent="0.2">
@@ -12765,7 +12768,7 @@
         <v>751</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E155" s="1" t="s">
         <v>378</v>
@@ -12780,7 +12783,7 @@
         <v>99</v>
       </c>
       <c r="I155" s="1" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="156" spans="3:9" x14ac:dyDescent="0.2">
@@ -12788,7 +12791,7 @@
         <v>631</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E156" s="1" t="s">
         <v>486</v>
@@ -12803,7 +12806,7 @@
         <v>99</v>
       </c>
       <c r="I156" s="1" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="157" spans="3:9" x14ac:dyDescent="0.2">
@@ -12811,7 +12814,7 @@
         <v>752</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E157" s="1" t="s">
         <v>740</v>
@@ -12826,7 +12829,7 @@
         <v>99</v>
       </c>
       <c r="I157" s="1" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="158" spans="3:9" x14ac:dyDescent="0.2">
@@ -12834,13 +12837,13 @@
         <v>753</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E158" s="1" t="s">
         <v>328</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="G158" s="1" t="s">
         <v>405</v>
@@ -12849,7 +12852,7 @@
         <v>99</v>
       </c>
       <c r="I158" s="1" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="159" spans="3:9" x14ac:dyDescent="0.2">
@@ -12857,22 +12860,22 @@
         <v>636</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E159" s="1" t="s">
         <v>378</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="H159" s="1" t="s">
         <v>99</v>
       </c>
       <c r="I159" s="1" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="160" spans="3:9" x14ac:dyDescent="0.2">
@@ -12880,22 +12883,22 @@
         <v>638</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E160" s="1" t="s">
         <v>674</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H160" s="1" t="s">
         <v>99</v>
       </c>
       <c r="I160" s="1" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.2">
@@ -12903,33 +12906,33 @@
         <v>681</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="E161" s="1" t="s">
         <v>378</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H161" s="1" t="s">
         <v>99</v>
       </c>
       <c r="I161" s="1" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E163" s="1" t="s">
         <v>668</v>
@@ -12944,7 +12947,7 @@
         <v>99</v>
       </c>
       <c r="I163" s="1" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.2">
@@ -12952,7 +12955,7 @@
         <v>3</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E164" s="1" t="s">
         <v>668</v>
@@ -12967,7 +12970,7 @@
         <v>99</v>
       </c>
       <c r="I164" s="1" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.2">
@@ -12975,10 +12978,10 @@
         <v>5</v>
       </c>
       <c r="D165" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="E165" s="1" t="s">
         <v>831</v>
-      </c>
-      <c r="E165" s="1" t="s">
-        <v>832</v>
       </c>
       <c r="F165" s="1" t="s">
         <v>784</v>
@@ -12990,7 +12993,7 @@
         <v>99</v>
       </c>
       <c r="I165" s="1" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.2">
@@ -12998,7 +13001,7 @@
         <v>7</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="E166" s="1" t="s">
         <v>701</v>
@@ -13013,7 +13016,7 @@
         <v>99</v>
       </c>
       <c r="I166" s="1" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.2">
@@ -13021,10 +13024,10 @@
         <v>9</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="F167" s="1" t="s">
         <v>784</v>
@@ -13036,7 +13039,7 @@
         <v>99</v>
       </c>
       <c r="I167" s="1" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.2">
@@ -13044,7 +13047,7 @@
         <v>11</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E168" s="1" t="s">
         <v>668</v>
@@ -13059,7 +13062,7 @@
         <v>99</v>
       </c>
       <c r="I168" s="1" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.2">
@@ -13067,7 +13070,7 @@
         <v>12</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E169" s="1" t="s">
         <v>671</v>
@@ -13082,7 +13085,7 @@
         <v>99</v>
       </c>
       <c r="I169" s="1" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.2">
@@ -13105,7 +13108,7 @@
         <v>99</v>
       </c>
       <c r="I170" s="1" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.2">
@@ -13113,7 +13116,7 @@
         <v>62</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="E171" s="1" t="s">
         <v>668</v>
@@ -13128,7 +13131,7 @@
         <v>99</v>
       </c>
       <c r="I171" s="1" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.2">
@@ -13136,10 +13139,10 @@
         <v>64</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="F172" s="1" t="s">
         <v>784</v>
@@ -13151,7 +13154,7 @@
         <v>99</v>
       </c>
       <c r="I172" s="1" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.2">
@@ -13159,13 +13162,13 @@
         <v>751</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E173" s="1" t="s">
         <v>423</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="G173" s="1" t="s">
         <v>403</v>
@@ -13174,7 +13177,7 @@
         <v>99</v>
       </c>
       <c r="I173" s="1" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.2">
@@ -13182,7 +13185,7 @@
         <v>631</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E174" s="1" t="s">
         <v>701</v>
@@ -13197,7 +13200,7 @@
         <v>99</v>
       </c>
       <c r="I174" s="1" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.2">
@@ -13205,7 +13208,7 @@
         <v>752</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="E175" s="1" t="s">
         <v>328</v>
@@ -13220,7 +13223,7 @@
         <v>99</v>
       </c>
       <c r="I175" s="1" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.2">
@@ -13228,13 +13231,13 @@
         <v>753</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E176" s="1" t="s">
         <v>299</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="G176" s="1" t="s">
         <v>405</v>
@@ -13243,18 +13246,18 @@
         <v>99</v>
       </c>
       <c r="I176" s="1" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="E178" s="1" t="s">
         <v>671</v>
@@ -13269,7 +13272,7 @@
         <v>99</v>
       </c>
       <c r="I178" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.2">
@@ -13277,7 +13280,7 @@
         <v>3</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="E179" s="1" t="s">
         <v>671</v>
@@ -13292,7 +13295,7 @@
         <v>99</v>
       </c>
       <c r="I179" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.2">
@@ -13300,7 +13303,7 @@
         <v>5</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E180" s="1" t="s">
         <v>671</v>
@@ -13315,7 +13318,7 @@
         <v>99</v>
       </c>
       <c r="I180" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.2">
@@ -13338,7 +13341,7 @@
         <v>99</v>
       </c>
       <c r="I181" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.2">
@@ -13361,7 +13364,7 @@
         <v>99</v>
       </c>
       <c r="I182" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.2">
@@ -13384,7 +13387,7 @@
         <v>99</v>
       </c>
       <c r="I183" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.2">
@@ -13392,7 +13395,7 @@
         <v>62</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="E184" s="1" t="s">
         <v>671</v>
@@ -13407,7 +13410,7 @@
         <v>99</v>
       </c>
       <c r="I184" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.2">
@@ -13415,7 +13418,7 @@
         <v>64</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="E185" s="1" t="s">
         <v>671</v>
@@ -13430,7 +13433,7 @@
         <v>99</v>
       </c>
       <c r="I185" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.2">
@@ -13453,21 +13456,21 @@
         <v>99</v>
       </c>
       <c r="I186" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C187" s="1" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E187" s="1" t="s">
         <v>299</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="G187" s="1" t="s">
         <v>403</v>
@@ -13476,10 +13479,10 @@
         <v>99</v>
       </c>
       <c r="I187" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="J187" s="1" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.2">
@@ -13487,7 +13490,7 @@
         <v>631</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="E188" s="1" t="s">
         <v>378</v>
@@ -13502,7 +13505,7 @@
         <v>99</v>
       </c>
       <c r="I188" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.2">
@@ -13510,7 +13513,7 @@
         <v>752</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="E189" s="1" t="s">
         <v>378</v>
@@ -13525,7 +13528,7 @@
         <v>99</v>
       </c>
       <c r="I189" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.2">
@@ -13533,13 +13536,13 @@
         <v>753</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="E190" s="1" t="s">
         <v>299</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="G190" s="1" t="s">
         <v>405</v>
@@ -13548,18 +13551,18 @@
         <v>99</v>
       </c>
       <c r="I190" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E192" s="1" t="s">
         <v>486</v>
@@ -13574,7 +13577,7 @@
         <v>99</v>
       </c>
       <c r="I192" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="193" spans="3:9" x14ac:dyDescent="0.2">
@@ -13582,7 +13585,7 @@
         <v>3</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="E193" s="1" t="s">
         <v>486</v>
@@ -13597,7 +13600,7 @@
         <v>99</v>
       </c>
       <c r="I193" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="194" spans="3:9" x14ac:dyDescent="0.2">
@@ -13605,7 +13608,7 @@
         <v>5</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="E194" s="1" t="s">
         <v>486</v>
@@ -13620,7 +13623,7 @@
         <v>99</v>
       </c>
       <c r="I194" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="195" spans="3:9" x14ac:dyDescent="0.2">
@@ -13628,7 +13631,7 @@
         <v>7</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="E195" s="1" t="s">
         <v>486</v>
@@ -13643,7 +13646,7 @@
         <v>99</v>
       </c>
       <c r="I195" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="196" spans="3:9" x14ac:dyDescent="0.2">
@@ -13651,7 +13654,7 @@
         <v>9</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="E196" s="1" t="s">
         <v>486</v>
@@ -13666,7 +13669,7 @@
         <v>99</v>
       </c>
       <c r="I196" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="197" spans="3:9" x14ac:dyDescent="0.2">
@@ -13674,7 +13677,7 @@
         <v>11</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="E197" s="1" t="s">
         <v>653</v>
@@ -13689,7 +13692,7 @@
         <v>99</v>
       </c>
       <c r="I197" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="198" spans="3:9" x14ac:dyDescent="0.2">
@@ -13712,7 +13715,7 @@
         <v>99</v>
       </c>
       <c r="I198" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="199" spans="3:9" x14ac:dyDescent="0.2">
@@ -13720,7 +13723,7 @@
         <v>62</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="E199" s="1" t="s">
         <v>653</v>
@@ -13735,12 +13738,12 @@
         <v>99</v>
       </c>
       <c r="I199" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="200" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C200" s="1" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="D200" s="1" t="s">
         <v>0</v>
@@ -13752,21 +13755,21 @@
         <v>0</v>
       </c>
       <c r="G200" s="1" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="H200" s="1" t="s">
         <v>99</v>
       </c>
       <c r="I200" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="201" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C201" s="1" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E201" s="1" t="s">
         <v>423</v>
@@ -13781,12 +13784,12 @@
         <v>99</v>
       </c>
       <c r="I201" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="202" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C202" s="1" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D202" s="1" t="s">
         <v>0</v>
@@ -13804,7 +13807,7 @@
         <v>99</v>
       </c>
       <c r="I202" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="203" spans="3:9" x14ac:dyDescent="0.2">
@@ -13812,7 +13815,7 @@
         <v>631</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E203" s="1" t="s">
         <v>423</v>
@@ -13827,15 +13830,15 @@
         <v>99</v>
       </c>
       <c r="I203" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="204" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C204" s="1" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E204" s="1" t="s">
         <v>734</v>
@@ -13850,12 +13853,12 @@
         <v>99</v>
       </c>
       <c r="I204" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="205" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C205" s="1" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="D205" s="1" t="s">
         <v>0</v>
@@ -13867,21 +13870,21 @@
         <v>0</v>
       </c>
       <c r="G205" s="1" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="H205" s="1" t="s">
         <v>99</v>
       </c>
       <c r="I205" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="206" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C206" s="1" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E206" s="1" t="s">
         <v>653</v>
@@ -13890,21 +13893,21 @@
         <v>784</v>
       </c>
       <c r="G206" s="1" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H206" s="1" t="s">
         <v>99</v>
       </c>
       <c r="I206" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="207" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C207" s="1" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="E207" s="1" t="s">
         <v>653</v>
@@ -13913,24 +13916,24 @@
         <v>784</v>
       </c>
       <c r="G207" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="H207" s="1" t="s">
         <v>99</v>
       </c>
       <c r="I207" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="E209" s="1" t="s">
         <v>326</v>
@@ -13945,7 +13948,7 @@
         <v>99</v>
       </c>
       <c r="I209" s="1" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.2">
@@ -13953,7 +13956,7 @@
         <v>3</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="E210" s="1" t="s">
         <v>653</v>
@@ -13968,7 +13971,7 @@
         <v>99</v>
       </c>
       <c r="I210" s="1" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.2">
@@ -13976,7 +13979,7 @@
         <v>5</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E211" s="1" t="s">
         <v>659</v>
@@ -13991,7 +13994,7 @@
         <v>99</v>
       </c>
       <c r="I211" s="1" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.2">
@@ -13999,7 +14002,7 @@
         <v>7</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="E212" s="1" t="s">
         <v>299</v>
@@ -14014,7 +14017,7 @@
         <v>99</v>
       </c>
       <c r="I212" s="1" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.2">
@@ -14022,7 +14025,7 @@
         <v>9</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="E213" s="1" t="s">
         <v>326</v>
@@ -14037,7 +14040,7 @@
         <v>99</v>
       </c>
       <c r="I213" s="1" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.2">
@@ -14045,7 +14048,7 @@
         <v>11</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="E214" s="1" t="s">
         <v>299</v>
@@ -14060,7 +14063,7 @@
         <v>99</v>
       </c>
       <c r="I214" s="1" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.2">
@@ -14068,7 +14071,7 @@
         <v>14</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="E215" s="1" t="s">
         <v>659</v>
@@ -14083,7 +14086,7 @@
         <v>99</v>
       </c>
       <c r="I215" s="1" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.2">
@@ -14091,7 +14094,7 @@
         <v>62</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E216" s="1" t="s">
         <v>326</v>
@@ -14106,12 +14109,12 @@
         <v>99</v>
       </c>
       <c r="I216" s="1" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C217" s="1" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="D217" s="1" t="s">
         <v>0</v>
@@ -14123,21 +14126,21 @@
         <v>0</v>
       </c>
       <c r="G217" s="1" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="H217" s="1" t="s">
         <v>99</v>
       </c>
       <c r="I217" s="1" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C218" s="1" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="E218" s="1" t="s">
         <v>326</v>
@@ -14152,12 +14155,12 @@
         <v>99</v>
       </c>
       <c r="I218" s="1" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C219" s="1" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D219" s="1" t="s">
         <v>0</v>
@@ -14175,7 +14178,7 @@
         <v>99</v>
       </c>
       <c r="I219" s="1" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.2">
@@ -14183,7 +14186,7 @@
         <v>631</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E220" s="1" t="s">
         <v>653</v>
@@ -14198,15 +14201,15 @@
         <v>99</v>
       </c>
       <c r="I220" s="1" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C221" s="1" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="E221" s="1" t="s">
         <v>653</v>
@@ -14221,12 +14224,12 @@
         <v>99</v>
       </c>
       <c r="I221" s="1" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C222" s="1" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="D222" s="1" t="s">
         <v>0</v>
@@ -14238,18 +14241,18 @@
         <v>0</v>
       </c>
       <c r="G222" s="1" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="H222" s="1" t="s">
         <v>99</v>
       </c>
       <c r="I222" s="1" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C223" s="1" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D223" s="1" t="s">
         <v>0</v>
@@ -14261,21 +14264,21 @@
         <v>0</v>
       </c>
       <c r="G223" s="1" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H223" s="1" t="s">
         <v>99</v>
       </c>
       <c r="I223" s="1" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C224" s="1" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="E224" s="1" t="s">
         <v>299</v>
@@ -14284,18 +14287,18 @@
         <v>784</v>
       </c>
       <c r="G224" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="H224" s="1" t="s">
         <v>99</v>
       </c>
       <c r="I224" s="1" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C226" s="1" t="s">
         <v>631</v>
@@ -14316,7 +14319,7 @@
         <v>99</v>
       </c>
       <c r="I226" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
   </sheetData>
@@ -14328,8 +14331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BA3259E-AFD6-4FCB-BD83-44E5FC56E958}">
   <dimension ref="A1:J229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="N52" sqref="N52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14368,7 +14371,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
@@ -14380,7 +14383,7 @@
         <v>659</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>388</v>
@@ -14389,7 +14392,7 @@
         <v>98</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -14397,13 +14400,13 @@
         <v>3</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>659</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>383</v>
@@ -14412,7 +14415,7 @@
         <v>98</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -14420,13 +14423,13 @@
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>659</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>384</v>
@@ -14435,7 +14438,7 @@
         <v>98</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -14443,13 +14446,13 @@
         <v>7</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>764</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>385</v>
@@ -14458,7 +14461,7 @@
         <v>98</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -14466,13 +14469,13 @@
         <v>9</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>526</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>386</v>
@@ -14481,7 +14484,7 @@
         <v>98</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -14489,13 +14492,13 @@
         <v>11</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>734</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>387</v>
@@ -14504,7 +14507,7 @@
         <v>98</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -14512,13 +14515,13 @@
         <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>674</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>601</v>
@@ -14527,7 +14530,7 @@
         <v>98</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -14535,22 +14538,22 @@
         <v>624</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>653</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>98</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -14558,13 +14561,13 @@
         <v>14</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>764</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>80</v>
@@ -14573,33 +14576,33 @@
         <v>98</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>530</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>98</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -14607,13 +14610,13 @@
         <v>55</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>530</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>82</v>
@@ -14622,7 +14625,7 @@
         <v>98</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -14630,13 +14633,13 @@
         <v>18</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>734</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>83</v>
@@ -14645,7 +14648,7 @@
         <v>98</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -14653,13 +14656,13 @@
         <v>20</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>734</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>84</v>
@@ -14668,7 +14671,7 @@
         <v>98</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -14676,7 +14679,7 @@
         <v>60</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>594</v>
@@ -14691,7 +14694,7 @@
         <v>98</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -14699,7 +14702,7 @@
         <v>62</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>594</v>
@@ -14714,7 +14717,7 @@
         <v>98</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -14722,7 +14725,7 @@
         <v>64</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>594</v>
@@ -14737,7 +14740,7 @@
         <v>98</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -14745,13 +14748,13 @@
         <v>66</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>530</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>88</v>
@@ -14760,21 +14763,21 @@
         <v>98</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>671</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>162</v>
@@ -14783,21 +14786,21 @@
         <v>98</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>594</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>110</v>
@@ -14806,21 +14809,21 @@
         <v>98</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>698</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>103</v>
@@ -14829,21 +14832,21 @@
         <v>98</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>662</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>104</v>
@@ -14852,7 +14855,7 @@
         <v>98</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
@@ -14869,13 +14872,13 @@
         <v>0</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>98</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
@@ -14892,13 +14895,13 @@
         <v>0</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>98</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
@@ -14915,13 +14918,13 @@
         <v>0</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>98</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
@@ -14929,7 +14932,7 @@
         <v>37</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>328</v>
@@ -14938,13 +14941,13 @@
         <v>38</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>98</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>613</v>
@@ -14955,7 +14958,7 @@
         <v>39</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>594</v>
@@ -14970,7 +14973,7 @@
         <v>98</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
@@ -14978,13 +14981,13 @@
         <v>642</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>423</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>105</v>
@@ -14993,7 +14996,7 @@
         <v>98</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
@@ -15001,7 +15004,7 @@
         <v>644</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>326</v>
@@ -15016,24 +15019,24 @@
         <v>98</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>667</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>388</v>
@@ -15042,7 +15045,7 @@
         <v>98</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
@@ -15050,13 +15053,13 @@
         <v>3</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>667</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>383</v>
@@ -15065,7 +15068,7 @@
         <v>98</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="33" spans="3:10" x14ac:dyDescent="0.2">
@@ -15073,13 +15076,13 @@
         <v>5</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>530</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>384</v>
@@ -15088,7 +15091,7 @@
         <v>98</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="34" spans="3:10" x14ac:dyDescent="0.2">
@@ -15096,13 +15099,13 @@
         <v>7</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>326</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>385</v>
@@ -15111,7 +15114,7 @@
         <v>98</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="35" spans="3:10" x14ac:dyDescent="0.2">
@@ -15119,13 +15122,13 @@
         <v>9</v>
       </c>
       <c r="D35" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>970</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>971</v>
-      </c>
       <c r="F35" s="1" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>386</v>
@@ -15134,7 +15137,7 @@
         <v>98</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="36" spans="3:10" x14ac:dyDescent="0.2">
@@ -15142,13 +15145,13 @@
         <v>11</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>326</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>387</v>
@@ -15157,7 +15160,7 @@
         <v>98</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="37" spans="3:10" x14ac:dyDescent="0.2">
@@ -15165,13 +15168,13 @@
         <v>12</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>326</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>601</v>
@@ -15180,7 +15183,7 @@
         <v>98</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="38" spans="3:10" x14ac:dyDescent="0.2">
@@ -15188,25 +15191,25 @@
         <v>624</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>299</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>98</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="39" spans="3:10" x14ac:dyDescent="0.2">
@@ -15214,13 +15217,13 @@
         <v>14</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>299</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>80</v>
@@ -15229,33 +15232,33 @@
         <v>98</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="40" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>703</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G40" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="J40" s="1" t="s">
         <v>1179</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>889</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>1180</v>
       </c>
     </row>
     <row r="41" spans="3:10" x14ac:dyDescent="0.2">
@@ -15263,13 +15266,13 @@
         <v>55</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>646</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>82</v>
@@ -15278,7 +15281,7 @@
         <v>98</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="42" spans="3:10" x14ac:dyDescent="0.2">
@@ -15286,13 +15289,13 @@
         <v>18</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>299</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>83</v>
@@ -15301,7 +15304,7 @@
         <v>98</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="43" spans="3:10" x14ac:dyDescent="0.2">
@@ -15309,13 +15312,13 @@
         <v>20</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>299</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>84</v>
@@ -15324,7 +15327,7 @@
         <v>98</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="44" spans="3:10" x14ac:dyDescent="0.2">
@@ -15332,7 +15335,7 @@
         <v>60</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>486</v>
@@ -15347,7 +15350,7 @@
         <v>98</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="45" spans="3:10" x14ac:dyDescent="0.2">
@@ -15355,13 +15358,13 @@
         <v>62</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>667</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>86</v>
@@ -15370,7 +15373,7 @@
         <v>98</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="46" spans="3:10" x14ac:dyDescent="0.2">
@@ -15378,13 +15381,13 @@
         <v>64</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>703</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>87</v>
@@ -15393,7 +15396,7 @@
         <v>98</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="47" spans="3:10" x14ac:dyDescent="0.2">
@@ -15401,13 +15404,13 @@
         <v>66</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>703</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>88</v>
@@ -15416,21 +15419,21 @@
         <v>98</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="48" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>674</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>162</v>
@@ -15439,21 +15442,21 @@
         <v>98</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>674</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>110</v>
@@ -15462,21 +15465,21 @@
         <v>98</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>530</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>103</v>
@@ -15485,21 +15488,21 @@
         <v>98</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>701</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>104</v>
@@ -15508,7 +15511,7 @@
         <v>98</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
@@ -15516,22 +15519,22 @@
         <v>636</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>486</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>98</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
@@ -15548,13 +15551,13 @@
         <v>0</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>98</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
@@ -15571,13 +15574,13 @@
         <v>0</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>98</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
@@ -15594,13 +15597,13 @@
         <v>0</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>98</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
@@ -15623,7 +15626,7 @@
         <v>98</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
@@ -15631,13 +15634,13 @@
         <v>642</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>486</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>105</v>
@@ -15646,7 +15649,7 @@
         <v>98</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
@@ -15654,13 +15657,13 @@
         <v>644</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>486</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>106</v>
@@ -15669,24 +15672,24 @@
         <v>98</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>378</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>388</v>
@@ -15695,7 +15698,7 @@
         <v>98</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
@@ -15703,13 +15706,13 @@
         <v>3</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>378</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>383</v>
@@ -15718,7 +15721,7 @@
         <v>98</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
@@ -15726,13 +15729,13 @@
         <v>5</v>
       </c>
       <c r="D62" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E62" s="1" t="s">
         <v>1002</v>
       </c>
-      <c r="E62" s="1" t="s">
-        <v>1003</v>
-      </c>
       <c r="F62" s="1" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>384</v>
@@ -15741,7 +15744,7 @@
         <v>98</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
@@ -15749,13 +15752,13 @@
         <v>7</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>385</v>
@@ -15764,7 +15767,7 @@
         <v>98</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
@@ -15772,13 +15775,13 @@
         <v>9</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>530</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>386</v>
@@ -15787,7 +15790,7 @@
         <v>98</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="65" spans="3:10" x14ac:dyDescent="0.2">
@@ -15795,13 +15798,13 @@
         <v>11</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>703</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>387</v>
@@ -15810,7 +15813,7 @@
         <v>98</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="66" spans="3:10" x14ac:dyDescent="0.2">
@@ -15818,13 +15821,13 @@
         <v>12</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>703</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>601</v>
@@ -15833,7 +15836,7 @@
         <v>98</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="67" spans="3:10" x14ac:dyDescent="0.2">
@@ -15841,22 +15844,22 @@
         <v>624</v>
       </c>
       <c r="D67" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E67" s="1" t="s">
         <v>1008</v>
       </c>
-      <c r="E67" s="1" t="s">
-        <v>1009</v>
-      </c>
       <c r="F67" s="1" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>98</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="68" spans="3:10" x14ac:dyDescent="0.2">
@@ -15864,13 +15867,13 @@
         <v>14</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>674</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>80</v>
@@ -15879,33 +15882,33 @@
         <v>98</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="69" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>667</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G69" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="J69" s="1" t="s">
         <v>1179</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="I69" s="1" t="s">
-        <v>890</v>
-      </c>
-      <c r="J69" s="1" t="s">
-        <v>1180</v>
       </c>
     </row>
     <row r="70" spans="3:10" x14ac:dyDescent="0.2">
@@ -15913,13 +15916,13 @@
         <v>55</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>82</v>
@@ -15928,12 +15931,12 @@
         <v>98</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="71" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>0</v>
@@ -15951,7 +15954,7 @@
         <v>98</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="72" spans="3:10" x14ac:dyDescent="0.2">
@@ -15959,13 +15962,13 @@
         <v>20</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>351</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>84</v>
@@ -15974,7 +15977,7 @@
         <v>98</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="73" spans="3:10" x14ac:dyDescent="0.2">
@@ -15982,13 +15985,13 @@
         <v>60</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>423</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>85</v>
@@ -15997,7 +16000,7 @@
         <v>98</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="74" spans="3:10" x14ac:dyDescent="0.2">
@@ -16005,13 +16008,13 @@
         <v>62</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>378</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>86</v>
@@ -16020,7 +16023,7 @@
         <v>98</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="75" spans="3:10" x14ac:dyDescent="0.2">
@@ -16028,13 +16031,13 @@
         <v>64</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>423</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>87</v>
@@ -16043,7 +16046,7 @@
         <v>98</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="76" spans="3:10" x14ac:dyDescent="0.2">
@@ -16051,13 +16054,13 @@
         <v>66</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>740</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>88</v>
@@ -16066,21 +16069,21 @@
         <v>98</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="77" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>653</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>162</v>
@@ -16089,21 +16092,21 @@
         <v>98</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="78" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C78" s="1" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>110</v>
@@ -16112,21 +16115,21 @@
         <v>98</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="79" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C79" s="1" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>103</v>
@@ -16135,21 +16138,21 @@
         <v>98</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="80" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>653</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>104</v>
@@ -16158,7 +16161,7 @@
         <v>98</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
@@ -16166,22 +16169,22 @@
         <v>636</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>671</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>98</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
@@ -16198,13 +16201,13 @@
         <v>0</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>98</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
@@ -16212,22 +16215,22 @@
         <v>681</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>671</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H83" s="1" t="s">
         <v>98</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
@@ -16247,7 +16250,7 @@
         <v>98</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
@@ -16270,7 +16273,7 @@
         <v>98</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
@@ -16293,7 +16296,7 @@
         <v>98</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
@@ -16301,13 +16304,13 @@
         <v>644</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>653</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>106</v>
@@ -16316,24 +16319,24 @@
         <v>98</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>674</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>388</v>
@@ -16342,7 +16345,7 @@
         <v>98</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
@@ -16350,13 +16353,13 @@
         <v>3</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>674</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>383</v>
@@ -16365,7 +16368,7 @@
         <v>98</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
@@ -16373,13 +16376,13 @@
         <v>5</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>674</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>384</v>
@@ -16388,7 +16391,7 @@
         <v>98</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
@@ -16396,13 +16399,13 @@
         <v>7</v>
       </c>
       <c r="D92" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="E92" s="1" t="s">
         <v>1042</v>
       </c>
-      <c r="E92" s="1" t="s">
-        <v>1043</v>
-      </c>
       <c r="F92" s="1" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>385</v>
@@ -16411,7 +16414,7 @@
         <v>98</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
@@ -16419,13 +16422,13 @@
         <v>9</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>721</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="G93" s="1" t="s">
         <v>386</v>
@@ -16434,7 +16437,7 @@
         <v>98</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
@@ -16442,13 +16445,13 @@
         <v>11</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>721</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>387</v>
@@ -16457,7 +16460,7 @@
         <v>98</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
@@ -16465,13 +16468,13 @@
         <v>12</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>674</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>601</v>
@@ -16480,7 +16483,7 @@
         <v>98</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
@@ -16488,13 +16491,13 @@
         <v>14</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>674</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>80</v>
@@ -16503,30 +16506,30 @@
         <v>98</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="97" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>740</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>98</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="98" spans="3:9" x14ac:dyDescent="0.2">
@@ -16534,13 +16537,13 @@
         <v>55</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>82</v>
@@ -16549,7 +16552,7 @@
         <v>98</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="99" spans="3:9" x14ac:dyDescent="0.2">
@@ -16557,13 +16560,13 @@
         <v>60</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="E99" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="F99" s="1" t="s">
         <v>1027</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>1028</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>85</v>
@@ -16572,7 +16575,7 @@
         <v>98</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="100" spans="3:9" x14ac:dyDescent="0.2">
@@ -16580,13 +16583,13 @@
         <v>62</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>674</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>86</v>
@@ -16595,7 +16598,7 @@
         <v>98</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="101" spans="3:9" x14ac:dyDescent="0.2">
@@ -16603,13 +16606,13 @@
         <v>64</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>659</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>87</v>
@@ -16618,7 +16621,7 @@
         <v>98</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="102" spans="3:9" x14ac:dyDescent="0.2">
@@ -16626,13 +16629,13 @@
         <v>66</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="E102" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="F102" s="1" t="s">
         <v>1029</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>1030</v>
       </c>
       <c r="G102" s="1" t="s">
         <v>88</v>
@@ -16641,21 +16644,21 @@
         <v>98</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="103" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C103" s="1" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>701</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="G103" s="1" t="s">
         <v>602</v>
@@ -16664,21 +16667,21 @@
         <v>98</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="104" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C104" s="1" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>526</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="G104" s="1" t="s">
         <v>617</v>
@@ -16687,21 +16690,21 @@
         <v>98</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="105" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C105" s="1" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>701</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="G105" s="1" t="s">
         <v>608</v>
@@ -16710,21 +16713,21 @@
         <v>98</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="106" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C106" s="1" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>526</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="G106" s="1" t="s">
         <v>615</v>
@@ -16733,7 +16736,7 @@
         <v>98</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="107" spans="3:9" x14ac:dyDescent="0.2">
@@ -16741,22 +16744,22 @@
         <v>636</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>764</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="H107" s="1" t="s">
         <v>98</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="108" spans="3:9" x14ac:dyDescent="0.2">
@@ -16764,22 +16767,22 @@
         <v>638</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>734</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H108" s="1" t="s">
         <v>98</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="109" spans="3:9" x14ac:dyDescent="0.2">
@@ -16787,22 +16790,22 @@
         <v>681</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>734</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H109" s="1" t="s">
         <v>98</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="110" spans="3:9" x14ac:dyDescent="0.2">
@@ -16822,7 +16825,7 @@
         <v>98</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="111" spans="3:9" x14ac:dyDescent="0.2">
@@ -16845,7 +16848,7 @@
         <v>98</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="112" spans="3:9" x14ac:dyDescent="0.2">
@@ -16853,13 +16856,13 @@
         <v>642</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>486</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="G112" s="1" t="s">
         <v>105</v>
@@ -16868,7 +16871,7 @@
         <v>98</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.2">
@@ -16876,13 +16879,13 @@
         <v>644</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>734</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="G113" s="1" t="s">
         <v>106</v>
@@ -16891,24 +16894,24 @@
         <v>98</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>701</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G115" s="1" t="s">
         <v>388</v>
@@ -16917,7 +16920,7 @@
         <v>98</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.2">
@@ -16925,13 +16928,13 @@
         <v>3</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>774</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G116" s="1" t="s">
         <v>383</v>
@@ -16940,7 +16943,7 @@
         <v>98</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.2">
@@ -16948,13 +16951,13 @@
         <v>5</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="G117" s="1" t="s">
         <v>384</v>
@@ -16963,7 +16966,7 @@
         <v>98</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.2">
@@ -16971,13 +16974,13 @@
         <v>7</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="G118" s="1" t="s">
         <v>385</v>
@@ -16986,7 +16989,7 @@
         <v>98</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.2">
@@ -16994,13 +16997,13 @@
         <v>9</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="G119" s="1" t="s">
         <v>386</v>
@@ -17009,7 +17012,7 @@
         <v>98</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.2">
@@ -17017,13 +17020,13 @@
         <v>11</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>486</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="G120" s="1" t="s">
         <v>387</v>
@@ -17032,7 +17035,7 @@
         <v>98</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.2">
@@ -17040,13 +17043,13 @@
         <v>12</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>526</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="G121" s="1" t="s">
         <v>601</v>
@@ -17055,7 +17058,7 @@
         <v>98</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.2">
@@ -17063,13 +17066,13 @@
         <v>14</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>486</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="G122" s="1" t="s">
         <v>80</v>
@@ -17078,30 +17081,30 @@
         <v>98</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C123" s="1" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>351</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="H123" s="1" t="s">
         <v>98</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="J123" s="1" t="s">
         <v>613</v>
@@ -17112,13 +17115,13 @@
         <v>55</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>526</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="G124" s="1" t="s">
         <v>82</v>
@@ -17127,7 +17130,7 @@
         <v>98</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.2">
@@ -17135,13 +17138,13 @@
         <v>60</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>526</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="G125" s="1" t="s">
         <v>85</v>
@@ -17150,7 +17153,7 @@
         <v>98</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.2">
@@ -17158,13 +17161,13 @@
         <v>62</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>299</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="G126" s="1" t="s">
         <v>86</v>
@@ -17173,7 +17176,7 @@
         <v>98</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.2">
@@ -17181,13 +17184,13 @@
         <v>64</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>653</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="G127" s="1" t="s">
         <v>87</v>
@@ -17196,7 +17199,7 @@
         <v>98</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.2">
@@ -17204,13 +17207,13 @@
         <v>66</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>774</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G128" s="1" t="s">
         <v>88</v>
@@ -17219,21 +17222,21 @@
         <v>98</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C129" s="1" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>299</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="G129" s="1" t="s">
         <v>602</v>
@@ -17242,21 +17245,21 @@
         <v>98</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C130" s="1" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>326</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="G130" s="1" t="s">
         <v>617</v>
@@ -17265,21 +17268,21 @@
         <v>98</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C131" s="1" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>742</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="G131" s="1" t="s">
         <v>608</v>
@@ -17288,12 +17291,12 @@
         <v>98</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C132" s="1" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>700</v>
@@ -17302,7 +17305,7 @@
         <v>328</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="G132" s="1" t="s">
         <v>615</v>
@@ -17311,30 +17314,30 @@
         <v>98</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C133" s="1" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>371</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="H133" s="1" t="s">
         <v>98</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="J133" s="1" t="s">
         <v>613</v>
@@ -17345,22 +17348,22 @@
         <v>636</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>653</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="H134" s="1" t="s">
         <v>98</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.2">
@@ -17368,22 +17371,22 @@
         <v>638</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>299</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H135" s="1" t="s">
         <v>98</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.2">
@@ -17391,68 +17394,68 @@
         <v>681</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>299</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H136" s="1" t="s">
         <v>98</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C137" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D137" s="1" t="s">
         <v>1071</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>1072</v>
       </c>
       <c r="E137" s="1" t="s">
         <v>594</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="H137" s="1" t="s">
         <v>98</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C138" s="1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D138" s="1" t="s">
         <v>1073</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>1074</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>671</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="H138" s="1" t="s">
         <v>98</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.2">
@@ -17475,7 +17478,7 @@
         <v>98</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.2">
@@ -17498,12 +17501,12 @@
         <v>98</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>1</v>
@@ -17515,7 +17518,7 @@
         <v>526</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="G142" s="1" t="s">
         <v>388</v>
@@ -17524,7 +17527,7 @@
         <v>98</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.2">
@@ -17532,13 +17535,13 @@
         <v>3</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="E143" s="1" t="s">
         <v>742</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G143" s="1" t="s">
         <v>383</v>
@@ -17547,7 +17550,7 @@
         <v>98</v>
       </c>
       <c r="I143" s="1" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.2">
@@ -17555,13 +17558,13 @@
         <v>5</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>667</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="G144" s="1" t="s">
         <v>384</v>
@@ -17570,7 +17573,7 @@
         <v>98</v>
       </c>
       <c r="I144" s="1" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="145" spans="3:9" x14ac:dyDescent="0.2">
@@ -17578,13 +17581,13 @@
         <v>7</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>667</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="G145" s="1" t="s">
         <v>385</v>
@@ -17593,7 +17596,7 @@
         <v>98</v>
       </c>
       <c r="I145" s="1" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="146" spans="3:9" x14ac:dyDescent="0.2">
@@ -17601,13 +17604,13 @@
         <v>9</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="E146" s="1" t="s">
         <v>526</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="G146" s="1" t="s">
         <v>386</v>
@@ -17616,7 +17619,7 @@
         <v>98</v>
       </c>
       <c r="I146" s="1" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="147" spans="3:9" x14ac:dyDescent="0.2">
@@ -17624,13 +17627,13 @@
         <v>11</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>526</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="G147" s="1" t="s">
         <v>387</v>
@@ -17639,7 +17642,7 @@
         <v>98</v>
       </c>
       <c r="I147" s="1" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="148" spans="3:9" x14ac:dyDescent="0.2">
@@ -17647,13 +17650,13 @@
         <v>12</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="E148" s="1" t="s">
         <v>526</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="G148" s="1" t="s">
         <v>601</v>
@@ -17662,7 +17665,7 @@
         <v>98</v>
       </c>
       <c r="I148" s="1" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="149" spans="3:9" x14ac:dyDescent="0.2">
@@ -17670,22 +17673,22 @@
         <v>624</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="E149" s="1" t="s">
         <v>526</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H149" s="1" t="s">
         <v>98</v>
       </c>
       <c r="I149" s="1" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="150" spans="3:9" x14ac:dyDescent="0.2">
@@ -17693,13 +17696,13 @@
         <v>14</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="E150" s="1" t="s">
         <v>351</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="G150" s="1" t="s">
         <v>80</v>
@@ -17708,12 +17711,12 @@
         <v>98</v>
       </c>
       <c r="I150" s="1" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="151" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C151" s="1" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>0</v>
@@ -17728,7 +17731,7 @@
         <v>98</v>
       </c>
       <c r="I151" s="1" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="152" spans="3:9" x14ac:dyDescent="0.2">
@@ -17745,13 +17748,13 @@
         <v>0</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H152" s="1" t="s">
         <v>98</v>
       </c>
       <c r="I152" s="1" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="153" spans="3:9" x14ac:dyDescent="0.2">
@@ -17759,13 +17762,13 @@
         <v>60</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="G153" s="1" t="s">
         <v>85</v>
@@ -17774,7 +17777,7 @@
         <v>98</v>
       </c>
       <c r="I153" s="1" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="154" spans="3:9" x14ac:dyDescent="0.2">
@@ -17782,13 +17785,13 @@
         <v>62</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="E154" s="1" t="s">
         <v>351</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="G154" s="1" t="s">
         <v>86</v>
@@ -17797,7 +17800,7 @@
         <v>98</v>
       </c>
       <c r="I154" s="1" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="155" spans="3:9" x14ac:dyDescent="0.2">
@@ -17805,13 +17808,13 @@
         <v>64</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="E155" s="1" t="s">
         <v>526</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="G155" s="1" t="s">
         <v>87</v>
@@ -17820,7 +17823,7 @@
         <v>98</v>
       </c>
       <c r="I155" s="1" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="156" spans="3:9" x14ac:dyDescent="0.2">
@@ -17828,13 +17831,13 @@
         <v>66</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="E156" s="1" t="s">
         <v>742</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G156" s="1" t="s">
         <v>88</v>
@@ -17843,21 +17846,21 @@
         <v>98</v>
       </c>
       <c r="I156" s="1" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="157" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C157" s="1" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="E157" s="1" t="s">
         <v>351</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="G157" s="1" t="s">
         <v>616</v>
@@ -17866,7 +17869,7 @@
         <v>98</v>
       </c>
       <c r="I157" s="1" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="158" spans="3:9" x14ac:dyDescent="0.2">
@@ -17874,13 +17877,13 @@
         <v>631</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="E158" s="1" t="s">
         <v>659</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="G158" s="1" t="s">
         <v>109</v>
@@ -17889,7 +17892,7 @@
         <v>98</v>
       </c>
       <c r="I158" s="1" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="159" spans="3:9" x14ac:dyDescent="0.2">
@@ -17897,13 +17900,13 @@
         <v>716</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="E159" s="1" t="s">
         <v>659</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="G159" s="1" t="s">
         <v>100</v>
@@ -17912,53 +17915,53 @@
         <v>98</v>
       </c>
       <c r="I159" s="1" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="160" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C160" s="1" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="E160" s="1" t="s">
         <v>378</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="H160" s="1" t="s">
         <v>98</v>
       </c>
       <c r="I160" s="1" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C161" s="1" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="E161" s="1" t="s">
         <v>378</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="G161" s="5" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="H161" s="1" t="s">
         <v>98</v>
       </c>
       <c r="I161" s="1" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="J161" s="1" t="s">
         <v>613</v>
@@ -17969,22 +17972,22 @@
         <v>636</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>671</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="H162" s="1" t="s">
         <v>98</v>
       </c>
       <c r="I162" s="1" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.2">
@@ -18001,13 +18004,13 @@
         <v>0</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H163" s="1" t="s">
         <v>98</v>
       </c>
       <c r="I163" s="1" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.2">
@@ -18015,68 +18018,68 @@
         <v>681</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="E164" s="1" t="s">
         <v>671</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H164" s="1" t="s">
         <v>98</v>
       </c>
       <c r="I164" s="1" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C165" s="1" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="E165" s="1" t="s">
         <v>378</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="H165" s="1" t="s">
         <v>98</v>
       </c>
       <c r="I165" s="1" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C166" s="1" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="E166" s="1" t="s">
         <v>378</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="H166" s="1" t="s">
         <v>98</v>
       </c>
       <c r="I166" s="1" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="J166" s="1" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.2">
@@ -18099,7 +18102,7 @@
         <v>98</v>
       </c>
       <c r="I167" s="1" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.2">
@@ -18122,24 +18125,24 @@
         <v>98</v>
       </c>
       <c r="I168" s="1" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="E170" s="1" t="s">
         <v>378</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G170" s="1" t="s">
         <v>388</v>
@@ -18148,7 +18151,7 @@
         <v>98</v>
       </c>
       <c r="I170" s="1" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.2">
@@ -18156,13 +18159,13 @@
         <v>3</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="E171" s="1" t="s">
         <v>378</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G171" s="1" t="s">
         <v>383</v>
@@ -18171,7 +18174,7 @@
         <v>98</v>
       </c>
       <c r="I171" s="1" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.2">
@@ -18179,13 +18182,13 @@
         <v>5</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="E172" s="1" t="s">
         <v>378</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G172" s="1" t="s">
         <v>384</v>
@@ -18194,7 +18197,7 @@
         <v>98</v>
       </c>
       <c r="I172" s="1" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.2">
@@ -18202,13 +18205,13 @@
         <v>7</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="E173" s="1" t="s">
         <v>486</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="G173" s="1" t="s">
         <v>385</v>
@@ -18217,7 +18220,7 @@
         <v>98</v>
       </c>
       <c r="I173" s="1" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.2">
@@ -18225,13 +18228,13 @@
         <v>9</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="E174" s="1" t="s">
         <v>423</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="G174" s="1" t="s">
         <v>386</v>
@@ -18240,7 +18243,7 @@
         <v>98</v>
       </c>
       <c r="I174" s="1" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.2">
@@ -18248,13 +18251,13 @@
         <v>11</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="E175" s="1" t="s">
         <v>486</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="G175" s="1" t="s">
         <v>387</v>
@@ -18263,7 +18266,7 @@
         <v>98</v>
       </c>
       <c r="I175" s="1" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.2">
@@ -18283,7 +18286,7 @@
         <v>98</v>
       </c>
       <c r="I176" s="1" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="177" spans="3:9" x14ac:dyDescent="0.2">
@@ -18303,12 +18306,12 @@
         <v>98</v>
       </c>
       <c r="I177" s="1" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="178" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C178" s="1" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>0</v>
@@ -18323,7 +18326,7 @@
         <v>98</v>
       </c>
       <c r="I178" s="1" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="179" spans="3:9" x14ac:dyDescent="0.2">
@@ -18343,7 +18346,7 @@
         <v>98</v>
       </c>
       <c r="I179" s="1" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="180" spans="3:9" x14ac:dyDescent="0.2">
@@ -18351,13 +18354,13 @@
         <v>60</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="E180" s="1" t="s">
         <v>378</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G180" s="1" t="s">
         <v>85</v>
@@ -18366,7 +18369,7 @@
         <v>98</v>
       </c>
       <c r="I180" s="1" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="181" spans="3:9" x14ac:dyDescent="0.2">
@@ -18374,13 +18377,13 @@
         <v>62</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="E181" s="1" t="s">
         <v>378</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G181" s="1" t="s">
         <v>86</v>
@@ -18389,7 +18392,7 @@
         <v>98</v>
       </c>
       <c r="I181" s="1" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="182" spans="3:9" x14ac:dyDescent="0.2">
@@ -18397,13 +18400,13 @@
         <v>64</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="E182" s="1" t="s">
         <v>674</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G182" s="1" t="s">
         <v>87</v>
@@ -18412,7 +18415,7 @@
         <v>98</v>
       </c>
       <c r="I182" s="1" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="183" spans="3:9" x14ac:dyDescent="0.2">
@@ -18420,13 +18423,13 @@
         <v>66</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="E183" s="1" t="s">
         <v>674</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G183" s="1" t="s">
         <v>88</v>
@@ -18435,21 +18438,21 @@
         <v>98</v>
       </c>
       <c r="I183" s="1" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="184" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C184" s="1" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="E184" s="1" t="s">
         <v>326</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="G184" s="1" t="s">
         <v>616</v>
@@ -18458,7 +18461,7 @@
         <v>98</v>
       </c>
       <c r="I184" s="1" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="185" spans="3:9" x14ac:dyDescent="0.2">
@@ -18466,13 +18469,13 @@
         <v>631</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="E185" s="1" t="s">
         <v>326</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="G185" s="1" t="s">
         <v>109</v>
@@ -18481,7 +18484,7 @@
         <v>98</v>
       </c>
       <c r="I185" s="1" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="186" spans="3:9" x14ac:dyDescent="0.2">
@@ -18489,13 +18492,13 @@
         <v>716</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="E186" s="1" t="s">
         <v>423</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G186" s="1" t="s">
         <v>404</v>
@@ -18504,35 +18507,35 @@
         <v>98</v>
       </c>
       <c r="I186" s="1" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="187" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C187" s="1" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E187" s="1" t="s">
         <v>326</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="H187" s="1" t="s">
         <v>98</v>
       </c>
       <c r="I187" s="1" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="188" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C188" s="1" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="D188" s="1" t="s">
         <v>0</v>
@@ -18547,7 +18550,7 @@
         <v>98</v>
       </c>
       <c r="I188" s="1" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="189" spans="3:9" x14ac:dyDescent="0.2">
@@ -18555,22 +18558,22 @@
         <v>636</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E189" s="1" t="s">
         <v>326</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="H189" s="1" t="s">
         <v>98</v>
       </c>
       <c r="I189" s="1" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="190" spans="3:9" x14ac:dyDescent="0.2">
@@ -18578,22 +18581,22 @@
         <v>638</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="E190" s="1" t="s">
         <v>326</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H190" s="1" t="s">
         <v>98</v>
       </c>
       <c r="I190" s="1" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="191" spans="3:9" x14ac:dyDescent="0.2">
@@ -18601,27 +18604,27 @@
         <v>681</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E191" s="1" t="s">
         <v>326</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H191" s="1" t="s">
         <v>98</v>
       </c>
       <c r="I191" s="1" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="192" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C192" s="1" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="D192" s="1" t="s">
         <v>0</v>
@@ -18636,12 +18639,12 @@
         <v>98</v>
       </c>
       <c r="I192" s="1" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C193" s="1" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>0</v>
@@ -18656,7 +18659,7 @@
         <v>98</v>
       </c>
       <c r="I193" s="1" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.2">
@@ -18676,7 +18679,7 @@
         <v>98</v>
       </c>
       <c r="I194" s="1" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.2">
@@ -18696,24 +18699,24 @@
         <v>98</v>
       </c>
       <c r="I195" s="1" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="E197" s="1" t="s">
         <v>764</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G197" s="1" t="s">
         <v>388</v>
@@ -18722,7 +18725,7 @@
         <v>98</v>
       </c>
       <c r="I197" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.2">
@@ -18730,13 +18733,13 @@
         <v>3</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="E198" s="1" t="s">
         <v>653</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G198" s="1" t="s">
         <v>383</v>
@@ -18745,7 +18748,7 @@
         <v>98</v>
       </c>
       <c r="I198" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.2">
@@ -18753,13 +18756,13 @@
         <v>5</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="E199" s="1" t="s">
         <v>764</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G199" s="1" t="s">
         <v>384</v>
@@ -18768,7 +18771,7 @@
         <v>98</v>
       </c>
       <c r="I199" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.2">
@@ -18776,13 +18779,13 @@
         <v>7</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="E200" s="1" t="s">
         <v>742</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="G200" s="1" t="s">
         <v>385</v>
@@ -18791,7 +18794,7 @@
         <v>98</v>
       </c>
       <c r="I200" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.2">
@@ -18799,13 +18802,13 @@
         <v>9</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="G201" s="1" t="s">
         <v>386</v>
@@ -18814,7 +18817,7 @@
         <v>98</v>
       </c>
       <c r="I201" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.2">
@@ -18837,7 +18840,7 @@
         <v>98</v>
       </c>
       <c r="I202" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.2">
@@ -18845,13 +18848,13 @@
         <v>12</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G203" s="1" t="s">
         <v>601</v>
@@ -18860,7 +18863,7 @@
         <v>98</v>
       </c>
       <c r="I203" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.2">
@@ -18868,13 +18871,13 @@
         <v>14</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="E204" s="1" t="s">
         <v>653</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G204" s="1" t="s">
         <v>80</v>
@@ -18883,7 +18886,7 @@
         <v>98</v>
       </c>
       <c r="I204" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.2">
@@ -18906,7 +18909,7 @@
         <v>98</v>
       </c>
       <c r="I205" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.2">
@@ -18914,13 +18917,13 @@
         <v>62</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="E206" s="1" t="s">
         <v>764</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G206" s="1" t="s">
         <v>86</v>
@@ -18929,7 +18932,7 @@
         <v>98</v>
       </c>
       <c r="I206" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.2">
@@ -18937,13 +18940,13 @@
         <v>64</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="E207" s="1" t="s">
         <v>764</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G207" s="1" t="s">
         <v>87</v>
@@ -18952,7 +18955,7 @@
         <v>98</v>
       </c>
       <c r="I207" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.2">
@@ -18960,13 +18963,13 @@
         <v>66</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="E208" s="1" t="s">
         <v>764</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G208" s="1" t="s">
         <v>88</v>
@@ -18975,7 +18978,7 @@
         <v>98</v>
       </c>
       <c r="I208" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.2">
@@ -18995,7 +18998,7 @@
         <v>98</v>
       </c>
       <c r="I209" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.2">
@@ -19003,13 +19006,13 @@
         <v>631</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="E210" s="1" t="s">
         <v>734</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G210" s="1" t="s">
         <v>109</v>
@@ -19018,7 +19021,7 @@
         <v>98</v>
       </c>
       <c r="I210" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.2">
@@ -19026,13 +19029,13 @@
         <v>752</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="E211" s="1" t="s">
         <v>299</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G211" s="1" t="s">
         <v>404</v>
@@ -19041,7 +19044,7 @@
         <v>98</v>
       </c>
       <c r="I211" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.2">
@@ -19049,13 +19052,13 @@
         <v>634</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="E212" s="1" t="s">
         <v>653</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G212" s="1" t="s">
         <v>107</v>
@@ -19064,12 +19067,12 @@
         <v>98</v>
       </c>
       <c r="I212" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C213" s="1" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="D213" s="1" t="s">
         <v>0</v>
@@ -19084,7 +19087,7 @@
         <v>98</v>
       </c>
       <c r="I213" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.2">
@@ -19104,7 +19107,7 @@
         <v>98</v>
       </c>
       <c r="I214" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.2">
@@ -19112,22 +19115,22 @@
         <v>638</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="E215" s="1" t="s">
         <v>423</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="G215" s="1" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H215" s="1" t="s">
         <v>98</v>
       </c>
       <c r="I215" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.2">
@@ -19135,27 +19138,27 @@
         <v>681</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="E216" s="1" t="s">
         <v>486</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="G216" s="1" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H216" s="1" t="s">
         <v>98</v>
       </c>
       <c r="I216" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="C218" s="1" t="s">
         <v>1</v>
@@ -19173,7 +19176,7 @@
         <v>98</v>
       </c>
       <c r="I218" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.2">
@@ -19193,7 +19196,7 @@
         <v>98</v>
       </c>
       <c r="I219" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.2">
@@ -19213,7 +19216,7 @@
         <v>98</v>
       </c>
       <c r="I220" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.2">
@@ -19233,7 +19236,7 @@
         <v>98</v>
       </c>
       <c r="I221" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.2">
@@ -19241,13 +19244,13 @@
         <v>9</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="E222" s="1" t="s">
         <v>671</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="G222" s="1" t="s">
         <v>386</v>
@@ -19256,7 +19259,7 @@
         <v>98</v>
       </c>
       <c r="I222" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.2">
@@ -19276,7 +19279,7 @@
         <v>98</v>
       </c>
       <c r="I223" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.2">
@@ -19296,7 +19299,7 @@
         <v>98</v>
       </c>
       <c r="I224" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="225" spans="3:9" x14ac:dyDescent="0.2">
@@ -19316,7 +19319,7 @@
         <v>98</v>
       </c>
       <c r="I225" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="226" spans="3:9" x14ac:dyDescent="0.2">
@@ -19336,7 +19339,7 @@
         <v>98</v>
       </c>
       <c r="I226" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="227" spans="3:9" x14ac:dyDescent="0.2">
@@ -19356,7 +19359,7 @@
         <v>98</v>
       </c>
       <c r="I227" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="228" spans="3:9" x14ac:dyDescent="0.2">
@@ -19364,13 +19367,13 @@
         <v>752</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="E228" s="1" t="s">
         <v>526</v>
       </c>
       <c r="F228" s="1" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="G228" s="1" t="s">
         <v>404</v>
@@ -19379,7 +19382,7 @@
         <v>98</v>
       </c>
       <c r="I228" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="229" spans="3:9" x14ac:dyDescent="0.2">
@@ -19399,7 +19402,7 @@
         <v>98</v>
       </c>
       <c r="I229" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
   </sheetData>

--- a/2022_CnC_records.xlsx
+++ b/2022_CnC_records.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\powerof10-tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{284D3815-B752-4A5D-962E-BF5A445EBC42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA7CB7FC-B25C-4A8F-9FD7-DD8374CF2FBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{59E39808-5DD1-48A0-8CDE-64F5926DA7BC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{59E39808-5DD1-48A0-8CDE-64F5926DA7BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Overall" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4576" uniqueCount="1191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4578" uniqueCount="1191">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -4020,8 +4020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0672E4C-1F81-4344-8F80-ED5988EB27BD}">
   <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4969,7 +4969,7 @@
         <v>58</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>92</v>
+        <v>395</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>99</v>
@@ -4992,7 +4992,7 @@
         <v>59</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>83</v>
+        <v>905</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>99</v>
@@ -5300,8 +5300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E116B990-5FBC-4F60-A519-6D8AF60704F6}">
   <dimension ref="A2:J100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="J71" sqref="J71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6721,6 +6721,9 @@
       <c r="I68" s="1" t="s">
         <v>390</v>
       </c>
+      <c r="J68" s="1" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
@@ -6769,6 +6772,9 @@
       </c>
       <c r="I70" s="1" t="s">
         <v>390</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
@@ -7335,8 +7341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D33EFF66-21E6-4C12-9015-9A2807500A5E}">
   <dimension ref="A2:K88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:I2"/>
+    <sheetView topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="K79" sqref="K79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14331,8 +14337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BA3259E-AFD6-4FCB-BD83-44E5FC56E958}">
   <dimension ref="A1:J229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="N52" sqref="N52"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/2022_CnC_records.xlsx
+++ b/2022_CnC_records.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\powerof10-tools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo\powerof10-tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA7CB7FC-B25C-4A8F-9FD7-DD8374CF2FBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BCA3534-F465-4FE8-AAF5-A397BCF4CE33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{59E39808-5DD1-48A0-8CDE-64F5926DA7BC}"/>
+    <workbookView xWindow="14475" yWindow="2685" windowWidth="23160" windowHeight="13305" activeTab="1" xr2:uid="{59E39808-5DD1-48A0-8CDE-64F5926DA7BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Overall" sheetId="1" r:id="rId1"/>
@@ -5300,8 +5300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E116B990-5FBC-4F60-A519-6D8AF60704F6}">
   <dimension ref="A2:J100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="J71" sqref="J71"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="G82" sqref="G82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9322,9 +9322,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CC38CDD-B783-4755-B4DD-3225A4BF53C5}">
   <dimension ref="A1:J226"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="J125" sqref="J125"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -14337,8 +14335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BA3259E-AFD6-4FCB-BD83-44E5FC56E958}">
   <dimension ref="A1:J229"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="J138" sqref="J138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/2022_CnC_records.xlsx
+++ b/2022_CnC_records.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\powerof10-tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A763E7EC-35FB-4E2A-92E5-393CFF2EC6A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{787FA52D-122F-4E68-BCAC-58909E7E1C78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{59E39808-5DD1-48A0-8CDE-64F5926DA7BC}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4578" uniqueCount="1191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4513" uniqueCount="1188">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -2751,24 +2751,12 @@
     <t>HepW</t>
   </si>
   <si>
-    <t>80HW</t>
-  </si>
-  <si>
-    <t>300H</t>
-  </si>
-  <si>
     <t>2000SCW</t>
   </si>
   <si>
     <t>Checked Po10 for hammer weight</t>
   </si>
   <si>
-    <t>SP2K</t>
-  </si>
-  <si>
-    <t>HT2K</t>
-  </si>
-  <si>
     <t>1500W</t>
   </si>
   <si>
@@ -3579,12 +3567,6 @@
     <t>110HM35</t>
   </si>
   <si>
-    <t>TODO event code may well be wrong</t>
-  </si>
-  <si>
-    <t>Po10 has this event code, gets used for next couple of AGs</t>
-  </si>
-  <si>
     <t xml:space="preserve">C&amp;C AC Track and Field records  - Overall club records </t>
   </si>
   <si>
@@ -3616,6 +3598,15 @@
   </si>
   <si>
     <t>Age Code</t>
+  </si>
+  <si>
+    <t>80HW40</t>
+  </si>
+  <si>
+    <t>80HW50</t>
+  </si>
+  <si>
+    <t>75HU13M</t>
   </si>
 </sst>
 </file>
@@ -4021,7 +4012,7 @@
   <dimension ref="A1:J60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4035,7 +4026,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>1180</v>
+        <v>1174</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>378</v>
@@ -4056,7 +4047,7 @@
         <v>95</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>1190</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.2">
@@ -4064,7 +4055,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>1181</v>
+        <v>1175</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
@@ -4611,7 +4602,7 @@
         <v>38</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>1165</v>
+        <v>1161</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>97</v>
@@ -4698,7 +4689,7 @@
     </row>
     <row r="30" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B30" s="6" t="s">
-        <v>1182</v>
+        <v>1176</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>1</v>
@@ -4992,7 +4983,7 @@
         <v>59</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>98</v>
@@ -5301,7 +5292,7 @@
   <dimension ref="A2:J100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5338,7 +5329,7 @@
         <v>95</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>1190</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -5491,15 +5482,6 @@
       </c>
       <c r="F9" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -7341,8 +7323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D33EFF66-21E6-4C12-9015-9A2807500A5E}">
   <dimension ref="A2:K88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="G108" sqref="G108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7375,7 +7357,7 @@
         <v>95</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>1190</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -9021,7 +9003,7 @@
         <v>441</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>80</v>
+        <v>1187</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>97</v>
@@ -9323,7 +9305,7 @@
   <dimension ref="A1:J226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9356,7 +9338,7 @@
         <v>95</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>1190</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -9652,7 +9634,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>98</v>
@@ -9810,7 +9792,7 @@
         <v>666</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>100</v>
@@ -9833,7 +9815,7 @@
         <v>667</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>1183</v>
+        <v>1177</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>99</v>
@@ -10250,7 +10232,7 @@
         <v>628</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>902</v>
+        <v>1185</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>98</v>
@@ -10319,7 +10301,7 @@
         <v>0</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>98</v>
@@ -10894,7 +10876,7 @@
         <v>628</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>902</v>
+        <v>1185</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>98</v>
@@ -10963,7 +10945,7 @@
         <v>0</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>98</v>
@@ -11538,7 +11520,7 @@
         <v>747</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>902</v>
+        <v>1186</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>98</v>
@@ -11607,7 +11589,7 @@
         <v>708</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="H102" s="1" t="s">
         <v>98</v>
@@ -12069,22 +12051,13 @@
       <c r="F123" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G123" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="H123" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="I123" s="1" t="s">
-        <v>890</v>
-      </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C124" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>1188</v>
+        <v>1182</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>652</v>
@@ -12102,7 +12075,7 @@
         <v>890</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>1189</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.2">
@@ -12118,15 +12091,6 @@
       <c r="F125" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G125" s="1" t="s">
-        <v>902</v>
-      </c>
-      <c r="H125" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="I125" s="1" t="s">
-        <v>890</v>
-      </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C126" s="1" t="s">
@@ -12141,15 +12105,6 @@
       <c r="F126" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G126" s="1" t="s">
-        <v>903</v>
-      </c>
-      <c r="H126" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="I126" s="1" t="s">
-        <v>890</v>
-      </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C127" s="1" t="s">
@@ -12188,7 +12143,7 @@
         <v>708</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="H128" s="1" t="s">
         <v>98</v>
@@ -12279,15 +12234,6 @@
       <c r="F132" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G132" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H132" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="I132" s="1" t="s">
-        <v>890</v>
-      </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C133" s="1" t="s">
@@ -12441,7 +12387,7 @@
         <v>708</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>1187</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.2">
@@ -12644,15 +12590,6 @@
       <c r="F149" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G149" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="H149" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="I149" s="1" t="s">
-        <v>891</v>
-      </c>
     </row>
     <row r="150" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C150" s="1" t="s">
@@ -12713,15 +12650,6 @@
       <c r="F152" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G152" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H152" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="I152" s="1" t="s">
-        <v>891</v>
-      </c>
     </row>
     <row r="153" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C153" s="1" t="s">
@@ -13107,15 +13035,6 @@
       <c r="F170" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G170" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H170" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="I170" s="1" t="s">
-        <v>892</v>
-      </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C171" s="1" t="s">
@@ -13340,15 +13259,6 @@
       <c r="F181" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G181" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="H181" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="I181" s="1" t="s">
-        <v>893</v>
-      </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C182" s="1" t="s">
@@ -13363,15 +13273,6 @@
       <c r="F182" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G182" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="H182" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="I182" s="1" t="s">
-        <v>893</v>
-      </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C183" s="1" t="s">
@@ -13386,15 +13287,6 @@
       <c r="F183" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G183" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H183" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="I183" s="1" t="s">
-        <v>893</v>
-      </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C184" s="1" t="s">
@@ -13488,7 +13380,7 @@
         <v>893</v>
       </c>
       <c r="J187" s="1" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.2">
@@ -13660,7 +13552,7 @@
         <v>9</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="E196" s="1" t="s">
         <v>485</v>
@@ -13714,15 +13606,6 @@
       <c r="F198" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G198" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H198" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="I198" s="1" t="s">
-        <v>894</v>
-      </c>
     </row>
     <row r="199" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C199" s="1" t="s">
@@ -13760,15 +13643,6 @@
       <c r="F200" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G200" s="1" t="s">
-        <v>906</v>
-      </c>
-      <c r="H200" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="I200" s="1" t="s">
-        <v>894</v>
-      </c>
     </row>
     <row r="201" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C201" s="1" t="s">
@@ -13806,15 +13680,6 @@
       <c r="F202" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G202" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="H202" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="I202" s="1" t="s">
-        <v>894</v>
-      </c>
     </row>
     <row r="203" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C203" s="1" t="s">
@@ -13875,15 +13740,6 @@
       <c r="F205" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G205" s="1" t="s">
-        <v>907</v>
-      </c>
-      <c r="H205" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="I205" s="1" t="s">
-        <v>894</v>
-      </c>
     </row>
     <row r="206" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C206" s="1" t="s">
@@ -13899,7 +13755,7 @@
         <v>783</v>
       </c>
       <c r="G206" s="1" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="H206" s="1" t="s">
         <v>98</v>
@@ -14131,15 +13987,6 @@
       <c r="F217" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G217" s="1" t="s">
-        <v>906</v>
-      </c>
-      <c r="H217" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="I217" s="1" t="s">
-        <v>895</v>
-      </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C218" s="1" t="s">
@@ -14177,15 +14024,6 @@
       <c r="F219" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G219" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="H219" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="I219" s="1" t="s">
-        <v>895</v>
-      </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C220" s="1" t="s">
@@ -14246,15 +14084,6 @@
       <c r="F222" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G222" s="1" t="s">
-        <v>907</v>
-      </c>
-      <c r="H222" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="I222" s="1" t="s">
-        <v>895</v>
-      </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C223" s="1" t="s">
@@ -14268,15 +14097,6 @@
       </c>
       <c r="F223" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="G223" s="1" t="s">
-        <v>908</v>
-      </c>
-      <c r="H223" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="I223" s="1" t="s">
-        <v>895</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.2">
@@ -14338,7 +14158,7 @@
   <dimension ref="A1:J229"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14352,7 +14172,7 @@
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C1" s="4" t="s">
         <v>378</v>
       </c>
@@ -14372,12 +14192,12 @@
         <v>95</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
@@ -14389,7 +14209,7 @@
         <v>658</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>387</v>
@@ -14401,18 +14221,18 @@
         <v>886</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>658</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>382</v>
@@ -14424,18 +14244,18 @@
         <v>886</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>658</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>383</v>
@@ -14447,18 +14267,18 @@
         <v>886</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>763</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>384</v>
@@ -14470,18 +14290,18 @@
         <v>886</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>525</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>385</v>
@@ -14493,18 +14313,18 @@
         <v>886</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>733</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>386</v>
@@ -14516,18 +14336,18 @@
         <v>886</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>673</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>600</v>
@@ -14539,18 +14359,18 @@
         <v>886</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>623</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>652</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>897</v>
@@ -14562,18 +14382,18 @@
         <v>886</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>763</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>80</v>
@@ -14585,9 +14405,9 @@
         <v>886</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>843</v>
@@ -14596,10 +14416,10 @@
         <v>529</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>97</v>
@@ -14607,22 +14427,19 @@
       <c r="I11" s="1" t="s">
         <v>886</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>1179</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>529</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>82</v>
@@ -14634,18 +14451,18 @@
         <v>886</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>733</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>83</v>
@@ -14657,18 +14474,18 @@
         <v>886</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>733</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>84</v>
@@ -14680,12 +14497,12 @@
         <v>886</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>593</v>
@@ -14703,12 +14520,12 @@
         <v>886</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C16" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>593</v>
@@ -14731,7 +14548,7 @@
         <v>64</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>593</v>
@@ -14754,13 +14571,13 @@
         <v>66</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>529</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>88</v>
@@ -14774,16 +14591,16 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>670</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>161</v>
@@ -14797,16 +14614,16 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>593</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>109</v>
@@ -14820,16 +14637,16 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>697</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>102</v>
@@ -14843,16 +14660,16 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>661</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>103</v>
@@ -14938,7 +14755,7 @@
         <v>37</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>327</v>
@@ -14947,7 +14764,7 @@
         <v>38</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>1165</v>
+        <v>1161</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>97</v>
@@ -14964,7 +14781,7 @@
         <v>39</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>593</v>
@@ -14987,13 +14804,13 @@
         <v>641</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>422</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>104</v>
@@ -15010,7 +14827,7 @@
         <v>643</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>325</v>
@@ -15030,19 +14847,19 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>666</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>387</v>
@@ -15059,13 +14876,13 @@
         <v>3</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>666</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>382</v>
@@ -15082,13 +14899,13 @@
         <v>5</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>529</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>383</v>
@@ -15105,13 +14922,13 @@
         <v>7</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>325</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>384</v>
@@ -15128,13 +14945,13 @@
         <v>9</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>385</v>
@@ -15151,13 +14968,13 @@
         <v>11</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>325</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>386</v>
@@ -15174,13 +14991,13 @@
         <v>12</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>325</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>600</v>
@@ -15197,13 +15014,13 @@
         <v>623</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>1186</v>
+        <v>1180</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>298</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>897</v>
@@ -15215,7 +15032,7 @@
         <v>887</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>1185</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="39" spans="3:10" x14ac:dyDescent="0.2">
@@ -15223,13 +15040,13 @@
         <v>14</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>298</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>80</v>
@@ -15243,28 +15060,25 @@
     </row>
     <row r="40" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>702</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>97</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>887</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>1178</v>
       </c>
     </row>
     <row r="41" spans="3:10" x14ac:dyDescent="0.2">
@@ -15272,13 +15086,13 @@
         <v>55</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>645</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>82</v>
@@ -15295,13 +15109,13 @@
         <v>18</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>298</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>83</v>
@@ -15318,13 +15132,13 @@
         <v>20</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>298</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>84</v>
@@ -15341,7 +15155,7 @@
         <v>60</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>485</v>
@@ -15364,13 +15178,13 @@
         <v>62</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>666</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>86</v>
@@ -15387,13 +15201,13 @@
         <v>64</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>702</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>87</v>
@@ -15410,13 +15224,13 @@
         <v>66</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>702</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>88</v>
@@ -15430,16 +15244,16 @@
     </row>
     <row r="48" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>673</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>161</v>
@@ -15453,16 +15267,16 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>673</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>109</v>
@@ -15476,16 +15290,16 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>529</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>102</v>
@@ -15499,16 +15313,16 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>700</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>103</v>
@@ -15525,13 +15339,13 @@
         <v>635</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>485</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>900</v>
@@ -15603,7 +15417,7 @@
         <v>0</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>97</v>
@@ -15640,13 +15454,13 @@
         <v>641</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>485</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>104</v>
@@ -15663,13 +15477,13 @@
         <v>643</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>485</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>105</v>
@@ -15683,19 +15497,19 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>377</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>387</v>
@@ -15712,13 +15526,13 @@
         <v>3</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>377</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>382</v>
@@ -15735,13 +15549,13 @@
         <v>5</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>383</v>
@@ -15758,13 +15572,13 @@
         <v>7</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>384</v>
@@ -15781,13 +15595,13 @@
         <v>9</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>529</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>385</v>
@@ -15799,18 +15613,18 @@
         <v>888</v>
       </c>
     </row>
-    <row r="65" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>702</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>386</v>
@@ -15822,18 +15636,18 @@
         <v>888</v>
       </c>
     </row>
-    <row r="66" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>702</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>600</v>
@@ -15845,18 +15659,18 @@
         <v>888</v>
       </c>
     </row>
-    <row r="67" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>623</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>897</v>
@@ -15868,18 +15682,18 @@
         <v>888</v>
       </c>
     </row>
-    <row r="68" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>673</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>80</v>
@@ -15891,21 +15705,21 @@
         <v>888</v>
       </c>
     </row>
-    <row r="69" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>666</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>97</v>
@@ -15913,22 +15727,19 @@
       <c r="I69" s="1" t="s">
         <v>888</v>
       </c>
-      <c r="J69" s="1" t="s">
-        <v>1178</v>
-      </c>
-    </row>
-    <row r="70" spans="3:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>799</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>82</v>
@@ -15940,9 +15751,9 @@
         <v>888</v>
       </c>
     </row>
-    <row r="71" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>0</v>
@@ -15963,18 +15774,18 @@
         <v>888</v>
       </c>
     </row>
-    <row r="72" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>350</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>84</v>
@@ -15986,18 +15797,18 @@
         <v>888</v>
       </c>
     </row>
-    <row r="73" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>422</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>85</v>
@@ -16009,18 +15820,18 @@
         <v>888</v>
       </c>
     </row>
-    <row r="74" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>377</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>86</v>
@@ -16032,18 +15843,18 @@
         <v>888</v>
       </c>
     </row>
-    <row r="75" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>422</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>87</v>
@@ -16055,18 +15866,18 @@
         <v>888</v>
       </c>
     </row>
-    <row r="76" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>66</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>739</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>88</v>
@@ -16078,18 +15889,18 @@
         <v>888</v>
       </c>
     </row>
-    <row r="77" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>652</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>161</v>
@@ -16101,18 +15912,18 @@
         <v>888</v>
       </c>
     </row>
-    <row r="78" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C78" s="1" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>799</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>109</v>
@@ -16124,18 +15935,18 @@
         <v>888</v>
       </c>
     </row>
-    <row r="79" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C79" s="1" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>799</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>102</v>
@@ -16147,18 +15958,18 @@
         <v>888</v>
       </c>
     </row>
-    <row r="80" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>652</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>103</v>
@@ -16175,13 +15986,13 @@
         <v>635</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>670</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>900</v>
@@ -16221,13 +16032,13 @@
         <v>680</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>670</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>898</v>
@@ -16310,13 +16121,13 @@
         <v>643</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>652</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>105</v>
@@ -16330,19 +16141,19 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>673</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>387</v>
@@ -16359,13 +16170,13 @@
         <v>3</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>673</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>382</v>
@@ -16382,13 +16193,13 @@
         <v>5</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>673</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>383</v>
@@ -16405,13 +16216,13 @@
         <v>7</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>384</v>
@@ -16428,13 +16239,13 @@
         <v>9</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>720</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="G93" s="1" t="s">
         <v>385</v>
@@ -16451,13 +16262,13 @@
         <v>11</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>720</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>386</v>
@@ -16474,13 +16285,13 @@
         <v>12</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>673</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>600</v>
@@ -16497,13 +16308,13 @@
         <v>14</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>673</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>80</v>
@@ -16517,19 +16328,19 @@
     </row>
     <row r="97" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>739</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>1176</v>
+        <v>1172</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>97</v>
@@ -16543,13 +16354,13 @@
         <v>55</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>799</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>82</v>
@@ -16566,13 +16377,13 @@
         <v>60</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>85</v>
@@ -16589,13 +16400,13 @@
         <v>62</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>673</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>86</v>
@@ -16612,13 +16423,13 @@
         <v>64</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>658</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>87</v>
@@ -16635,13 +16446,13 @@
         <v>66</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="G102" s="1" t="s">
         <v>88</v>
@@ -16655,16 +16466,16 @@
     </row>
     <row r="103" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C103" s="1" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>700</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="G103" s="1" t="s">
         <v>601</v>
@@ -16678,16 +16489,16 @@
     </row>
     <row r="104" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C104" s="1" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>525</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="G104" s="1" t="s">
         <v>616</v>
@@ -16701,16 +16512,16 @@
     </row>
     <row r="105" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C105" s="1" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>700</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="G105" s="1" t="s">
         <v>607</v>
@@ -16724,16 +16535,16 @@
     </row>
     <row r="106" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C106" s="1" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>525</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="G106" s="1" t="s">
         <v>614</v>
@@ -16750,13 +16561,13 @@
         <v>635</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>763</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="G107" s="1" t="s">
         <v>900</v>
@@ -16773,13 +16584,13 @@
         <v>637</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>733</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="G108" s="1" t="s">
         <v>899</v>
@@ -16796,13 +16607,13 @@
         <v>680</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>733</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="G109" s="1" t="s">
         <v>898</v>
@@ -16862,13 +16673,13 @@
         <v>641</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>485</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="G112" s="1" t="s">
         <v>104</v>
@@ -16885,13 +16696,13 @@
         <v>643</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>733</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="G113" s="1" t="s">
         <v>105</v>
@@ -16905,19 +16716,19 @@
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>700</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="G115" s="1" t="s">
         <v>387</v>
@@ -16934,13 +16745,13 @@
         <v>3</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>773</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="G116" s="1" t="s">
         <v>382</v>
@@ -16957,13 +16768,13 @@
         <v>5</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="G117" s="1" t="s">
         <v>383</v>
@@ -16980,13 +16791,13 @@
         <v>7</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="G118" s="1" t="s">
         <v>384</v>
@@ -17003,13 +16814,13 @@
         <v>9</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="G119" s="1" t="s">
         <v>385</v>
@@ -17026,13 +16837,13 @@
         <v>11</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>485</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="G120" s="1" t="s">
         <v>386</v>
@@ -17049,13 +16860,13 @@
         <v>12</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>525</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
       <c r="G121" s="1" t="s">
         <v>600</v>
@@ -17072,13 +16883,13 @@
         <v>14</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>485</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="G122" s="1" t="s">
         <v>80</v>
@@ -17092,19 +16903,19 @@
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C123" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>350</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>1176</v>
+        <v>1172</v>
       </c>
       <c r="H123" s="1" t="s">
         <v>97</v>
@@ -17121,13 +16932,13 @@
         <v>55</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>525</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="G124" s="1" t="s">
         <v>82</v>
@@ -17144,13 +16955,13 @@
         <v>60</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>525</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="G125" s="1" t="s">
         <v>85</v>
@@ -17167,13 +16978,13 @@
         <v>62</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>298</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="G126" s="1" t="s">
         <v>86</v>
@@ -17190,13 +17001,13 @@
         <v>64</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>652</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="G127" s="1" t="s">
         <v>87</v>
@@ -17213,13 +17024,13 @@
         <v>66</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>773</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="G128" s="1" t="s">
         <v>88</v>
@@ -17233,16 +17044,16 @@
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C129" s="1" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>298</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="G129" s="1" t="s">
         <v>601</v>
@@ -17256,16 +17067,16 @@
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C130" s="1" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>325</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="G130" s="1" t="s">
         <v>616</v>
@@ -17279,16 +17090,16 @@
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C131" s="1" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>741</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="G131" s="1" t="s">
         <v>607</v>
@@ -17302,7 +17113,7 @@
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C132" s="1" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>699</v>
@@ -17311,7 +17122,7 @@
         <v>327</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="G132" s="1" t="s">
         <v>614</v>
@@ -17325,19 +17136,19 @@
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C133" s="1" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>370</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
       <c r="H133" s="1" t="s">
         <v>97</v>
@@ -17354,13 +17165,13 @@
         <v>635</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>652</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="G134" s="1" t="s">
         <v>900</v>
@@ -17377,13 +17188,13 @@
         <v>637</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>298</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="G135" s="1" t="s">
         <v>899</v>
@@ -17400,13 +17211,13 @@
         <v>680</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>298</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="G136" s="1" t="s">
         <v>898</v>
@@ -17420,19 +17231,19 @@
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C137" s="1" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="E137" s="1" t="s">
         <v>593</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>1167</v>
+        <v>1163</v>
       </c>
       <c r="H137" s="1" t="s">
         <v>97</v>
@@ -17443,16 +17254,16 @@
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C138" s="1" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>670</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="H138" s="1" t="s">
         <v>97</v>
@@ -17461,7 +17272,7 @@
         <v>890</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.2">
@@ -17512,7 +17323,7 @@
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>1</v>
@@ -17524,7 +17335,7 @@
         <v>525</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="G142" s="1" t="s">
         <v>387</v>
@@ -17541,13 +17352,13 @@
         <v>3</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
       <c r="E143" s="1" t="s">
         <v>741</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="G143" s="1" t="s">
         <v>382</v>
@@ -17564,13 +17375,13 @@
         <v>5</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>666</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="G144" s="1" t="s">
         <v>383</v>
@@ -17587,13 +17398,13 @@
         <v>7</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>666</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="G145" s="1" t="s">
         <v>384</v>
@@ -17610,13 +17421,13 @@
         <v>9</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
       <c r="E146" s="1" t="s">
         <v>525</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="G146" s="1" t="s">
         <v>385</v>
@@ -17633,13 +17444,13 @@
         <v>11</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>525</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
       <c r="G147" s="1" t="s">
         <v>386</v>
@@ -17656,13 +17467,13 @@
         <v>12</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="E148" s="1" t="s">
         <v>525</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
       <c r="G148" s="1" t="s">
         <v>600</v>
@@ -17679,13 +17490,13 @@
         <v>623</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="E149" s="1" t="s">
         <v>525</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
       <c r="G149" s="1" t="s">
         <v>897</v>
@@ -17702,13 +17513,13 @@
         <v>14</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="E150" s="1" t="s">
         <v>350</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
       <c r="G150" s="1" t="s">
         <v>80</v>
@@ -17722,7 +17533,7 @@
     </row>
     <row r="151" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C151" s="1" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>0</v>
@@ -17732,12 +17543,6 @@
       </c>
       <c r="F151" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="H151" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I151" s="1" t="s">
-        <v>891</v>
       </c>
     </row>
     <row r="152" spans="3:9" x14ac:dyDescent="0.2">
@@ -17753,28 +17558,19 @@
       <c r="F152" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G152" s="1" t="s">
-        <v>903</v>
-      </c>
-      <c r="H152" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I152" s="1" t="s">
-        <v>891</v>
-      </c>
     </row>
     <row r="153" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C153" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="G153" s="1" t="s">
         <v>85</v>
@@ -17791,13 +17587,13 @@
         <v>62</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="E154" s="1" t="s">
         <v>350</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="G154" s="1" t="s">
         <v>86</v>
@@ -17814,13 +17610,13 @@
         <v>64</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="E155" s="1" t="s">
         <v>525</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="G155" s="1" t="s">
         <v>87</v>
@@ -17837,13 +17633,13 @@
         <v>66</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="E156" s="1" t="s">
         <v>741</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="G156" s="1" t="s">
         <v>88</v>
@@ -17857,16 +17653,16 @@
     </row>
     <row r="157" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C157" s="1" t="s">
-        <v>1098</v>
+        <v>1094</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="E157" s="1" t="s">
         <v>350</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="G157" s="1" t="s">
         <v>615</v>
@@ -17883,13 +17679,13 @@
         <v>630</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
       <c r="E158" s="1" t="s">
         <v>658</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="G158" s="1" t="s">
         <v>108</v>
@@ -17906,13 +17702,13 @@
         <v>715</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="E159" s="1" t="s">
         <v>658</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="G159" s="1" t="s">
         <v>99</v>
@@ -17926,19 +17722,19 @@
     </row>
     <row r="160" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C160" s="1" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
       <c r="E160" s="1" t="s">
         <v>377</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
       <c r="H160" s="1" t="s">
         <v>97</v>
@@ -17949,19 +17745,19 @@
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C161" s="1" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
       <c r="E161" s="1" t="s">
         <v>377</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="G161" s="5" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
       <c r="H161" s="1" t="s">
         <v>97</v>
@@ -17978,13 +17774,13 @@
         <v>635</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>670</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="G162" s="1" t="s">
         <v>900</v>
@@ -18024,13 +17820,13 @@
         <v>680</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
       <c r="E164" s="1" t="s">
         <v>670</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="G164" s="1" t="s">
         <v>898</v>
@@ -18044,19 +17840,19 @@
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C165" s="1" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="E165" s="1" t="s">
         <v>377</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>1172</v>
+        <v>1168</v>
       </c>
       <c r="H165" s="1" t="s">
         <v>97</v>
@@ -18067,16 +17863,16 @@
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C166" s="1" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
       <c r="E166" s="1" t="s">
         <v>377</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="H166" s="1" t="s">
         <v>97</v>
@@ -18085,7 +17881,7 @@
         <v>891</v>
       </c>
       <c r="J166" s="1" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.2">
@@ -18136,19 +17932,19 @@
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="E170" s="1" t="s">
         <v>377</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="G170" s="1" t="s">
         <v>387</v>
@@ -18165,13 +17961,13 @@
         <v>3</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="E171" s="1" t="s">
         <v>377</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="G171" s="1" t="s">
         <v>382</v>
@@ -18188,13 +17984,13 @@
         <v>5</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="E172" s="1" t="s">
         <v>377</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="G172" s="1" t="s">
         <v>383</v>
@@ -18211,13 +18007,13 @@
         <v>7</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>1175</v>
+        <v>1171</v>
       </c>
       <c r="E173" s="1" t="s">
         <v>485</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
       <c r="G173" s="1" t="s">
         <v>384</v>
@@ -18234,13 +18030,13 @@
         <v>9</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="E174" s="1" t="s">
         <v>422</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="G174" s="1" t="s">
         <v>385</v>
@@ -18257,13 +18053,13 @@
         <v>11</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
       <c r="E175" s="1" t="s">
         <v>485</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="G175" s="1" t="s">
         <v>386</v>
@@ -18317,7 +18113,7 @@
     </row>
     <row r="178" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C178" s="1" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>0</v>
@@ -18360,13 +18156,13 @@
         <v>60</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="E180" s="1" t="s">
         <v>377</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="G180" s="1" t="s">
         <v>85</v>
@@ -18383,13 +18179,13 @@
         <v>62</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="E181" s="1" t="s">
         <v>377</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="G181" s="1" t="s">
         <v>86</v>
@@ -18406,13 +18202,13 @@
         <v>64</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="E182" s="1" t="s">
         <v>673</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="G182" s="1" t="s">
         <v>87</v>
@@ -18429,13 +18225,13 @@
         <v>66</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
       <c r="E183" s="1" t="s">
         <v>673</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="G183" s="1" t="s">
         <v>88</v>
@@ -18449,16 +18245,16 @@
     </row>
     <row r="184" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C184" s="1" t="s">
-        <v>1098</v>
+        <v>1094</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="E184" s="1" t="s">
         <v>325</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="G184" s="1" t="s">
         <v>615</v>
@@ -18475,13 +18271,13 @@
         <v>630</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>1135</v>
+        <v>1131</v>
       </c>
       <c r="E185" s="1" t="s">
         <v>325</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="G185" s="1" t="s">
         <v>108</v>
@@ -18498,13 +18294,13 @@
         <v>715</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>1136</v>
+        <v>1132</v>
       </c>
       <c r="E186" s="1" t="s">
         <v>422</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="G186" s="1" t="s">
         <v>403</v>
@@ -18518,19 +18314,19 @@
     </row>
     <row r="187" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C187" s="1" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>1137</v>
+        <v>1133</v>
       </c>
       <c r="E187" s="1" t="s">
         <v>325</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
       <c r="H187" s="1" t="s">
         <v>97</v>
@@ -18541,7 +18337,7 @@
     </row>
     <row r="188" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C188" s="1" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="D188" s="1" t="s">
         <v>0</v>
@@ -18564,13 +18360,13 @@
         <v>635</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>1138</v>
+        <v>1134</v>
       </c>
       <c r="E189" s="1" t="s">
         <v>325</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="G189" s="1" t="s">
         <v>900</v>
@@ -18587,13 +18383,13 @@
         <v>637</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
       <c r="E190" s="1" t="s">
         <v>325</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="G190" s="1" t="s">
         <v>899</v>
@@ -18610,13 +18406,13 @@
         <v>680</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
       <c r="E191" s="1" t="s">
         <v>325</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="G191" s="1" t="s">
         <v>898</v>
@@ -18630,7 +18426,7 @@
     </row>
     <row r="192" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C192" s="1" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="D192" s="1" t="s">
         <v>0</v>
@@ -18650,7 +18446,7 @@
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C193" s="1" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>0</v>
@@ -18710,19 +18506,19 @@
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>1162</v>
+        <v>1158</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>1148</v>
+        <v>1144</v>
       </c>
       <c r="E197" s="1" t="s">
         <v>763</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="G197" s="1" t="s">
         <v>387</v>
@@ -18739,13 +18535,13 @@
         <v>3</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="E198" s="1" t="s">
         <v>652</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="G198" s="1" t="s">
         <v>382</v>
@@ -18762,13 +18558,13 @@
         <v>5</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>1150</v>
+        <v>1146</v>
       </c>
       <c r="E199" s="1" t="s">
         <v>763</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="G199" s="1" t="s">
         <v>383</v>
@@ -18785,13 +18581,13 @@
         <v>7</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>1151</v>
+        <v>1147</v>
       </c>
       <c r="E200" s="1" t="s">
         <v>741</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="G200" s="1" t="s">
         <v>384</v>
@@ -18808,13 +18604,13 @@
         <v>9</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="E201" s="1" t="s">
         <v>830</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="G201" s="1" t="s">
         <v>385</v>
@@ -18854,13 +18650,13 @@
         <v>12</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
       <c r="G203" s="1" t="s">
         <v>600</v>
@@ -18877,13 +18673,13 @@
         <v>14</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>1154</v>
+        <v>1150</v>
       </c>
       <c r="E204" s="1" t="s">
         <v>652</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
       <c r="G204" s="1" t="s">
         <v>80</v>
@@ -18923,13 +18719,13 @@
         <v>62</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="E206" s="1" t="s">
         <v>763</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="G206" s="1" t="s">
         <v>86</v>
@@ -18946,13 +18742,13 @@
         <v>64</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="E207" s="1" t="s">
         <v>763</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="G207" s="1" t="s">
         <v>87</v>
@@ -18969,13 +18765,13 @@
         <v>66</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="E208" s="1" t="s">
         <v>763</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="G208" s="1" t="s">
         <v>88</v>
@@ -19012,13 +18808,13 @@
         <v>630</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
       <c r="E210" s="1" t="s">
         <v>733</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
       <c r="G210" s="1" t="s">
         <v>108</v>
@@ -19035,13 +18831,13 @@
         <v>751</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
       <c r="E211" s="1" t="s">
         <v>298</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>1146</v>
+        <v>1142</v>
       </c>
       <c r="G211" s="1" t="s">
         <v>403</v>
@@ -19058,13 +18854,13 @@
         <v>633</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>1159</v>
+        <v>1155</v>
       </c>
       <c r="E212" s="1" t="s">
         <v>652</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>1147</v>
+        <v>1143</v>
       </c>
       <c r="G212" s="1" t="s">
         <v>106</v>
@@ -19078,7 +18874,7 @@
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C213" s="1" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="D213" s="1" t="s">
         <v>0</v>
@@ -19121,13 +18917,13 @@
         <v>637</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
       <c r="E215" s="1" t="s">
         <v>422</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="G215" s="1" t="s">
         <v>899</v>
@@ -19144,13 +18940,13 @@
         <v>680</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
       <c r="E216" s="1" t="s">
         <v>485</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="G216" s="1" t="s">
         <v>898</v>
@@ -19164,7 +18960,7 @@
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="C218" s="1" t="s">
         <v>1</v>
@@ -19250,13 +19046,13 @@
         <v>9</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
       <c r="E222" s="1" t="s">
         <v>670</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="G222" s="1" t="s">
         <v>385</v>
@@ -19373,13 +19169,13 @@
         <v>751</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>1173</v>
+        <v>1169</v>
       </c>
       <c r="E228" s="1" t="s">
         <v>525</v>
       </c>
       <c r="F228" s="1" t="s">
-        <v>1174</v>
+        <v>1170</v>
       </c>
       <c r="G228" s="1" t="s">
         <v>403</v>

--- a/2022_CnC_records.xlsx
+++ b/2022_CnC_records.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\powerof10-tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5486D378-F7AC-4A1F-AD1F-687B3027D877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C47EF84D-A9CC-4142-A348-E3B65F87AD6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{59E39808-5DD1-48A0-8CDE-64F5926DA7BC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{59E39808-5DD1-48A0-8CDE-64F5926DA7BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Overall" sheetId="1" r:id="rId1"/>
@@ -5282,7 +5282,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E116B990-5FBC-4F60-A519-6D8AF60704F6}">
   <dimension ref="A2:J101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -7337,8 +7337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D33EFF66-21E6-4C12-9015-9A2807500A5E}">
   <dimension ref="A2:K89"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="F83" sqref="F83"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="G75" sqref="G75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8994,7 +8994,7 @@
         <v>428</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>384</v>
+        <v>80</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>97</v>

--- a/2022_CnC_records.xlsx
+++ b/2022_CnC_records.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\powerof10-tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C47EF84D-A9CC-4142-A348-E3B65F87AD6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ADF402C-3B90-4C1E-A4C8-D49D4E45BF9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{59E39808-5DD1-48A0-8CDE-64F5926DA7BC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{59E39808-5DD1-48A0-8CDE-64F5926DA7BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Overall" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4527" uniqueCount="1185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4529" uniqueCount="1187">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -2937,9 +2937,6 @@
     <t xml:space="preserve">15:23.2 </t>
   </si>
   <si>
-    <t xml:space="preserve">4:39.5 </t>
-  </si>
-  <si>
     <t xml:space="preserve">21.2 </t>
   </si>
   <si>
@@ -3598,6 +3595,15 @@
   </si>
   <si>
     <t>James Richer</t>
+  </si>
+  <si>
+    <t>CW: this was a 10K road race not track 10000m</t>
+  </si>
+  <si>
+    <t>4:39.54</t>
+  </si>
+  <si>
+    <t>Added 0.04s to match powerof10 time</t>
   </si>
 </sst>
 </file>
@@ -4017,7 +4023,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>376</v>
@@ -4038,7 +4044,7 @@
         <v>95</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.2">
@@ -4046,7 +4052,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
@@ -4593,7 +4599,7 @@
         <v>38</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>97</v>
@@ -4680,7 +4686,7 @@
     </row>
     <row r="30" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B30" s="6" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>1</v>
@@ -5320,7 +5326,7 @@
         <v>95</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -7337,7 +7343,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D33EFF66-21E6-4C12-9015-9A2807500A5E}">
   <dimension ref="A2:K89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+    <sheetView topLeftCell="A65" workbookViewId="0">
       <selection activeCell="G75" sqref="G75"/>
     </sheetView>
   </sheetViews>
@@ -7371,7 +7377,7 @@
         <v>95</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -9017,7 +9023,7 @@
         <v>439</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>97</v>
@@ -9178,7 +9184,7 @@
         <v>306</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>252</v>
@@ -9342,7 +9348,7 @@
   <dimension ref="A1:J226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9375,7 +9381,7 @@
         <v>95</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -9829,7 +9835,7 @@
         <v>662</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>100</v>
@@ -9852,7 +9858,7 @@
         <v>663</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>99</v>
@@ -10071,7 +10077,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="33" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>3</v>
       </c>
@@ -10094,7 +10100,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="34" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>5</v>
       </c>
@@ -10117,7 +10123,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="35" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>7</v>
       </c>
@@ -10140,7 +10146,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="36" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C36" s="1" t="s">
         <v>9</v>
       </c>
@@ -10163,7 +10169,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="37" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C37" s="1" t="s">
         <v>11</v>
       </c>
@@ -10186,7 +10192,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="38" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>12</v>
       </c>
@@ -10209,7 +10215,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="39" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>619</v>
       </c>
@@ -10231,8 +10237,11 @@
       <c r="I39" s="1" t="s">
         <v>883</v>
       </c>
-    </row>
-    <row r="40" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="J39" s="1" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="40" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>14</v>
       </c>
@@ -10255,7 +10264,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="41" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>673</v>
       </c>
@@ -10269,7 +10278,7 @@
         <v>624</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>98</v>
@@ -10278,7 +10287,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="42" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>55</v>
       </c>
@@ -10301,7 +10310,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="43" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>57</v>
       </c>
@@ -10324,7 +10333,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="44" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>18</v>
       </c>
@@ -10347,7 +10356,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="45" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>60</v>
       </c>
@@ -10370,7 +10379,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="46" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>62</v>
       </c>
@@ -10393,7 +10402,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="47" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>64</v>
       </c>
@@ -10416,7 +10425,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="48" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>66</v>
       </c>
@@ -10913,7 +10922,7 @@
         <v>624</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>98</v>
@@ -11557,7 +11566,7 @@
         <v>743</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>98</v>
@@ -12094,7 +12103,7 @@
         <v>14</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>648</v>
@@ -12112,7 +12121,7 @@
         <v>886</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.2">
@@ -12424,7 +12433,7 @@
         <v>704</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.2">
@@ -14194,8 +14203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BA3259E-AFD6-4FCB-BD83-44E5FC56E958}">
   <dimension ref="A1:J229"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14229,7 +14238,7 @@
         <v>95</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -14456,7 +14465,7 @@
         <v>909</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>97</v>
@@ -14801,7 +14810,7 @@
         <v>38</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>97</v>
@@ -14884,7 +14893,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>1</v>
@@ -15051,7 +15060,7 @@
         <v>619</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>296</v>
@@ -15069,7 +15078,7 @@
         <v>883</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="39" spans="3:10" x14ac:dyDescent="0.2">
@@ -15077,7 +15086,7 @@
         <v>14</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>964</v>
+        <v>1185</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>296</v>
@@ -15093,6 +15102,9 @@
       </c>
       <c r="I39" s="1" t="s">
         <v>883</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>1186</v>
       </c>
     </row>
     <row r="40" spans="3:10" x14ac:dyDescent="0.2">
@@ -15100,7 +15112,7 @@
         <v>947</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>698</v>
@@ -15109,7 +15121,7 @@
         <v>948</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>97</v>
@@ -15123,7 +15135,7 @@
         <v>55</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>641</v>
@@ -15146,7 +15158,7 @@
         <v>18</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>296</v>
@@ -15169,7 +15181,7 @@
         <v>20</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>296</v>
@@ -15192,7 +15204,7 @@
         <v>60</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>483</v>
@@ -15215,7 +15227,7 @@
         <v>62</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>662</v>
@@ -15238,7 +15250,7 @@
         <v>64</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>698</v>
@@ -15261,7 +15273,7 @@
         <v>66</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>698</v>
@@ -15284,7 +15296,7 @@
         <v>911</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>669</v>
@@ -15307,7 +15319,7 @@
         <v>913</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>669</v>
@@ -15330,7 +15342,7 @@
         <v>950</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>527</v>
@@ -15353,7 +15365,7 @@
         <v>915</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>696</v>
@@ -15454,7 +15466,7 @@
         <v>0</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>97</v>
@@ -15491,7 +15503,7 @@
         <v>637</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>483</v>
@@ -15514,7 +15526,7 @@
         <v>639</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>483</v>
@@ -15534,19 +15546,19 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>375</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>385</v>
@@ -15563,13 +15575,13 @@
         <v>3</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>375</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>380</v>
@@ -15586,13 +15598,13 @@
         <v>5</v>
       </c>
       <c r="D62" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="E62" s="1" t="s">
         <v>992</v>
       </c>
-      <c r="E62" s="1" t="s">
-        <v>993</v>
-      </c>
       <c r="F62" s="1" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>381</v>
@@ -15609,13 +15621,13 @@
         <v>7</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>382</v>
@@ -15632,13 +15644,13 @@
         <v>9</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>527</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>383</v>
@@ -15655,13 +15667,13 @@
         <v>11</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>698</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>384</v>
@@ -15678,13 +15690,13 @@
         <v>12</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>698</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>596</v>
@@ -15701,13 +15713,13 @@
         <v>619</v>
       </c>
       <c r="D67" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="E67" s="1" t="s">
         <v>998</v>
       </c>
-      <c r="E67" s="1" t="s">
-        <v>999</v>
-      </c>
       <c r="F67" s="1" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>893</v>
@@ -15724,13 +15736,13 @@
         <v>14</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>669</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>80</v>
@@ -15747,7 +15759,7 @@
         <v>947</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>662</v>
@@ -15756,7 +15768,7 @@
         <v>948</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>97</v>
@@ -15770,7 +15782,7 @@
         <v>55</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>795</v>
@@ -15790,7 +15802,7 @@
     </row>
     <row r="71" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>0</v>
@@ -15816,7 +15828,7 @@
         <v>20</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>348</v>
@@ -15839,13 +15851,13 @@
         <v>60</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>420</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>85</v>
@@ -15862,13 +15874,13 @@
         <v>62</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>375</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>86</v>
@@ -15885,13 +15897,13 @@
         <v>64</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>420</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>87</v>
@@ -15908,7 +15920,7 @@
         <v>66</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>735</v>
@@ -15931,7 +15943,7 @@
         <v>911</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>648</v>
@@ -15954,13 +15966,13 @@
         <v>913</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>795</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>109</v>
@@ -15977,13 +15989,13 @@
         <v>950</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>795</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>102</v>
@@ -16000,7 +16012,7 @@
         <v>915</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>648</v>
@@ -16023,13 +16035,13 @@
         <v>631</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>666</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>896</v>
@@ -16069,13 +16081,13 @@
         <v>676</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>666</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>894</v>
@@ -16158,13 +16170,13 @@
         <v>639</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>648</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>105</v>
@@ -16178,19 +16190,19 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>669</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>385</v>
@@ -16207,13 +16219,13 @@
         <v>3</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>669</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>380</v>
@@ -16230,13 +16242,13 @@
         <v>5</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>669</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>381</v>
@@ -16253,13 +16265,13 @@
         <v>7</v>
       </c>
       <c r="D92" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E92" s="1" t="s">
         <v>1032</v>
       </c>
-      <c r="E92" s="1" t="s">
-        <v>1033</v>
-      </c>
       <c r="F92" s="1" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>382</v>
@@ -16276,13 +16288,13 @@
         <v>9</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>716</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="G93" s="1" t="s">
         <v>383</v>
@@ -16299,13 +16311,13 @@
         <v>11</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>716</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>384</v>
@@ -16322,13 +16334,13 @@
         <v>12</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>669</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>596</v>
@@ -16345,13 +16357,13 @@
         <v>14</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>669</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>80</v>
@@ -16365,10 +16377,10 @@
     </row>
     <row r="97" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>735</v>
@@ -16377,7 +16389,7 @@
         <v>948</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>97</v>
@@ -16391,7 +16403,7 @@
         <v>55</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>795</v>
@@ -16414,13 +16426,13 @@
         <v>60</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="E99" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="F99" s="1" t="s">
         <v>1017</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>1018</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>85</v>
@@ -16437,13 +16449,13 @@
         <v>62</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>669</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>86</v>
@@ -16460,13 +16472,13 @@
         <v>64</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>654</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>87</v>
@@ -16483,13 +16495,13 @@
         <v>66</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="E102" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="F102" s="1" t="s">
         <v>1019</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>1020</v>
       </c>
       <c r="G102" s="1" t="s">
         <v>88</v>
@@ -16503,16 +16515,16 @@
     </row>
     <row r="103" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C103" s="1" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>696</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="G103" s="1" t="s">
         <v>597</v>
@@ -16526,16 +16538,16 @@
     </row>
     <row r="104" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C104" s="1" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>523</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="G104" s="1" t="s">
         <v>612</v>
@@ -16549,16 +16561,16 @@
     </row>
     <row r="105" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C105" s="1" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>696</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="G105" s="1" t="s">
         <v>603</v>
@@ -16572,10 +16584,10 @@
     </row>
     <row r="106" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C106" s="1" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>523</v>
@@ -16598,13 +16610,13 @@
         <v>631</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>759</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="G107" s="1" t="s">
         <v>896</v>
@@ -16621,13 +16633,13 @@
         <v>633</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>729</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="G108" s="1" t="s">
         <v>895</v>
@@ -16644,13 +16656,13 @@
         <v>676</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>729</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="G109" s="1" t="s">
         <v>894</v>
@@ -16710,13 +16722,13 @@
         <v>637</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>483</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="G112" s="1" t="s">
         <v>104</v>
@@ -16733,13 +16745,13 @@
         <v>639</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>729</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="G113" s="1" t="s">
         <v>105</v>
@@ -16753,13 +16765,13 @@
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>696</v>
@@ -16782,7 +16794,7 @@
         <v>3</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>769</v>
@@ -16805,13 +16817,13 @@
         <v>5</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="G117" s="1" t="s">
         <v>381</v>
@@ -16828,13 +16840,13 @@
         <v>7</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="G118" s="1" t="s">
         <v>382</v>
@@ -16851,13 +16863,13 @@
         <v>9</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="G119" s="1" t="s">
         <v>383</v>
@@ -16874,13 +16886,13 @@
         <v>11</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>483</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="G120" s="1" t="s">
         <v>384</v>
@@ -16897,13 +16909,13 @@
         <v>12</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>523</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="G121" s="1" t="s">
         <v>596</v>
@@ -16920,13 +16932,13 @@
         <v>14</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>483</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="G122" s="1" t="s">
         <v>80</v>
@@ -16940,19 +16952,19 @@
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C123" s="1" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>348</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="H123" s="1" t="s">
         <v>97</v>
@@ -16969,13 +16981,13 @@
         <v>55</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>523</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="G124" s="1" t="s">
         <v>82</v>
@@ -16992,13 +17004,13 @@
         <v>60</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>523</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="G125" s="1" t="s">
         <v>85</v>
@@ -17015,13 +17027,13 @@
         <v>62</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>296</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G126" s="1" t="s">
         <v>86</v>
@@ -17038,13 +17050,13 @@
         <v>64</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>648</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G127" s="1" t="s">
         <v>87</v>
@@ -17061,7 +17073,7 @@
         <v>66</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>769</v>
@@ -17081,16 +17093,16 @@
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C129" s="1" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>296</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G129" s="1" t="s">
         <v>597</v>
@@ -17104,16 +17116,16 @@
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C130" s="1" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>323</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G130" s="1" t="s">
         <v>612</v>
@@ -17127,16 +17139,16 @@
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C131" s="1" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>737</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="G131" s="1" t="s">
         <v>603</v>
@@ -17150,7 +17162,7 @@
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C132" s="1" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>695</v>
@@ -17159,7 +17171,7 @@
         <v>325</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="G132" s="1" t="s">
         <v>610</v>
@@ -17173,19 +17185,19 @@
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C133" s="1" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>368</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="H133" s="1" t="s">
         <v>97</v>
@@ -17202,13 +17214,13 @@
         <v>631</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>648</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="G134" s="1" t="s">
         <v>896</v>
@@ -17225,13 +17237,13 @@
         <v>633</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>296</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="G135" s="1" t="s">
         <v>895</v>
@@ -17248,13 +17260,13 @@
         <v>676</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>296</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="G136" s="1" t="s">
         <v>894</v>
@@ -17268,19 +17280,19 @@
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C137" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D137" s="1" t="s">
         <v>1061</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>1062</v>
       </c>
       <c r="E137" s="1" t="s">
         <v>589</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="H137" s="1" t="s">
         <v>97</v>
@@ -17291,16 +17303,16 @@
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C138" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D138" s="1" t="s">
         <v>1063</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>1064</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>666</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="H138" s="1" t="s">
         <v>97</v>
@@ -17309,7 +17321,7 @@
         <v>886</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.2">
@@ -17360,7 +17372,7 @@
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>1</v>
@@ -17372,7 +17384,7 @@
         <v>523</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G142" s="1" t="s">
         <v>385</v>
@@ -17389,7 +17401,7 @@
         <v>3</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="E143" s="1" t="s">
         <v>737</v>
@@ -17412,13 +17424,13 @@
         <v>5</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>662</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="G144" s="1" t="s">
         <v>381</v>
@@ -17435,13 +17447,13 @@
         <v>7</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>662</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="G145" s="1" t="s">
         <v>382</v>
@@ -17458,13 +17470,13 @@
         <v>9</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="E146" s="1" t="s">
         <v>523</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="G146" s="1" t="s">
         <v>383</v>
@@ -17481,13 +17493,13 @@
         <v>11</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>523</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="G147" s="1" t="s">
         <v>384</v>
@@ -17504,13 +17516,13 @@
         <v>12</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="E148" s="1" t="s">
         <v>523</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="G148" s="1" t="s">
         <v>596</v>
@@ -17527,13 +17539,13 @@
         <v>619</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="E149" s="1" t="s">
         <v>523</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="G149" s="1" t="s">
         <v>893</v>
@@ -17550,13 +17562,13 @@
         <v>14</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="E150" s="1" t="s">
         <v>348</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="G150" s="1" t="s">
         <v>80</v>
@@ -17570,7 +17582,7 @@
     </row>
     <row r="151" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C151" s="1" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>0</v>
@@ -17601,13 +17613,13 @@
         <v>60</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G153" s="1" t="s">
         <v>85</v>
@@ -17624,13 +17636,13 @@
         <v>62</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="E154" s="1" t="s">
         <v>348</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G154" s="1" t="s">
         <v>86</v>
@@ -17647,13 +17659,13 @@
         <v>64</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="E155" s="1" t="s">
         <v>523</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G155" s="1" t="s">
         <v>87</v>
@@ -17670,7 +17682,7 @@
         <v>66</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="E156" s="1" t="s">
         <v>737</v>
@@ -17690,16 +17702,16 @@
     </row>
     <row r="157" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C157" s="1" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="E157" s="1" t="s">
         <v>348</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="G157" s="1" t="s">
         <v>611</v>
@@ -17716,13 +17728,13 @@
         <v>626</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="E158" s="1" t="s">
         <v>654</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="G158" s="1" t="s">
         <v>108</v>
@@ -17739,13 +17751,13 @@
         <v>711</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="E159" s="1" t="s">
         <v>654</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="G159" s="1" t="s">
         <v>99</v>
@@ -17759,19 +17771,19 @@
     </row>
     <row r="160" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C160" s="1" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="E160" s="1" t="s">
         <v>375</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="H160" s="1" t="s">
         <v>97</v>
@@ -17782,19 +17794,19 @@
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C161" s="1" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="E161" s="1" t="s">
         <v>375</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="G161" s="5" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="H161" s="1" t="s">
         <v>97</v>
@@ -17811,13 +17823,13 @@
         <v>631</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>666</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="G162" s="1" t="s">
         <v>896</v>
@@ -17857,13 +17869,13 @@
         <v>676</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="E164" s="1" t="s">
         <v>666</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="G164" s="1" t="s">
         <v>894</v>
@@ -17877,19 +17889,19 @@
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C165" s="1" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="E165" s="1" t="s">
         <v>375</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="H165" s="1" t="s">
         <v>97</v>
@@ -17900,16 +17912,16 @@
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C166" s="1" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="E166" s="1" t="s">
         <v>375</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="H166" s="1" t="s">
         <v>97</v>
@@ -17918,7 +17930,7 @@
         <v>887</v>
       </c>
       <c r="J166" s="1" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.2">
@@ -17969,13 +17981,13 @@
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="E170" s="1" t="s">
         <v>375</v>
@@ -17998,7 +18010,7 @@
         <v>3</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="E171" s="1" t="s">
         <v>375</v>
@@ -18021,7 +18033,7 @@
         <v>5</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="E172" s="1" t="s">
         <v>375</v>
@@ -18044,13 +18056,13 @@
         <v>7</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="E173" s="1" t="s">
         <v>483</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="G173" s="1" t="s">
         <v>382</v>
@@ -18067,13 +18079,13 @@
         <v>9</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="E174" s="1" t="s">
         <v>420</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="G174" s="1" t="s">
         <v>383</v>
@@ -18090,13 +18102,13 @@
         <v>11</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="E175" s="1" t="s">
         <v>483</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="G175" s="1" t="s">
         <v>384</v>
@@ -18150,7 +18162,7 @@
     </row>
     <row r="178" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C178" s="1" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>0</v>
@@ -18193,7 +18205,7 @@
         <v>60</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="E180" s="1" t="s">
         <v>375</v>
@@ -18216,7 +18228,7 @@
         <v>62</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="E181" s="1" t="s">
         <v>375</v>
@@ -18239,7 +18251,7 @@
         <v>64</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="E182" s="1" t="s">
         <v>669</v>
@@ -18262,7 +18274,7 @@
         <v>66</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="E183" s="1" t="s">
         <v>669</v>
@@ -18282,16 +18294,16 @@
     </row>
     <row r="184" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C184" s="1" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="E184" s="1" t="s">
         <v>323</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="G184" s="1" t="s">
         <v>611</v>
@@ -18308,13 +18320,13 @@
         <v>626</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="E185" s="1" t="s">
         <v>323</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="G185" s="1" t="s">
         <v>108</v>
@@ -18331,7 +18343,7 @@
         <v>711</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="E186" s="1" t="s">
         <v>420</v>
@@ -18351,19 +18363,19 @@
     </row>
     <row r="187" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C187" s="1" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="E187" s="1" t="s">
         <v>323</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="H187" s="1" t="s">
         <v>97</v>
@@ -18374,7 +18386,7 @@
     </row>
     <row r="188" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C188" s="1" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="D188" s="1" t="s">
         <v>0</v>
@@ -18397,13 +18409,13 @@
         <v>631</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="E189" s="1" t="s">
         <v>323</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="G189" s="1" t="s">
         <v>896</v>
@@ -18420,13 +18432,13 @@
         <v>633</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="E190" s="1" t="s">
         <v>323</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="G190" s="1" t="s">
         <v>895</v>
@@ -18443,13 +18455,13 @@
         <v>676</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="E191" s="1" t="s">
         <v>323</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="G191" s="1" t="s">
         <v>894</v>
@@ -18463,7 +18475,7 @@
     </row>
     <row r="192" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C192" s="1" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="D192" s="1" t="s">
         <v>0</v>
@@ -18483,7 +18495,7 @@
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C193" s="1" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>0</v>
@@ -18543,13 +18555,13 @@
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E197" s="1" t="s">
         <v>759</v>
@@ -18572,7 +18584,7 @@
         <v>3</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="E198" s="1" t="s">
         <v>648</v>
@@ -18595,7 +18607,7 @@
         <v>5</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E199" s="1" t="s">
         <v>759</v>
@@ -18618,13 +18630,13 @@
         <v>7</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E200" s="1" t="s">
         <v>737</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="G200" s="1" t="s">
         <v>382</v>
@@ -18641,13 +18653,13 @@
         <v>9</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E201" s="1" t="s">
         <v>826</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="G201" s="1" t="s">
         <v>383</v>
@@ -18687,13 +18699,13 @@
         <v>12</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="G203" s="1" t="s">
         <v>596</v>
@@ -18710,13 +18722,13 @@
         <v>14</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="E204" s="1" t="s">
         <v>648</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="G204" s="1" t="s">
         <v>80</v>
@@ -18779,7 +18791,7 @@
         <v>64</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="E207" s="1" t="s">
         <v>759</v>
@@ -18802,7 +18814,7 @@
         <v>66</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="E208" s="1" t="s">
         <v>759</v>
@@ -18845,13 +18857,13 @@
         <v>626</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="E210" s="1" t="s">
         <v>729</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="G210" s="1" t="s">
         <v>108</v>
@@ -18868,13 +18880,13 @@
         <v>747</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="E211" s="1" t="s">
         <v>296</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="G211" s="1" t="s">
         <v>401</v>
@@ -18891,13 +18903,13 @@
         <v>629</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="E212" s="1" t="s">
         <v>648</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="G212" s="1" t="s">
         <v>106</v>
@@ -18911,7 +18923,7 @@
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C213" s="1" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="D213" s="1" t="s">
         <v>0</v>
@@ -18954,13 +18966,13 @@
         <v>633</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="E215" s="1" t="s">
         <v>420</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="G215" s="1" t="s">
         <v>895</v>
@@ -18977,13 +18989,13 @@
         <v>676</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="E216" s="1" t="s">
         <v>483</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="G216" s="1" t="s">
         <v>894</v>
@@ -18997,7 +19009,7 @@
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="C218" s="1" t="s">
         <v>1</v>
@@ -19083,13 +19095,13 @@
         <v>9</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="E222" s="1" t="s">
         <v>666</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="G222" s="1" t="s">
         <v>383</v>
@@ -19206,13 +19218,13 @@
         <v>747</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="E228" s="1" t="s">
         <v>523</v>
       </c>
       <c r="F228" s="1" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="G228" s="1" t="s">
         <v>401</v>

--- a/2022_CnC_records.xlsx
+++ b/2022_CnC_records.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\powerof10-tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ADF402C-3B90-4C1E-A4C8-D49D4E45BF9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84666D5E-477B-4C5A-BE47-97B8E437291C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{59E39808-5DD1-48A0-8CDE-64F5926DA7BC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{59E39808-5DD1-48A0-8CDE-64F5926DA7BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Overall" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4529" uniqueCount="1187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4529" uniqueCount="1188">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -3604,6 +3604,9 @@
   </si>
   <si>
     <t>Added 0.04s to match powerof10 time</t>
+  </si>
+  <si>
+    <t>10K</t>
   </si>
 </sst>
 </file>
@@ -9347,8 +9350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CC38CDD-B783-4755-B4DD-3225A4BF53C5}">
   <dimension ref="A1:J226"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10229,7 +10232,7 @@
         <v>620</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>893</v>
+        <v>1187</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>98</v>
@@ -14203,7 +14206,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BA3259E-AFD6-4FCB-BD83-44E5FC56E958}">
   <dimension ref="A1:J229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>

--- a/2022_CnC_records.xlsx
+++ b/2022_CnC_records.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\powerof10-tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8130E656-8B5E-4775-ADA7-6852AF01789B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D47BD7-D7D7-4307-948B-F57C39EE5B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{59E39808-5DD1-48A0-8CDE-64F5926DA7BC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{59E39808-5DD1-48A0-8CDE-64F5926DA7BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Overall" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4578" uniqueCount="1218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4576" uniqueCount="1219">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -3697,6 +3697,9 @@
   </si>
   <si>
     <t>Po10: Eastern Masters (only) not C&amp;C</t>
+  </si>
+  <si>
+    <t>Skipping this because PenIM35 age-group specific, also listed there</t>
   </si>
 </sst>
 </file>
@@ -4101,20 +4104,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0672E4C-1F81-4344-8F80-ED5988EB27BD}">
   <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="B14" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="17.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="30.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="9" width="17.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="30.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>1153</v>
       </c>
@@ -4140,7 +4143,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -4172,7 +4175,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
@@ -4195,7 +4198,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>157</v>
       </c>
@@ -4224,7 +4227,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
@@ -4247,7 +4250,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
@@ -4270,7 +4273,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
@@ -4293,7 +4296,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C8" s="2" t="s">
         <v>12</v>
       </c>
@@ -4316,7 +4319,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C9" s="2" t="s">
         <v>13</v>
       </c>
@@ -4339,7 +4342,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C10" s="2" t="s">
         <v>14</v>
       </c>
@@ -4362,7 +4365,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C11" s="2" t="s">
         <v>15</v>
       </c>
@@ -4385,7 +4388,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C12" s="2" t="s">
         <v>15</v>
       </c>
@@ -4411,7 +4414,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C13" s="2" t="s">
         <v>16</v>
       </c>
@@ -4434,7 +4437,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="C14" s="2" t="s">
         <v>18</v>
       </c>
@@ -4457,7 +4460,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="C15" s="2" t="s">
         <v>20</v>
       </c>
@@ -4480,7 +4483,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C16" s="2" t="s">
         <v>22</v>
       </c>
@@ -4503,7 +4506,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C17" s="2" t="s">
         <v>24</v>
       </c>
@@ -4526,7 +4529,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C18" s="2" t="s">
         <v>26</v>
       </c>
@@ -4549,7 +4552,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C19" s="2" t="s">
         <v>28</v>
       </c>
@@ -4572,7 +4575,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C20" s="2" t="s">
         <v>30</v>
       </c>
@@ -4595,7 +4598,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C21" s="2" t="s">
         <v>32</v>
       </c>
@@ -4618,7 +4621,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C22" s="2" t="s">
         <v>34</v>
       </c>
@@ -4641,7 +4644,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C23" s="2" t="s">
         <v>35</v>
       </c>
@@ -4664,7 +4667,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C24" s="2" t="s">
         <v>36</v>
       </c>
@@ -4687,7 +4690,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C25" s="2" t="s">
         <v>37</v>
       </c>
@@ -4700,17 +4703,11 @@
       <c r="F25" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>1140</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="J25" s="1" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C26" s="2" t="s">
         <v>39</v>
       </c>
@@ -4733,7 +4730,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="30" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="C27" s="2" t="s">
         <v>41</v>
       </c>
@@ -4756,7 +4753,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="2:9" ht="30" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="C28" s="2" t="s">
         <v>44</v>
       </c>
@@ -4779,14 +4776,14 @@
         <v>96</v>
       </c>
     </row>
-    <row r="29" spans="2:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="2:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
         <v>1155</v>
       </c>
@@ -4812,7 +4809,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="31" spans="2:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C31" s="2" t="s">
         <v>3</v>
       </c>
@@ -4835,7 +4832,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="2:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C32" s="2" t="s">
         <v>5</v>
       </c>
@@ -4858,7 +4855,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>0</v>
       </c>
@@ -4884,7 +4881,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
@@ -4907,7 +4904,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C35" s="2" t="s">
         <v>11</v>
       </c>
@@ -4930,7 +4927,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C36" s="2" t="s">
         <v>12</v>
       </c>
@@ -4953,7 +4950,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C37" s="2" t="s">
         <v>13</v>
       </c>
@@ -4976,7 +4973,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C38" s="2" t="s">
         <v>14</v>
       </c>
@@ -4999,7 +4996,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C39" s="2" t="s">
         <v>52</v>
       </c>
@@ -5022,7 +5019,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C40" s="2" t="s">
         <v>55</v>
       </c>
@@ -5045,7 +5042,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="C41" s="2" t="s">
         <v>57</v>
       </c>
@@ -5068,7 +5065,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="C42" s="2" t="s">
         <v>18</v>
       </c>
@@ -5091,7 +5088,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C43" s="2" t="s">
         <v>60</v>
       </c>
@@ -5114,7 +5111,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C44" s="2" t="s">
         <v>62</v>
       </c>
@@ -5137,7 +5134,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="C45" s="2" t="s">
         <v>64</v>
       </c>
@@ -5160,7 +5157,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C46" s="2" t="s">
         <v>66</v>
       </c>
@@ -5183,7 +5180,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C47" s="2" t="s">
         <v>30</v>
       </c>
@@ -5206,7 +5203,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C48" s="2" t="s">
         <v>32</v>
       </c>
@@ -5229,7 +5226,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C49" s="2" t="s">
         <v>70</v>
       </c>
@@ -5252,7 +5249,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C50" s="2" t="s">
         <v>71</v>
       </c>
@@ -5275,7 +5272,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C51" s="2" t="s">
         <v>74</v>
       </c>
@@ -5298,7 +5295,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C52" s="2" t="s">
         <v>37</v>
       </c>
@@ -5321,7 +5318,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
       <c r="C53" s="2" t="s">
         <v>41</v>
       </c>
@@ -5344,7 +5341,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" ht="57.6" x14ac:dyDescent="0.25">
       <c r="C54" s="2" t="s">
         <v>44</v>
       </c>
@@ -5367,7 +5364,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C55" s="2"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
@@ -5376,7 +5373,7 @@
       <c r="I55" s="2"/>
       <c r="J55" s="8"/>
     </row>
-    <row r="60" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>0</v>
       </c>
@@ -5394,21 +5391,21 @@
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="1"/>
+    <col min="3" max="3" width="19.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="9" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C2" s="4" t="s">
         <v>372</v>
       </c>
@@ -5431,7 +5428,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>386</v>
       </c>
@@ -5457,7 +5454,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>161</v>
       </c>
@@ -5480,7 +5477,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
         <v>163</v>
       </c>
@@ -5503,7 +5500,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
         <v>164</v>
       </c>
@@ -5526,7 +5523,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
         <v>166</v>
       </c>
@@ -5549,7 +5546,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
         <v>166</v>
       </c>
@@ -5572,7 +5569,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C9" s="1" t="s">
         <v>167</v>
       </c>
@@ -5595,7 +5592,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
         <v>169</v>
       </c>
@@ -5606,7 +5603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C11" s="1" t="s">
         <v>170</v>
       </c>
@@ -5629,7 +5626,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C12" s="1" t="s">
         <v>172</v>
       </c>
@@ -5652,7 +5649,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C13" s="1" t="s">
         <v>174</v>
       </c>
@@ -5678,7 +5675,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
         <v>176</v>
       </c>
@@ -5701,7 +5698,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C15" s="1" t="s">
         <v>177</v>
       </c>
@@ -5724,7 +5721,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C16" s="1" t="s">
         <v>179</v>
       </c>
@@ -5747,7 +5744,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C17" s="1" t="s">
         <v>181</v>
       </c>
@@ -5770,7 +5767,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C18" s="1" t="s">
         <v>183</v>
       </c>
@@ -5793,7 +5790,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C19" s="1" t="s">
         <v>185</v>
       </c>
@@ -5816,7 +5813,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C20" s="1" t="s">
         <v>187</v>
       </c>
@@ -5839,7 +5836,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C21" s="1" t="s">
         <v>189</v>
       </c>
@@ -5862,7 +5859,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C22" s="1" t="s">
         <v>190</v>
       </c>
@@ -5888,7 +5885,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C23" s="1" t="s">
         <v>193</v>
       </c>
@@ -5911,7 +5908,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C24" s="1" t="s">
         <v>195</v>
       </c>
@@ -5937,7 +5934,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C25" s="1" t="s">
         <v>198</v>
       </c>
@@ -5960,7 +5957,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C26" s="1" t="s">
         <v>200</v>
       </c>
@@ -5983,17 +5980,17 @@
         <v>382</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C28" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C29" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C30" s="1" t="s">
         <v>1</v>
       </c>
@@ -6019,7 +6016,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>294</v>
       </c>
@@ -6045,7 +6042,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C32" s="1" t="s">
         <v>203</v>
       </c>
@@ -6068,7 +6065,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="33" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C33" s="1" t="s">
         <v>164</v>
       </c>
@@ -6091,7 +6088,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="34" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C34" s="1" t="s">
         <v>166</v>
       </c>
@@ -6114,7 +6111,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="35" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C35" s="1" t="s">
         <v>167</v>
       </c>
@@ -6137,7 +6134,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="36" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C36" s="1" t="s">
         <v>169</v>
       </c>
@@ -6160,7 +6157,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="37" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C37" s="1" t="s">
         <v>206</v>
       </c>
@@ -6183,7 +6180,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="38" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C38" s="1" t="s">
         <v>385</v>
       </c>
@@ -6206,7 +6203,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="39" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C39" s="1" t="s">
         <v>207</v>
       </c>
@@ -6229,7 +6226,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="40" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C40" s="1" t="s">
         <v>177</v>
       </c>
@@ -6252,7 +6249,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="41" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C41" s="1" t="s">
         <v>179</v>
       </c>
@@ -6275,7 +6272,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="42" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C42" s="1" t="s">
         <v>181</v>
       </c>
@@ -6292,7 +6289,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="43" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C43" s="1" t="s">
         <v>183</v>
       </c>
@@ -6315,7 +6312,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="44" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C44" s="1" t="s">
         <v>211</v>
       </c>
@@ -6338,7 +6335,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="45" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C45" s="1" t="s">
         <v>212</v>
       </c>
@@ -6361,7 +6358,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="46" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C46" s="1" t="s">
         <v>213</v>
       </c>
@@ -6384,7 +6381,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="47" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C47" s="1" t="s">
         <v>215</v>
       </c>
@@ -6407,7 +6404,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="48" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C48" s="1" t="s">
         <v>193</v>
       </c>
@@ -6430,7 +6427,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C49" s="1" t="s">
         <v>195</v>
       </c>
@@ -6453,7 +6450,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C50" s="1" t="s">
         <v>219</v>
       </c>
@@ -6476,7 +6473,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C51" s="1" t="s">
         <v>221</v>
       </c>
@@ -6499,12 +6496,12 @@
         <v>384</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C54" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>322</v>
       </c>
@@ -6530,7 +6527,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C57" s="1" t="s">
         <v>223</v>
       </c>
@@ -6553,7 +6550,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C58" s="1" t="s">
         <v>224</v>
       </c>
@@ -6576,7 +6573,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C59" s="1" t="s">
         <v>226</v>
       </c>
@@ -6599,7 +6596,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C60" s="1" t="s">
         <v>166</v>
       </c>
@@ -6622,7 +6619,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C61" s="1" t="s">
         <v>167</v>
       </c>
@@ -6645,7 +6642,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C62" s="1" t="s">
         <v>169</v>
       </c>
@@ -6668,7 +6665,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C63" s="1" t="s">
         <v>228</v>
       </c>
@@ -6691,7 +6688,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C64" s="1" t="s">
         <v>177</v>
       </c>
@@ -6714,7 +6711,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C65" s="1" t="s">
         <v>179</v>
       </c>
@@ -6737,7 +6734,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C66" s="1" t="s">
         <v>181</v>
       </c>
@@ -6760,7 +6757,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C67" s="1" t="s">
         <v>183</v>
       </c>
@@ -6783,7 +6780,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C68" s="1" t="s">
         <v>232</v>
       </c>
@@ -6809,7 +6806,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C69" s="1" t="s">
         <v>213</v>
       </c>
@@ -6835,7 +6832,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C70" s="1" t="s">
         <v>233</v>
       </c>
@@ -6861,7 +6858,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C71" s="1" t="s">
         <v>193</v>
       </c>
@@ -6887,7 +6884,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C72" s="1" t="s">
         <v>195</v>
       </c>
@@ -6913,7 +6910,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C73" s="1" t="s">
         <v>234</v>
       </c>
@@ -6936,17 +6933,17 @@
         <v>383</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C75" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C76" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C77" s="1" t="s">
         <v>1</v>
       </c>
@@ -6969,7 +6966,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C78" s="1" t="s">
         <v>161</v>
       </c>
@@ -6992,7 +6989,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>345</v>
       </c>
@@ -7018,7 +7015,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C80" s="1" t="s">
         <v>166</v>
       </c>
@@ -7041,7 +7038,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="81" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C81" s="1" t="s">
         <v>167</v>
       </c>
@@ -7064,7 +7061,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="82" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C82" s="1" t="s">
         <v>169</v>
       </c>
@@ -7087,7 +7084,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="83" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C83" s="1" t="s">
         <v>241</v>
       </c>
@@ -7110,7 +7107,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="84" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C84" s="1" t="s">
         <v>177</v>
       </c>
@@ -7133,7 +7130,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="85" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C85" s="1" t="s">
         <v>179</v>
       </c>
@@ -7156,7 +7153,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="86" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C86" s="1" t="s">
         <v>244</v>
       </c>
@@ -7179,7 +7176,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="87" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C87" s="1" t="s">
         <v>246</v>
       </c>
@@ -7202,7 +7199,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="88" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C88" s="1" t="s">
         <v>247</v>
       </c>
@@ -7225,7 +7222,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="89" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C89" s="1" t="s">
         <v>195</v>
       </c>
@@ -7248,7 +7245,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="90" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C90" s="1" t="s">
         <v>250</v>
       </c>
@@ -7271,7 +7268,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="91" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C91" s="1" t="s">
         <v>250</v>
       </c>
@@ -7294,7 +7291,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="92" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C92" s="1" t="s">
         <v>198</v>
       </c>
@@ -7317,12 +7314,12 @@
         <v>402</v>
       </c>
     </row>
-    <row r="94" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C94" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C95" s="1" t="s">
         <v>261</v>
       </c>
@@ -7345,7 +7342,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="96" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C96" s="1" t="s">
         <v>254</v>
       </c>
@@ -7368,7 +7365,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C97" s="1" t="s">
         <v>179</v>
       </c>
@@ -7391,7 +7388,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>365</v>
       </c>
@@ -7417,7 +7414,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C99" s="1" t="s">
         <v>259</v>
       </c>
@@ -7440,7 +7437,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C101" s="1" t="s">
         <v>0</v>
       </c>
@@ -7458,17 +7455,17 @@
       <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="19.140625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="33.7109375" style="1" customWidth="1"/>
+    <col min="1" max="2" width="9.109375" style="1"/>
+    <col min="3" max="3" width="19.109375" style="1" customWidth="1"/>
+    <col min="4" max="5" width="9.109375" style="1"/>
+    <col min="6" max="6" width="33.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="13" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="8" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C2" s="4" t="s">
         <v>372</v>
       </c>
@@ -7491,7 +7488,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>476</v>
       </c>
@@ -7517,7 +7514,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>161</v>
       </c>
@@ -7540,7 +7537,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
         <v>163</v>
       </c>
@@ -7563,7 +7560,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
         <v>164</v>
       </c>
@@ -7586,7 +7583,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
         <v>166</v>
       </c>
@@ -7609,7 +7606,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
         <v>167</v>
       </c>
@@ -7632,7 +7629,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C9" s="1" t="s">
         <v>427</v>
       </c>
@@ -7655,7 +7652,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
         <v>169</v>
       </c>
@@ -7678,7 +7675,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C11" s="1" t="s">
         <v>431</v>
       </c>
@@ -7704,7 +7701,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C12" s="1" t="s">
         <v>172</v>
       </c>
@@ -7727,7 +7724,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C13" s="1" t="s">
         <v>176</v>
       </c>
@@ -7750,7 +7747,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
         <v>177</v>
       </c>
@@ -7773,7 +7770,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C15" s="1" t="s">
         <v>179</v>
       </c>
@@ -7796,7 +7793,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C16" s="1" t="s">
         <v>181</v>
       </c>
@@ -7819,7 +7816,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C17" s="1" t="s">
         <v>183</v>
       </c>
@@ -7842,7 +7839,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C18" s="1" t="s">
         <v>450</v>
       </c>
@@ -7865,7 +7862,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C19" s="1" t="s">
         <v>453</v>
       </c>
@@ -7888,7 +7885,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C20" s="1" t="s">
         <v>456</v>
       </c>
@@ -7911,7 +7908,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C21" s="1" t="s">
         <v>459</v>
       </c>
@@ -7937,7 +7934,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C22" s="1" t="s">
         <v>460</v>
       </c>
@@ -7960,7 +7957,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C23" s="1" t="s">
         <v>464</v>
       </c>
@@ -7983,7 +7980,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C24" s="1" t="s">
         <v>195</v>
       </c>
@@ -8006,7 +8003,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C25" s="1" t="s">
         <v>469</v>
       </c>
@@ -8029,7 +8026,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C26" s="1" t="s">
         <v>198</v>
       </c>
@@ -8052,7 +8049,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C27" s="1" t="s">
         <v>200</v>
       </c>
@@ -8075,7 +8072,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>477</v>
       </c>
@@ -8104,7 +8101,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C30" s="1" t="s">
         <v>161</v>
       </c>
@@ -8127,7 +8124,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C31" s="1" t="s">
         <v>163</v>
       </c>
@@ -8150,7 +8147,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C32" s="1" t="s">
         <v>164</v>
       </c>
@@ -8173,7 +8170,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="33" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C33" s="1" t="s">
         <v>166</v>
       </c>
@@ -8199,7 +8196,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="34" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C34" s="1" t="s">
         <v>167</v>
       </c>
@@ -8222,7 +8219,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="35" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C35" s="1" t="s">
         <v>14</v>
       </c>
@@ -8245,7 +8242,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="36" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C36" s="1" t="s">
         <v>170</v>
       </c>
@@ -8268,7 +8265,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="37" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C37" s="1" t="s">
         <v>172</v>
       </c>
@@ -8291,7 +8288,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="38" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C38" s="1" t="s">
         <v>207</v>
       </c>
@@ -8314,7 +8311,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="39" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C39" s="1" t="s">
         <v>177</v>
       </c>
@@ -8337,7 +8334,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="40" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C40" s="1" t="s">
         <v>179</v>
       </c>
@@ -8360,7 +8357,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="41" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C41" s="1" t="s">
         <v>181</v>
       </c>
@@ -8383,7 +8380,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="42" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C42" s="1" t="s">
         <v>183</v>
       </c>
@@ -8406,7 +8403,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="43" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C43" s="1" t="s">
         <v>232</v>
       </c>
@@ -8432,7 +8429,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="44" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C44" s="1" t="s">
         <v>213</v>
       </c>
@@ -8458,7 +8455,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="45" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C45" s="1" t="s">
         <v>488</v>
       </c>
@@ -8481,7 +8478,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="46" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C46" s="1" t="s">
         <v>193</v>
       </c>
@@ -8507,7 +8504,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="47" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C47" s="1" t="s">
         <v>195</v>
       </c>
@@ -8530,7 +8527,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="48" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C48" s="1" t="s">
         <v>491</v>
       </c>
@@ -8556,7 +8553,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C49" s="1" t="s">
         <v>221</v>
       </c>
@@ -8582,7 +8579,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>519</v>
       </c>
@@ -8608,7 +8605,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C52" s="1" t="s">
         <v>3</v>
       </c>
@@ -8631,7 +8628,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C53" s="1" t="s">
         <v>523</v>
       </c>
@@ -8654,7 +8651,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C54" s="1" t="s">
         <v>7</v>
       </c>
@@ -8677,7 +8674,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C55" s="1" t="s">
         <v>166</v>
       </c>
@@ -8700,7 +8697,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C56" s="1" t="s">
         <v>167</v>
       </c>
@@ -8723,7 +8720,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C57" s="1" t="s">
         <v>169</v>
       </c>
@@ -8746,7 +8743,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C58" s="1" t="s">
         <v>528</v>
       </c>
@@ -8769,7 +8766,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C59" s="1" t="s">
         <v>177</v>
       </c>
@@ -8792,7 +8789,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C60" s="1" t="s">
         <v>179</v>
       </c>
@@ -8815,7 +8812,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C61" s="1" t="s">
         <v>181</v>
       </c>
@@ -8838,7 +8835,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C62" s="1" t="s">
         <v>183</v>
       </c>
@@ -8861,7 +8858,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C63" s="1" t="s">
         <v>232</v>
       </c>
@@ -8887,7 +8884,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C64" s="1" t="s">
         <v>213</v>
       </c>
@@ -8913,7 +8910,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C65" s="1" t="s">
         <v>233</v>
       </c>
@@ -8939,7 +8936,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C66" s="1" t="s">
         <v>193</v>
       </c>
@@ -8965,7 +8962,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C67" s="1" t="s">
         <v>195</v>
       </c>
@@ -8988,7 +8985,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C68" s="1" t="s">
         <v>234</v>
       </c>
@@ -9011,7 +9008,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>553</v>
       </c>
@@ -9037,7 +9034,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C71" s="1" t="s">
         <v>161</v>
       </c>
@@ -9060,7 +9057,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C72" s="1" t="s">
         <v>164</v>
       </c>
@@ -9086,7 +9083,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C73" s="1" t="s">
         <v>166</v>
       </c>
@@ -9109,7 +9106,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C74" s="1" t="s">
         <v>169</v>
       </c>
@@ -9132,7 +9129,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C75" s="1" t="s">
         <v>559</v>
       </c>
@@ -9155,7 +9152,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C76" s="1" t="s">
         <v>177</v>
       </c>
@@ -9178,7 +9175,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C77" s="1" t="s">
         <v>179</v>
       </c>
@@ -9201,7 +9198,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C78" s="1" t="s">
         <v>562</v>
       </c>
@@ -9224,7 +9221,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C79" s="1" t="s">
         <v>213</v>
       </c>
@@ -9250,7 +9247,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C80" s="1" t="s">
         <v>564</v>
       </c>
@@ -9273,7 +9270,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C81" s="1" t="s">
         <v>250</v>
       </c>
@@ -9296,7 +9293,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C82" s="1" t="s">
         <v>250</v>
       </c>
@@ -9319,7 +9316,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C83" s="1" t="s">
         <v>198</v>
       </c>
@@ -9342,7 +9339,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>580</v>
       </c>
@@ -9368,7 +9365,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C86" s="1" t="s">
         <v>254</v>
       </c>
@@ -9391,7 +9388,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C87" s="1" t="s">
         <v>164</v>
       </c>
@@ -9414,7 +9411,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C88" s="1" t="s">
         <v>166</v>
       </c>
@@ -9437,7 +9434,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C89" s="1" t="s">
         <v>179</v>
       </c>
@@ -9474,17 +9471,17 @@
       <selection activeCell="F190" sqref="F190"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="21.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="36.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.109375" style="1"/>
+    <col min="3" max="3" width="21.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.109375" style="1"/>
+    <col min="6" max="6" width="36.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="8" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C1" s="4" t="s">
         <v>372</v>
       </c>
@@ -9507,7 +9504,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>664</v>
       </c>
@@ -9533,7 +9530,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
@@ -9556,7 +9553,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
@@ -9579,7 +9576,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
@@ -9602,7 +9599,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
@@ -9625,7 +9622,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
         <v>11</v>
       </c>
@@ -9648,7 +9645,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
         <v>12</v>
       </c>
@@ -9671,7 +9668,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C9" s="1" t="s">
         <v>613</v>
       </c>
@@ -9694,7 +9691,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
@@ -9717,7 +9714,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C11" s="1" t="s">
         <v>615</v>
       </c>
@@ -9740,7 +9737,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C12" s="1" t="s">
         <v>55</v>
       </c>
@@ -9763,7 +9760,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C13" s="1" t="s">
         <v>57</v>
       </c>
@@ -9786,7 +9783,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
         <v>18</v>
       </c>
@@ -9809,7 +9806,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C15" s="1" t="s">
         <v>60</v>
       </c>
@@ -9832,7 +9829,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C16" s="1" t="s">
         <v>62</v>
       </c>
@@ -9855,7 +9852,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C17" s="1" t="s">
         <v>64</v>
       </c>
@@ -9878,7 +9875,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C18" s="1" t="s">
         <v>66</v>
       </c>
@@ -9901,7 +9898,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C19" s="1" t="s">
         <v>619</v>
       </c>
@@ -9924,7 +9921,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C20" s="1" t="s">
         <v>620</v>
       </c>
@@ -9947,7 +9944,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C21" s="1" t="s">
         <v>621</v>
       </c>
@@ -9970,7 +9967,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C22" s="1" t="s">
         <v>622</v>
       </c>
@@ -9993,7 +9990,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C23" s="1" t="s">
         <v>623</v>
       </c>
@@ -10016,7 +10013,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C24" s="1" t="s">
         <v>625</v>
       </c>
@@ -10039,7 +10036,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C25" s="1" t="s">
         <v>627</v>
       </c>
@@ -10062,7 +10059,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C26" s="1" t="s">
         <v>628</v>
       </c>
@@ -10085,7 +10082,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C27" s="1" t="s">
         <v>37</v>
       </c>
@@ -10105,7 +10102,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C28" s="1" t="s">
         <v>630</v>
       </c>
@@ -10128,7 +10125,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C29" s="1" t="s">
         <v>631</v>
       </c>
@@ -10151,7 +10148,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C30" s="1" t="s">
         <v>633</v>
       </c>
@@ -10174,7 +10171,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>693</v>
       </c>
@@ -10203,7 +10200,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="33" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C33" s="1" t="s">
         <v>3</v>
       </c>
@@ -10226,7 +10223,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="34" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C34" s="1" t="s">
         <v>5</v>
       </c>
@@ -10249,7 +10246,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="35" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C35" s="1" t="s">
         <v>7</v>
       </c>
@@ -10272,7 +10269,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="36" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C36" s="1" t="s">
         <v>9</v>
       </c>
@@ -10295,7 +10292,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="37" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C37" s="1" t="s">
         <v>11</v>
       </c>
@@ -10321,7 +10318,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="38" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C38" s="1" t="s">
         <v>12</v>
       </c>
@@ -10344,7 +10341,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="39" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C39" s="1" t="s">
         <v>613</v>
       </c>
@@ -10370,7 +10367,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="40" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C40" s="1" t="s">
         <v>14</v>
       </c>
@@ -10396,7 +10393,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="41" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C41" s="1" t="s">
         <v>667</v>
       </c>
@@ -10419,7 +10416,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="42" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C42" s="1" t="s">
         <v>55</v>
       </c>
@@ -10442,7 +10439,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="43" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C43" s="1" t="s">
         <v>57</v>
       </c>
@@ -10465,7 +10462,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="44" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C44" s="1" t="s">
         <v>18</v>
       </c>
@@ -10488,7 +10485,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="45" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C45" s="1" t="s">
         <v>60</v>
       </c>
@@ -10511,7 +10508,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="46" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C46" s="1" t="s">
         <v>62</v>
       </c>
@@ -10534,7 +10531,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="47" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C47" s="1" t="s">
         <v>64</v>
       </c>
@@ -10557,7 +10554,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="48" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C48" s="1" t="s">
         <v>66</v>
       </c>
@@ -10580,7 +10577,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C49" s="1" t="s">
         <v>619</v>
       </c>
@@ -10603,7 +10600,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C50" s="1" t="s">
         <v>620</v>
       </c>
@@ -10626,7 +10623,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C51" s="1" t="s">
         <v>669</v>
       </c>
@@ -10649,7 +10646,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C52" s="1" t="s">
         <v>623</v>
       </c>
@@ -10672,7 +10669,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C53" s="1" t="s">
         <v>625</v>
       </c>
@@ -10695,7 +10692,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C54" s="1" t="s">
         <v>627</v>
       </c>
@@ -10718,7 +10715,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C55" s="1" t="s">
         <v>670</v>
       </c>
@@ -10741,7 +10738,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C56" s="1" t="s">
         <v>630</v>
       </c>
@@ -10764,7 +10761,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C57" s="1" t="s">
         <v>39</v>
       </c>
@@ -10784,7 +10781,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C58" s="1" t="s">
         <v>631</v>
       </c>
@@ -10807,7 +10804,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C59" s="1" t="s">
         <v>633</v>
       </c>
@@ -10830,7 +10827,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>731</v>
       </c>
@@ -10856,7 +10853,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C62" s="1" t="s">
         <v>3</v>
       </c>
@@ -10879,7 +10876,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C63" s="1" t="s">
         <v>5</v>
       </c>
@@ -10902,7 +10899,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C64" s="1" t="s">
         <v>7</v>
       </c>
@@ -10928,7 +10925,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="65" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C65" s="1" t="s">
         <v>9</v>
       </c>
@@ -10951,7 +10948,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="66" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C66" s="1" t="s">
         <v>11</v>
       </c>
@@ -10974,7 +10971,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="67" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C67" s="1" t="s">
         <v>12</v>
       </c>
@@ -11000,7 +10997,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="68" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C68" s="1" t="s">
         <v>613</v>
       </c>
@@ -11023,7 +11020,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="69" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C69" s="1" t="s">
         <v>14</v>
       </c>
@@ -11046,7 +11043,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="70" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C70" s="1" t="s">
         <v>667</v>
       </c>
@@ -11069,7 +11066,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="71" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C71" s="1" t="s">
         <v>55</v>
       </c>
@@ -11092,7 +11089,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="72" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C72" s="1" t="s">
         <v>57</v>
       </c>
@@ -11115,7 +11112,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="73" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C73" s="1" t="s">
         <v>18</v>
       </c>
@@ -11138,7 +11135,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="74" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C74" s="1" t="s">
         <v>60</v>
       </c>
@@ -11161,7 +11158,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="75" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C75" s="1" t="s">
         <v>62</v>
       </c>
@@ -11184,7 +11181,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="76" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C76" s="1" t="s">
         <v>64</v>
       </c>
@@ -11207,7 +11204,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="77" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C77" s="1" t="s">
         <v>66</v>
       </c>
@@ -11230,7 +11227,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="78" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C78" s="1" t="s">
         <v>619</v>
       </c>
@@ -11253,7 +11250,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="79" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C79" s="1" t="s">
         <v>620</v>
       </c>
@@ -11276,7 +11273,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="80" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C80" s="1" t="s">
         <v>702</v>
       </c>
@@ -11299,7 +11296,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C81" s="1" t="s">
         <v>623</v>
       </c>
@@ -11322,7 +11319,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C82" s="1" t="s">
         <v>625</v>
       </c>
@@ -11345,7 +11342,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C83" s="1" t="s">
         <v>627</v>
       </c>
@@ -11368,7 +11365,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C84" s="1" t="s">
         <v>670</v>
       </c>
@@ -11391,7 +11388,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C85" s="1" t="s">
         <v>37</v>
       </c>
@@ -11411,7 +11408,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C86" s="1" t="s">
         <v>630</v>
       </c>
@@ -11434,7 +11431,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C87" s="1" t="s">
         <v>631</v>
       </c>
@@ -11457,7 +11454,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C88" s="1" t="s">
         <v>633</v>
       </c>
@@ -11480,7 +11477,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>767</v>
       </c>
@@ -11506,7 +11503,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C91" s="1" t="s">
         <v>3</v>
       </c>
@@ -11529,7 +11526,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C92" s="1" t="s">
         <v>5</v>
       </c>
@@ -11552,7 +11549,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C93" s="1" t="s">
         <v>7</v>
       </c>
@@ -11575,7 +11572,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C94" s="1" t="s">
         <v>9</v>
       </c>
@@ -11598,7 +11595,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C95" s="1" t="s">
         <v>11</v>
       </c>
@@ -11621,7 +11618,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C96" s="1" t="s">
         <v>12</v>
       </c>
@@ -11644,7 +11641,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="97" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C97" s="1" t="s">
         <v>13</v>
       </c>
@@ -11667,7 +11664,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="98" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C98" s="1" t="s">
         <v>14</v>
       </c>
@@ -11690,7 +11687,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="99" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="99" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C99" s="1" t="s">
         <v>667</v>
       </c>
@@ -11713,7 +11710,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="100" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C100" s="1" t="s">
         <v>734</v>
       </c>
@@ -11739,7 +11736,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="101" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C101" s="1" t="s">
         <v>57</v>
       </c>
@@ -11765,7 +11762,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="102" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C102" s="1" t="s">
         <v>18</v>
       </c>
@@ -11791,7 +11788,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="103" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="103" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C103" s="1" t="s">
         <v>60</v>
       </c>
@@ -11817,7 +11814,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="104" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="104" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C104" s="1" t="s">
         <v>62</v>
       </c>
@@ -11840,7 +11837,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="105" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="105" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C105" s="1" t="s">
         <v>64</v>
       </c>
@@ -11863,7 +11860,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="106" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="106" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C106" s="1" t="s">
         <v>66</v>
       </c>
@@ -11886,7 +11883,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="107" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="107" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C107" s="1" t="s">
         <v>735</v>
       </c>
@@ -11909,7 +11906,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="108" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="108" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C108" s="1" t="s">
         <v>620</v>
       </c>
@@ -11932,7 +11929,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="109" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="109" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C109" s="1" t="s">
         <v>736</v>
       </c>
@@ -11955,7 +11952,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="110" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="110" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C110" s="1" t="s">
         <v>737</v>
       </c>
@@ -11978,7 +11975,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="111" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="111" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C111" s="1" t="s">
         <v>625</v>
       </c>
@@ -12001,7 +11998,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="112" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="112" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C112" s="1" t="s">
         <v>627</v>
       </c>
@@ -12024,7 +12021,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C113" s="1" t="s">
         <v>670</v>
       </c>
@@ -12047,7 +12044,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C114" s="1" t="s">
         <v>631</v>
       </c>
@@ -12070,7 +12067,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C115" s="1" t="s">
         <v>633</v>
       </c>
@@ -12093,7 +12090,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>788</v>
       </c>
@@ -12119,7 +12116,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C118" s="1" t="s">
         <v>3</v>
       </c>
@@ -12142,7 +12139,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C119" s="1" t="s">
         <v>5</v>
       </c>
@@ -12165,7 +12162,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C120" s="1" t="s">
         <v>7</v>
       </c>
@@ -12191,7 +12188,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C121" s="1" t="s">
         <v>9</v>
       </c>
@@ -12217,7 +12214,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C122" s="1" t="s">
         <v>11</v>
       </c>
@@ -12240,7 +12237,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C123" s="1" t="s">
         <v>12</v>
       </c>
@@ -12254,7 +12251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C124" s="1" t="s">
         <v>14</v>
       </c>
@@ -12280,7 +12277,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C125" s="1" t="s">
         <v>771</v>
       </c>
@@ -12294,7 +12291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C126" s="1" t="s">
         <v>734</v>
       </c>
@@ -12308,7 +12305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C127" s="1" t="s">
         <v>57</v>
       </c>
@@ -12331,7 +12328,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C128" s="1" t="s">
         <v>18</v>
       </c>
@@ -12354,7 +12351,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C129" s="1" t="s">
         <v>60</v>
       </c>
@@ -12377,7 +12374,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C130" s="1" t="s">
         <v>62</v>
       </c>
@@ -12400,7 +12397,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C131" s="1" t="s">
         <v>64</v>
       </c>
@@ -12423,7 +12420,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C132" s="1" t="s">
         <v>66</v>
       </c>
@@ -12437,7 +12434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C133" s="1" t="s">
         <v>735</v>
       </c>
@@ -12460,7 +12457,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C134" s="1" t="s">
         <v>620</v>
       </c>
@@ -12483,7 +12480,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C135" s="1" t="s">
         <v>736</v>
       </c>
@@ -12506,7 +12503,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C136" s="1" t="s">
         <v>737</v>
       </c>
@@ -12529,7 +12526,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C137" s="1" t="s">
         <v>625</v>
       </c>
@@ -12552,7 +12549,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C138" s="1" t="s">
         <v>627</v>
       </c>
@@ -12575,7 +12572,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C139" s="1" t="s">
         <v>670</v>
       </c>
@@ -12592,7 +12589,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C140" s="1" t="s">
         <v>631</v>
       </c>
@@ -12615,7 +12612,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C141" s="1" t="s">
         <v>633</v>
       </c>
@@ -12638,7 +12635,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>808</v>
       </c>
@@ -12664,7 +12661,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C144" s="1" t="s">
         <v>3</v>
       </c>
@@ -12687,7 +12684,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="145" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="145" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C145" s="1" t="s">
         <v>5</v>
       </c>
@@ -12710,7 +12707,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="146" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="146" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C146" s="1" t="s">
         <v>7</v>
       </c>
@@ -12733,7 +12730,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="147" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="147" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C147" s="1" t="s">
         <v>9</v>
       </c>
@@ -12756,7 +12753,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="148" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="148" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C148" s="1" t="s">
         <v>11</v>
       </c>
@@ -12782,7 +12779,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="149" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="149" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C149" s="1" t="s">
         <v>12</v>
       </c>
@@ -12796,7 +12793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="150" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C150" s="1" t="s">
         <v>14</v>
       </c>
@@ -12819,7 +12816,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="151" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="151" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C151" s="1" t="s">
         <v>57</v>
       </c>
@@ -12842,7 +12839,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="152" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="152" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C152" s="1" t="s">
         <v>60</v>
       </c>
@@ -12856,7 +12853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="153" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C153" s="1" t="s">
         <v>62</v>
       </c>
@@ -12879,7 +12876,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="154" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="154" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C154" s="1" t="s">
         <v>64</v>
       </c>
@@ -12902,7 +12899,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="155" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="155" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C155" s="1" t="s">
         <v>735</v>
       </c>
@@ -12925,7 +12922,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="156" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="156" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C156" s="1" t="s">
         <v>620</v>
       </c>
@@ -12948,7 +12945,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="157" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="157" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C157" s="1" t="s">
         <v>736</v>
       </c>
@@ -12971,7 +12968,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="158" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="158" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C158" s="1" t="s">
         <v>737</v>
       </c>
@@ -12994,7 +12991,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="159" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="159" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C159" s="1" t="s">
         <v>625</v>
       </c>
@@ -13017,7 +13014,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="160" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="160" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C160" s="1" t="s">
         <v>627</v>
       </c>
@@ -13040,7 +13037,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C161" s="1" t="s">
         <v>670</v>
       </c>
@@ -13063,7 +13060,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>823</v>
       </c>
@@ -13089,7 +13086,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C164" s="1" t="s">
         <v>3</v>
       </c>
@@ -13112,7 +13109,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C165" s="1" t="s">
         <v>5</v>
       </c>
@@ -13135,7 +13132,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C166" s="1" t="s">
         <v>7</v>
       </c>
@@ -13158,7 +13155,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C167" s="1" t="s">
         <v>9</v>
       </c>
@@ -13181,7 +13178,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C168" s="1" t="s">
         <v>11</v>
       </c>
@@ -13204,7 +13201,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C169" s="1" t="s">
         <v>12</v>
       </c>
@@ -13227,7 +13224,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C170" s="1" t="s">
         <v>60</v>
       </c>
@@ -13241,7 +13238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C171" s="1" t="s">
         <v>62</v>
       </c>
@@ -13264,7 +13261,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C172" s="1" t="s">
         <v>64</v>
       </c>
@@ -13287,7 +13284,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C173" s="1" t="s">
         <v>735</v>
       </c>
@@ -13310,7 +13307,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C174" s="1" t="s">
         <v>620</v>
       </c>
@@ -13333,7 +13330,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C175" s="1" t="s">
         <v>736</v>
       </c>
@@ -13359,7 +13356,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C176" s="1" t="s">
         <v>737</v>
       </c>
@@ -13382,12 +13379,12 @@
         <v>874</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J177" s="1" t="s">
         <v>1213</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>834</v>
       </c>
@@ -13416,7 +13413,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C179" s="1" t="s">
         <v>3</v>
       </c>
@@ -13439,7 +13436,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C180" s="1" t="s">
         <v>5</v>
       </c>
@@ -13462,7 +13459,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C181" s="1" t="s">
         <v>11</v>
       </c>
@@ -13476,7 +13473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C182" s="1" t="s">
         <v>12</v>
       </c>
@@ -13490,7 +13487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C183" s="1" t="s">
         <v>14</v>
       </c>
@@ -13504,7 +13501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C184" s="1" t="s">
         <v>62</v>
       </c>
@@ -13530,7 +13527,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C185" s="1" t="s">
         <v>64</v>
       </c>
@@ -13556,7 +13553,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C186" s="1" t="s">
         <v>66</v>
       </c>
@@ -13579,7 +13576,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C187" s="1" t="s">
         <v>824</v>
       </c>
@@ -13605,7 +13602,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C188" s="1" t="s">
         <v>620</v>
       </c>
@@ -13628,7 +13625,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C189" s="1" t="s">
         <v>736</v>
       </c>
@@ -13654,7 +13651,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C190" s="1" t="s">
         <v>737</v>
       </c>
@@ -13677,7 +13674,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>853</v>
       </c>
@@ -13703,7 +13700,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="193" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="193" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C193" s="1" t="s">
         <v>3</v>
       </c>
@@ -13726,7 +13723,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="194" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="194" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C194" s="1" t="s">
         <v>5</v>
       </c>
@@ -13749,7 +13746,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="195" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="195" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C195" s="1" t="s">
         <v>7</v>
       </c>
@@ -13772,7 +13769,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="196" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="196" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C196" s="1" t="s">
         <v>9</v>
       </c>
@@ -13795,7 +13792,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="197" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="197" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C197" s="1" t="s">
         <v>11</v>
       </c>
@@ -13818,7 +13815,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="198" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="198" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C198" s="1" t="s">
         <v>14</v>
       </c>
@@ -13832,7 +13829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="199" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C199" s="1" t="s">
         <v>62</v>
       </c>
@@ -13855,7 +13852,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="200" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="200" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C200" s="1" t="s">
         <v>835</v>
       </c>
@@ -13869,7 +13866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="201" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C201" s="1" t="s">
         <v>836</v>
       </c>
@@ -13892,7 +13889,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="202" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="202" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C202" s="1" t="s">
         <v>837</v>
       </c>
@@ -13906,7 +13903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="203" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C203" s="1" t="s">
         <v>620</v>
       </c>
@@ -13929,7 +13926,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="204" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="204" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C204" s="1" t="s">
         <v>838</v>
       </c>
@@ -13952,7 +13949,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="205" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="205" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C205" s="1" t="s">
         <v>839</v>
       </c>
@@ -13966,7 +13963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="206" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C206" s="1" t="s">
         <v>840</v>
       </c>
@@ -13989,7 +13986,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="207" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="207" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C207" s="1" t="s">
         <v>841</v>
       </c>
@@ -14012,7 +14009,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>866</v>
       </c>
@@ -14038,7 +14035,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C210" s="1" t="s">
         <v>3</v>
       </c>
@@ -14061,7 +14058,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C211" s="1" t="s">
         <v>5</v>
       </c>
@@ -14084,7 +14081,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C212" s="1" t="s">
         <v>7</v>
       </c>
@@ -14107,7 +14104,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C213" s="1" t="s">
         <v>9</v>
       </c>
@@ -14130,7 +14127,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C214" s="1" t="s">
         <v>11</v>
       </c>
@@ -14153,7 +14150,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C215" s="1" t="s">
         <v>14</v>
       </c>
@@ -14176,7 +14173,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C216" s="1" t="s">
         <v>62</v>
       </c>
@@ -14199,7 +14196,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C217" s="1" t="s">
         <v>835</v>
       </c>
@@ -14213,7 +14210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C218" s="1" t="s">
         <v>836</v>
       </c>
@@ -14236,7 +14233,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C219" s="1" t="s">
         <v>837</v>
       </c>
@@ -14250,7 +14247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C220" s="1" t="s">
         <v>620</v>
       </c>
@@ -14273,7 +14270,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C221" s="1" t="s">
         <v>838</v>
       </c>
@@ -14296,7 +14293,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C222" s="1" t="s">
         <v>839</v>
       </c>
@@ -14310,7 +14307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C223" s="1" t="s">
         <v>840</v>
       </c>
@@ -14324,7 +14321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C224" s="1" t="s">
         <v>841</v>
       </c>
@@ -14347,7 +14344,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>867</v>
       </c>
@@ -14382,22 +14379,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BA3259E-AFD6-4FCB-BD83-44E5FC56E958}">
   <dimension ref="A1:J230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A189" workbookViewId="0">
-      <selection activeCell="J228" sqref="J228"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.109375" style="1"/>
+    <col min="3" max="3" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="38" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="8" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C1" s="4" t="s">
         <v>372</v>
       </c>
@@ -14420,7 +14417,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>925</v>
       </c>
@@ -14446,7 +14443,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
@@ -14469,7 +14466,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
@@ -14492,7 +14489,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
@@ -14515,7 +14512,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
@@ -14538,7 +14535,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
@@ -14564,7 +14561,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
         <v>11</v>
       </c>
@@ -14587,7 +14584,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C9" s="1" t="s">
         <v>12</v>
       </c>
@@ -14610,7 +14607,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
         <v>613</v>
       </c>
@@ -14633,7 +14630,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C11" s="1" t="s">
         <v>14</v>
       </c>
@@ -14656,7 +14653,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C12" s="1" t="s">
         <v>893</v>
       </c>
@@ -14679,7 +14676,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C13" s="1" t="s">
         <v>55</v>
       </c>
@@ -14702,7 +14699,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
         <v>18</v>
       </c>
@@ -14725,7 +14722,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C15" s="1" t="s">
         <v>20</v>
       </c>
@@ -14748,7 +14745,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C16" s="1" t="s">
         <v>60</v>
       </c>
@@ -14771,7 +14768,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C17" s="1" t="s">
         <v>62</v>
       </c>
@@ -14794,7 +14791,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C18" s="1" t="s">
         <v>64</v>
       </c>
@@ -14817,7 +14814,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C19" s="1" t="s">
         <v>66</v>
       </c>
@@ -14840,7 +14837,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C20" s="1" t="s">
         <v>896</v>
       </c>
@@ -14863,7 +14860,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C21" s="1" t="s">
         <v>898</v>
       </c>
@@ -14886,7 +14883,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C22" s="1" t="s">
         <v>899</v>
       </c>
@@ -14909,7 +14906,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C23" s="1" t="s">
         <v>900</v>
       </c>
@@ -14932,7 +14929,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C24" s="1" t="s">
         <v>625</v>
       </c>
@@ -14955,7 +14952,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C25" s="1" t="s">
         <v>627</v>
       </c>
@@ -14978,7 +14975,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C26" s="1" t="s">
         <v>628</v>
       </c>
@@ -15001,7 +14998,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C27" s="1" t="s">
         <v>37</v>
       </c>
@@ -15027,7 +15024,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C28" s="1" t="s">
         <v>39</v>
       </c>
@@ -15050,7 +15047,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C29" s="1" t="s">
         <v>631</v>
       </c>
@@ -15073,7 +15070,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C30" s="1" t="s">
         <v>633</v>
       </c>
@@ -15096,7 +15093,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>962</v>
       </c>
@@ -15122,7 +15119,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="33" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C33" s="1" t="s">
         <v>3</v>
       </c>
@@ -15145,7 +15142,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="34" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C34" s="1" t="s">
         <v>5</v>
       </c>
@@ -15168,7 +15165,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="35" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C35" s="1" t="s">
         <v>7</v>
       </c>
@@ -15191,7 +15188,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="36" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C36" s="1" t="s">
         <v>9</v>
       </c>
@@ -15214,7 +15211,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="37" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C37" s="1" t="s">
         <v>11</v>
       </c>
@@ -15237,7 +15234,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="38" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C38" s="1" t="s">
         <v>12</v>
       </c>
@@ -15260,7 +15257,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="39" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C39" s="1" t="s">
         <v>613</v>
       </c>
@@ -15286,7 +15283,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="40" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C40" s="1" t="s">
         <v>14</v>
       </c>
@@ -15312,7 +15309,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="41" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C41" s="1" t="s">
         <v>931</v>
       </c>
@@ -15335,7 +15332,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="42" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C42" s="1" t="s">
         <v>55</v>
       </c>
@@ -15358,7 +15355,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="43" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C43" s="1" t="s">
         <v>18</v>
       </c>
@@ -15381,7 +15378,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="44" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C44" s="1" t="s">
         <v>20</v>
       </c>
@@ -15404,7 +15401,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="45" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C45" s="1" t="s">
         <v>60</v>
       </c>
@@ -15427,7 +15424,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="46" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C46" s="1" t="s">
         <v>62</v>
       </c>
@@ -15450,7 +15447,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="47" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C47" s="1" t="s">
         <v>64</v>
       </c>
@@ -15473,7 +15470,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="48" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C48" s="1" t="s">
         <v>66</v>
       </c>
@@ -15496,7 +15493,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C49" s="1" t="s">
         <v>896</v>
       </c>
@@ -15519,7 +15516,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C50" s="1" t="s">
         <v>898</v>
       </c>
@@ -15542,7 +15539,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C51" s="1" t="s">
         <v>934</v>
       </c>
@@ -15565,7 +15562,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C52" s="1" t="s">
         <v>900</v>
       </c>
@@ -15588,7 +15585,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C53" s="1" t="s">
         <v>625</v>
       </c>
@@ -15611,7 +15608,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C54" s="1" t="s">
         <v>627</v>
       </c>
@@ -15634,7 +15631,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C55" s="1" t="s">
         <v>670</v>
       </c>
@@ -15657,7 +15654,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C56" s="1" t="s">
         <v>37</v>
       </c>
@@ -15680,7 +15677,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C57" s="1" t="s">
         <v>39</v>
       </c>
@@ -15703,7 +15700,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C58" s="1" t="s">
         <v>631</v>
       </c>
@@ -15726,7 +15723,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C59" s="1" t="s">
         <v>633</v>
       </c>
@@ -15749,7 +15746,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>997</v>
       </c>
@@ -15775,7 +15772,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C62" s="1" t="s">
         <v>3</v>
       </c>
@@ -15798,7 +15795,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C63" s="1" t="s">
         <v>5</v>
       </c>
@@ -15821,7 +15818,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C64" s="1" t="s">
         <v>7</v>
       </c>
@@ -15844,7 +15841,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="65" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C65" s="1" t="s">
         <v>9</v>
       </c>
@@ -15867,7 +15864,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="66" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C66" s="1" t="s">
         <v>11</v>
       </c>
@@ -15890,7 +15887,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="67" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C67" s="1" t="s">
         <v>12</v>
       </c>
@@ -15913,7 +15910,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="68" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C68" s="1" t="s">
         <v>613</v>
       </c>
@@ -15936,7 +15933,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="69" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C69" s="1" t="s">
         <v>14</v>
       </c>
@@ -15959,7 +15956,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="70" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C70" s="1" t="s">
         <v>931</v>
       </c>
@@ -15982,7 +15979,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="71" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C71" s="1" t="s">
         <v>55</v>
       </c>
@@ -16005,7 +16002,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="72" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C72" s="1" t="s">
         <v>968</v>
       </c>
@@ -16028,7 +16025,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="73" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C73" s="1" t="s">
         <v>20</v>
       </c>
@@ -16051,7 +16048,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="74" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C74" s="1" t="s">
         <v>60</v>
       </c>
@@ -16074,7 +16071,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="75" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C75" s="1" t="s">
         <v>62</v>
       </c>
@@ -16097,7 +16094,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="76" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C76" s="1" t="s">
         <v>64</v>
       </c>
@@ -16120,7 +16117,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="77" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C77" s="1" t="s">
         <v>66</v>
       </c>
@@ -16143,7 +16140,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="78" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C78" s="1" t="s">
         <v>896</v>
       </c>
@@ -16166,7 +16163,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="79" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C79" s="1" t="s">
         <v>898</v>
       </c>
@@ -16189,7 +16186,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="80" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C80" s="1" t="s">
         <v>934</v>
       </c>
@@ -16212,7 +16209,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C81" s="1" t="s">
         <v>900</v>
       </c>
@@ -16235,7 +16232,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C82" s="1" t="s">
         <v>625</v>
       </c>
@@ -16261,7 +16258,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C83" s="1" t="s">
         <v>627</v>
       </c>
@@ -16284,7 +16281,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C84" s="1" t="s">
         <v>670</v>
       </c>
@@ -16310,7 +16307,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C85" s="1" t="s">
         <v>37</v>
       </c>
@@ -16330,7 +16327,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C86" s="1" t="s">
         <v>39</v>
       </c>
@@ -16353,7 +16350,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C87" s="1" t="s">
         <v>631</v>
       </c>
@@ -16376,7 +16373,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C88" s="1" t="s">
         <v>633</v>
       </c>
@@ -16399,7 +16396,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>1036</v>
       </c>
@@ -16425,7 +16422,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C91" s="1" t="s">
         <v>3</v>
       </c>
@@ -16448,7 +16445,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C92" s="1" t="s">
         <v>5</v>
       </c>
@@ -16471,7 +16468,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C93" s="1" t="s">
         <v>7</v>
       </c>
@@ -16494,7 +16491,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C94" s="1" t="s">
         <v>9</v>
       </c>
@@ -16517,7 +16514,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C95" s="1" t="s">
         <v>11</v>
       </c>
@@ -16540,7 +16537,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C96" s="1" t="s">
         <v>12</v>
       </c>
@@ -16563,7 +16560,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="97" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C97" s="1" t="s">
         <v>14</v>
       </c>
@@ -16586,7 +16583,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="98" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C98" s="1" t="s">
         <v>999</v>
       </c>
@@ -16609,7 +16606,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="99" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="99" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C99" s="1" t="s">
         <v>55</v>
       </c>
@@ -16632,7 +16629,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="100" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C100" s="1" t="s">
         <v>60</v>
       </c>
@@ -16655,7 +16652,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="101" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C101" s="1" t="s">
         <v>62</v>
       </c>
@@ -16678,7 +16675,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="102" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C102" s="1" t="s">
         <v>64</v>
       </c>
@@ -16701,7 +16698,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="103" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="103" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C103" s="1" t="s">
         <v>66</v>
       </c>
@@ -16724,7 +16721,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="104" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="104" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C104" s="1" t="s">
         <v>1004</v>
       </c>
@@ -16747,7 +16744,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="105" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="105" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C105" s="1" t="s">
         <v>1005</v>
       </c>
@@ -16770,7 +16767,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="106" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="106" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C106" s="1" t="s">
         <v>1007</v>
       </c>
@@ -16793,7 +16790,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="107" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="107" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C107" s="1" t="s">
         <v>1008</v>
       </c>
@@ -16816,7 +16813,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="108" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="108" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C108" s="1" t="s">
         <v>625</v>
       </c>
@@ -16842,7 +16839,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="109" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="109" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C109" s="1" t="s">
         <v>627</v>
       </c>
@@ -16868,7 +16865,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="110" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="110" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C110" s="1" t="s">
         <v>670</v>
       </c>
@@ -16891,7 +16888,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="111" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="111" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C111" s="1" t="s">
         <v>37</v>
       </c>
@@ -16911,7 +16908,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="112" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="112" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C112" s="1" t="s">
         <v>39</v>
       </c>
@@ -16934,7 +16931,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C113" s="1" t="s">
         <v>631</v>
       </c>
@@ -16957,7 +16954,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C114" s="1" t="s">
         <v>633</v>
       </c>
@@ -16980,7 +16977,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>1068</v>
       </c>
@@ -17006,7 +17003,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C117" s="1" t="s">
         <v>3</v>
       </c>
@@ -17029,7 +17026,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C118" s="1" t="s">
         <v>5</v>
       </c>
@@ -17052,7 +17049,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C119" s="1" t="s">
         <v>7</v>
       </c>
@@ -17075,7 +17072,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C120" s="1" t="s">
         <v>9</v>
       </c>
@@ -17098,7 +17095,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C121" s="1" t="s">
         <v>11</v>
       </c>
@@ -17121,7 +17118,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C122" s="1" t="s">
         <v>12</v>
       </c>
@@ -17144,7 +17141,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C123" s="1" t="s">
         <v>14</v>
       </c>
@@ -17167,7 +17164,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C124" s="1" t="s">
         <v>999</v>
       </c>
@@ -17193,7 +17190,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C125" s="1" t="s">
         <v>55</v>
       </c>
@@ -17216,7 +17213,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C126" s="1" t="s">
         <v>60</v>
       </c>
@@ -17239,7 +17236,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C127" s="1" t="s">
         <v>62</v>
       </c>
@@ -17262,7 +17259,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C128" s="1" t="s">
         <v>64</v>
       </c>
@@ -17285,7 +17282,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C129" s="1" t="s">
         <v>66</v>
       </c>
@@ -17308,7 +17305,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C130" s="1" t="s">
         <v>1004</v>
       </c>
@@ -17331,7 +17328,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C131" s="1" t="s">
         <v>1005</v>
       </c>
@@ -17354,7 +17351,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C132" s="1" t="s">
         <v>1007</v>
       </c>
@@ -17377,7 +17374,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C133" s="1" t="s">
         <v>1008</v>
       </c>
@@ -17400,7 +17397,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C134" s="1" t="s">
         <v>1042</v>
       </c>
@@ -17426,7 +17423,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C135" s="1" t="s">
         <v>625</v>
       </c>
@@ -17449,7 +17446,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C136" s="1" t="s">
         <v>627</v>
       </c>
@@ -17472,7 +17469,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C137" s="1" t="s">
         <v>670</v>
       </c>
@@ -17495,7 +17492,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C138" s="1" t="s">
         <v>1044</v>
       </c>
@@ -17518,7 +17515,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C139" s="1" t="s">
         <v>1046</v>
       </c>
@@ -17541,7 +17538,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C140" s="1" t="s">
         <v>631</v>
       </c>
@@ -17564,7 +17561,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C141" s="1" t="s">
         <v>633</v>
       </c>
@@ -17587,7 +17584,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>1097</v>
       </c>
@@ -17613,7 +17610,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C144" s="1" t="s">
         <v>3</v>
       </c>
@@ -17636,7 +17633,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="145" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="145" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C145" s="1" t="s">
         <v>5</v>
       </c>
@@ -17659,7 +17656,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="146" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="146" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C146" s="1" t="s">
         <v>7</v>
       </c>
@@ -17682,7 +17679,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="147" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="147" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C147" s="1" t="s">
         <v>9</v>
       </c>
@@ -17705,7 +17702,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="148" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="148" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C148" s="1" t="s">
         <v>11</v>
       </c>
@@ -17728,7 +17725,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="149" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="149" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C149" s="1" t="s">
         <v>12</v>
       </c>
@@ -17751,7 +17748,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="150" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="150" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C150" s="1" t="s">
         <v>613</v>
       </c>
@@ -17774,7 +17771,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="151" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="151" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C151" s="1" t="s">
         <v>14</v>
       </c>
@@ -17797,7 +17794,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="152" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="152" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C152" s="1" t="s">
         <v>1071</v>
       </c>
@@ -17811,7 +17808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="153" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C153" s="1" t="s">
         <v>734</v>
       </c>
@@ -17825,7 +17822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="154" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C154" s="1" t="s">
         <v>60</v>
       </c>
@@ -17848,7 +17845,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="155" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="155" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C155" s="1" t="s">
         <v>62</v>
       </c>
@@ -17871,7 +17868,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="156" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="156" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C156" s="1" t="s">
         <v>64</v>
       </c>
@@ -17894,7 +17891,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="157" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="157" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C157" s="1" t="s">
         <v>66</v>
       </c>
@@ -17917,7 +17914,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="158" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="158" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C158" s="1" t="s">
         <v>1073</v>
       </c>
@@ -17940,7 +17937,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="159" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="159" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C159" s="1" t="s">
         <v>620</v>
       </c>
@@ -17963,7 +17960,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="160" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="160" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C160" s="1" t="s">
         <v>702</v>
       </c>
@@ -17986,7 +17983,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C161" s="1" t="s">
         <v>1075</v>
       </c>
@@ -18009,7 +18006,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C162" s="1" t="s">
         <v>1042</v>
       </c>
@@ -18035,7 +18032,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C163" s="1" t="s">
         <v>625</v>
       </c>
@@ -18058,7 +18055,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C164" s="1" t="s">
         <v>627</v>
       </c>
@@ -18081,7 +18078,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C165" s="1" t="s">
         <v>670</v>
       </c>
@@ -18104,7 +18101,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C166" s="1" t="s">
         <v>1044</v>
       </c>
@@ -18127,7 +18124,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C167" s="1" t="s">
         <v>1046</v>
       </c>
@@ -18150,7 +18147,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C168" s="1" t="s">
         <v>631</v>
       </c>
@@ -18173,7 +18170,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C169" s="1" t="s">
         <v>633</v>
       </c>
@@ -18196,7 +18193,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>1116</v>
       </c>
@@ -18222,7 +18219,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C172" s="1" t="s">
         <v>3</v>
       </c>
@@ -18245,7 +18242,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C173" s="1" t="s">
         <v>5</v>
       </c>
@@ -18271,7 +18268,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C174" s="1" t="s">
         <v>7</v>
       </c>
@@ -18294,7 +18291,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C175" s="1" t="s">
         <v>9</v>
       </c>
@@ -18317,7 +18314,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C176" s="1" t="s">
         <v>11</v>
       </c>
@@ -18343,7 +18340,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="177" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="177" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C177" s="1" t="s">
         <v>12</v>
       </c>
@@ -18363,7 +18360,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="178" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="178" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C178" s="1" t="s">
         <v>14</v>
       </c>
@@ -18383,7 +18380,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="179" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="179" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C179" s="1" t="s">
         <v>1071</v>
       </c>
@@ -18403,7 +18400,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="180" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="180" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C180" s="1" t="s">
         <v>734</v>
       </c>
@@ -18423,7 +18420,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="181" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="181" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C181" s="1" t="s">
         <v>60</v>
       </c>
@@ -18446,7 +18443,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="182" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="182" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C182" s="1" t="s">
         <v>62</v>
       </c>
@@ -18469,7 +18466,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="183" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="183" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C183" s="1" t="s">
         <v>64</v>
       </c>
@@ -18492,7 +18489,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="184" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="184" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C184" s="1" t="s">
         <v>66</v>
       </c>
@@ -18515,7 +18512,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="185" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="185" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C185" s="1" t="s">
         <v>1073</v>
       </c>
@@ -18541,7 +18538,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="186" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="186" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C186" s="1" t="s">
         <v>620</v>
       </c>
@@ -18567,7 +18564,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="187" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="187" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C187" s="1" t="s">
         <v>702</v>
       </c>
@@ -18590,7 +18587,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="188" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="188" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C188" s="1" t="s">
         <v>1075</v>
       </c>
@@ -18616,7 +18613,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="189" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="189" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C189" s="1" t="s">
         <v>1042</v>
       </c>
@@ -18636,7 +18633,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="190" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="190" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C190" s="1" t="s">
         <v>625</v>
       </c>
@@ -18659,7 +18656,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="191" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="191" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C191" s="1" t="s">
         <v>627</v>
       </c>
@@ -18682,7 +18679,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="192" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="192" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C192" s="1" t="s">
         <v>670</v>
       </c>
@@ -18708,7 +18705,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C193" s="1" t="s">
         <v>1044</v>
       </c>
@@ -18728,7 +18725,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C194" s="1" t="s">
         <v>1046</v>
       </c>
@@ -18748,7 +18745,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C195" s="1" t="s">
         <v>631</v>
       </c>
@@ -18768,7 +18765,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C196" s="1" t="s">
         <v>633</v>
       </c>
@@ -18788,7 +18785,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>1137</v>
       </c>
@@ -18814,7 +18811,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C199" s="1" t="s">
         <v>3</v>
       </c>
@@ -18837,7 +18834,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C200" s="1" t="s">
         <v>5</v>
       </c>
@@ -18860,7 +18857,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C201" s="1" t="s">
         <v>7</v>
       </c>
@@ -18886,7 +18883,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C202" s="1" t="s">
         <v>9</v>
       </c>
@@ -18909,7 +18906,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C203" s="1" t="s">
         <v>11</v>
       </c>
@@ -18932,7 +18929,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C204" s="1" t="s">
         <v>12</v>
       </c>
@@ -18955,7 +18952,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C205" s="1" t="s">
         <v>14</v>
       </c>
@@ -18978,7 +18975,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C206" s="1" t="s">
         <v>60</v>
       </c>
@@ -19001,7 +18998,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C207" s="1" t="s">
         <v>62</v>
       </c>
@@ -19024,7 +19021,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C208" s="1" t="s">
         <v>64</v>
       </c>
@@ -19047,7 +19044,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C209" s="1" t="s">
         <v>66</v>
       </c>
@@ -19070,7 +19067,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C210" s="1" t="s">
         <v>619</v>
       </c>
@@ -19090,7 +19087,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C211" s="1" t="s">
         <v>620</v>
       </c>
@@ -19113,7 +19110,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C212" s="1" t="s">
         <v>736</v>
       </c>
@@ -19136,7 +19133,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C213" s="1" t="s">
         <v>623</v>
       </c>
@@ -19159,7 +19156,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C214" s="1" t="s">
         <v>1042</v>
       </c>
@@ -19179,7 +19176,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C215" s="1" t="s">
         <v>625</v>
       </c>
@@ -19199,7 +19196,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C216" s="1" t="s">
         <v>627</v>
       </c>
@@ -19222,7 +19219,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C217" s="1" t="s">
         <v>670</v>
       </c>
@@ -19245,7 +19242,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>1139</v>
       </c>
@@ -19268,7 +19265,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C220" s="1" t="s">
         <v>3</v>
       </c>
@@ -19288,7 +19285,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C221" s="1" t="s">
         <v>5</v>
       </c>
@@ -19308,7 +19305,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C222" s="1" t="s">
         <v>7</v>
       </c>
@@ -19328,7 +19325,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C223" s="1" t="s">
         <v>9</v>
       </c>
@@ -19354,7 +19351,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C224" s="1" t="s">
         <v>11</v>
       </c>
@@ -19374,7 +19371,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="225" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="225" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C225" s="1" t="s">
         <v>14</v>
       </c>
@@ -19394,7 +19391,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="226" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="226" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C226" s="1" t="s">
         <v>62</v>
       </c>
@@ -19414,7 +19411,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="227" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="227" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C227" s="1" t="s">
         <v>619</v>
       </c>
@@ -19434,7 +19431,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="228" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="228" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C228" s="1" t="s">
         <v>620</v>
       </c>
@@ -19454,7 +19451,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="229" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="229" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C229" s="1" t="s">
         <v>736</v>
       </c>
@@ -19477,7 +19474,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="230" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="230" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C230" s="1" t="s">
         <v>623</v>
       </c>
